--- a/Jogos_do_Dia/2023-06-02_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-02_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="207">
   <si>
     <t>League</t>
   </si>
@@ -154,21 +154,21 @@
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
+    <t>Argentina Prim B Nacional</t>
+  </si>
+  <si>
+    <t>Tunisia Ligue 1</t>
+  </si>
+  <si>
+    <t>Ecuador Primera Categoría Serie A</t>
+  </si>
+  <si>
+    <t>Argentina Primera División</t>
+  </si>
+  <si>
     <t>Brazil Serie B</t>
   </si>
   <si>
-    <t>Argentina Prim B Nacional</t>
-  </si>
-  <si>
-    <t>Ecuador Primera Categoría Serie A</t>
-  </si>
-  <si>
-    <t>Argentina Primera División</t>
-  </si>
-  <si>
-    <t>Tunisia Ligue 1</t>
-  </si>
-  <si>
     <t>Brazil Serie C</t>
   </si>
   <si>
@@ -184,6 +184,12 @@
     <t>Chile Segunda División</t>
   </si>
   <si>
+    <t>Peru Primera División</t>
+  </si>
+  <si>
+    <t>Canada Canadian Premier League</t>
+  </si>
+  <si>
     <t>08:35:00</t>
   </si>
   <si>
@@ -223,36 +229,48 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>22:00:00</t>
+  </si>
+  <si>
+    <t>22:30:00</t>
+  </si>
+  <si>
+    <t>23:00:00</t>
+  </si>
+  <si>
+    <t>Beijing Guoan</t>
+  </si>
+  <si>
     <t>Hangzhou</t>
   </si>
   <si>
-    <t>Beijing Guoan</t>
-  </si>
-  <si>
     <t>Ceramica Cleopatra</t>
   </si>
   <si>
     <t>Lokomotiv Plovdiv</t>
   </si>
   <si>
+    <t>Nykøbing</t>
+  </si>
+  <si>
+    <t>Hillerød</t>
+  </si>
+  <si>
     <t>HB Køge</t>
   </si>
   <si>
-    <t>Hillerød</t>
-  </si>
-  <si>
-    <t>Nykøbing</t>
-  </si>
-  <si>
     <t>Austria Lustenau</t>
   </si>
   <si>
+    <t>Ried</t>
+  </si>
+  <si>
     <t>Wattens</t>
   </si>
   <si>
-    <t>Ried</t>
-  </si>
-  <si>
     <t>Stjarnan</t>
   </si>
   <si>
@@ -268,165 +286,192 @@
     <t>Bari 1908</t>
   </si>
   <si>
+    <t>Niort</t>
+  </si>
+  <si>
+    <t>Amiens SC</t>
+  </si>
+  <si>
+    <t>Pau</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Nîmes</t>
+  </si>
+  <si>
     <t>Le Havre</t>
   </si>
   <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Paris</t>
+    <t>Derry City</t>
+  </si>
+  <si>
+    <t>Bohemians</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Drogheda United</t>
+  </si>
+  <si>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers</t>
   </si>
   <si>
     <t>Grenoble Foot 38</t>
   </si>
   <si>
-    <t>Amiens SC</t>
-  </si>
-  <si>
-    <t>Pau</t>
-  </si>
-  <si>
-    <t>Nîmes</t>
-  </si>
-  <si>
     <t>Saint-Étienne</t>
   </si>
   <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Bohemians</t>
-  </si>
-  <si>
-    <t>Derry City</t>
-  </si>
-  <si>
-    <t>Drogheda United</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers</t>
-  </si>
-  <si>
-    <t>Niort</t>
-  </si>
-  <si>
     <t>Valur</t>
   </si>
   <si>
+    <t>Fram</t>
+  </si>
+  <si>
     <t>Breidablik</t>
   </si>
   <si>
-    <t>Fram</t>
+    <t>Ferro Carril Oeste</t>
+  </si>
+  <si>
+    <t>Monastir</t>
+  </si>
+  <si>
+    <t>Chacarita Juniors</t>
+  </si>
+  <si>
+    <t>CSD Independiente del Valle</t>
+  </si>
+  <si>
+    <t>ES Tunis</t>
+  </si>
+  <si>
+    <t>Tataouine</t>
+  </si>
+  <si>
+    <t>CS Sfaxien</t>
+  </si>
+  <si>
+    <t>Independiente Rivadavia</t>
+  </si>
+  <si>
+    <t>Chaco For Ever</t>
+  </si>
+  <si>
+    <t>Estudiantes</t>
+  </si>
+  <si>
+    <t>Tristán Suárez</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Racing Córdoba</t>
+  </si>
+  <si>
+    <t>Deportivo Riestra</t>
   </si>
   <si>
     <t>Ceará</t>
   </si>
   <si>
-    <t>Chacarita Juniors</t>
-  </si>
-  <si>
-    <t>CSD Independiente del Valle</t>
-  </si>
-  <si>
     <t>Botafogo SP</t>
   </si>
   <si>
-    <t>Estudiantes</t>
-  </si>
-  <si>
-    <t>ES Tunis</t>
-  </si>
-  <si>
-    <t>Tataouine</t>
-  </si>
-  <si>
-    <t>Ferro Carril Oeste</t>
-  </si>
-  <si>
-    <t>Deportivo Riestra</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>Tristán Suárez</t>
-  </si>
-  <si>
     <t>Club Atlético Mitre</t>
   </si>
   <si>
-    <t>Chaco For Ever</t>
-  </si>
-  <si>
-    <t>Independiente Rivadavia</t>
-  </si>
-  <si>
-    <t>Monastir</t>
-  </si>
-  <si>
-    <t>CS Sfaxien</t>
-  </si>
-  <si>
-    <t>Racing Córdoba</t>
+    <t>La Luz</t>
   </si>
   <si>
     <t>América RN</t>
   </si>
   <si>
-    <t>La Luz</t>
-  </si>
-  <si>
     <t>Aurora</t>
   </si>
   <si>
     <t>Charleston Battery</t>
   </si>
   <si>
+    <t>Sportivo Luqueño</t>
+  </si>
+  <si>
     <t>Cerro Porteño</t>
   </si>
   <si>
     <t>Guaraní</t>
   </si>
   <si>
-    <t>Sportivo Luqueño</t>
-  </si>
-  <si>
     <t>Deportes Limache</t>
   </si>
   <si>
+    <t>Tigre</t>
+  </si>
+  <si>
+    <t>Vitória</t>
+  </si>
+  <si>
+    <t>Argentinos Juniors</t>
+  </si>
+  <si>
+    <t>Criciúma</t>
+  </si>
+  <si>
+    <t>LDU Quito</t>
+  </si>
+  <si>
+    <t>Colorado Springs</t>
+  </si>
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t>Universitario</t>
+  </si>
+  <si>
+    <t>Vancouver FC</t>
+  </si>
+  <si>
+    <t>Changchun Yatai</t>
+  </si>
+  <si>
     <t>Shenzhen</t>
   </si>
   <si>
-    <t>Changchun Yatai</t>
-  </si>
-  <si>
     <t>Pharco</t>
   </si>
   <si>
     <t>Cherno More</t>
   </si>
   <si>
+    <t>Fredericia</t>
+  </si>
+  <si>
+    <t>Hobro</t>
+  </si>
+  <si>
     <t>Fremad Amager</t>
   </si>
   <si>
-    <t>Hobro</t>
-  </si>
-  <si>
-    <t>Fredericia</t>
-  </si>
-  <si>
     <t>Hartberg</t>
   </si>
   <si>
+    <t>Wolfsberger AC</t>
+  </si>
+  <si>
     <t>Rheindorf Altach</t>
   </si>
   <si>
-    <t>Wolfsberger AC</t>
-  </si>
-  <si>
     <t>KA</t>
   </si>
   <si>
@@ -442,130 +487,154 @@
     <t>Südtirol</t>
   </si>
   <si>
+    <t>Quevilly Rouen</t>
+  </si>
+  <si>
+    <t>Laval</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Bastia</t>
+  </si>
+  <si>
+    <t>Annecy</t>
+  </si>
+  <si>
+    <t>Sochaux</t>
+  </si>
+  <si>
     <t>Dijon</t>
   </si>
   <si>
-    <t>Bastia</t>
-  </si>
-  <si>
-    <t>Annecy</t>
+    <t>Shelbourne</t>
+  </si>
+  <si>
+    <t>Sligo Rovers</t>
+  </si>
+  <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Cork City</t>
+  </si>
+  <si>
+    <t>St Patrick's Athl.</t>
+  </si>
+  <si>
+    <t>Dundalk</t>
   </si>
   <si>
     <t>Guingamp</t>
   </si>
   <si>
-    <t>Laval</t>
-  </si>
-  <si>
-    <t>Caen</t>
-  </si>
-  <si>
-    <t>Sochaux</t>
-  </si>
-  <si>
     <t>Valenciennes</t>
   </si>
   <si>
-    <t>Rodez</t>
-  </si>
-  <si>
-    <t>Sligo Rovers</t>
-  </si>
-  <si>
-    <t>Shelbourne</t>
-  </si>
-  <si>
-    <t>Cork City</t>
-  </si>
-  <si>
-    <t>St Patrick's Athl.</t>
-  </si>
-  <si>
-    <t>Dundalk</t>
-  </si>
-  <si>
-    <t>Quevilly Rouen</t>
-  </si>
-  <si>
     <t>FH</t>
   </si>
   <si>
+    <t>Keflavík</t>
+  </si>
+  <si>
     <t>Víkingur Reykjavík</t>
   </si>
   <si>
-    <t>Keflavík</t>
+    <t>Gimnasia Jujuy</t>
+  </si>
+  <si>
+    <t>Etoile du Sahel</t>
+  </si>
+  <si>
+    <t>Atlético Rafaela</t>
+  </si>
+  <si>
+    <t>SD Aucas</t>
+  </si>
+  <si>
+    <t>Olympique Béja</t>
+  </si>
+  <si>
+    <t>Club Africain</t>
+  </si>
+  <si>
+    <t>Ben Guerdane</t>
+  </si>
+  <si>
+    <t>Aldosivi</t>
+  </si>
+  <si>
+    <t>Deportivo Maipú</t>
+  </si>
+  <si>
+    <t>Barracas Central</t>
+  </si>
+  <si>
+    <t>Estudiantes Caseros</t>
+  </si>
+  <si>
+    <t>Brown de Adrogué</t>
+  </si>
+  <si>
+    <t>Quilmes</t>
+  </si>
+  <si>
+    <t>Deportivo Madryn</t>
   </si>
   <si>
     <t>Chapecoense</t>
   </si>
   <si>
-    <t>Atlético Rafaela</t>
-  </si>
-  <si>
-    <t>SD Aucas</t>
-  </si>
-  <si>
     <t>Tombense</t>
   </si>
   <si>
-    <t>Barracas Central</t>
-  </si>
-  <si>
-    <t>Olympique Béja</t>
-  </si>
-  <si>
-    <t>Club Africain</t>
-  </si>
-  <si>
-    <t>Gimnasia Jujuy</t>
-  </si>
-  <si>
-    <t>Quilmes</t>
-  </si>
-  <si>
-    <t>Estudiantes Caseros</t>
-  </si>
-  <si>
-    <t>Deportivo Madryn</t>
-  </si>
-  <si>
     <t>Villa Dálmine</t>
   </si>
   <si>
-    <t>Deportivo Maipú</t>
-  </si>
-  <si>
-    <t>Aldosivi</t>
-  </si>
-  <si>
-    <t>Etoile du Sahel</t>
-  </si>
-  <si>
-    <t>Ben Guerdane</t>
-  </si>
-  <si>
-    <t>Brown de Adrogué</t>
+    <t>Peñarol</t>
   </si>
   <si>
     <t>Operário PR</t>
   </si>
   <si>
-    <t>Peñarol</t>
-  </si>
-  <si>
     <t>Libertad</t>
   </si>
   <si>
     <t>Indy Eleven</t>
   </si>
   <si>
+    <t>Sportivo Trinidense</t>
+  </si>
+  <si>
     <t>Olimpia</t>
   </si>
   <si>
-    <t>Sportivo Trinidense</t>
-  </si>
-  <si>
     <t>Trasandino</t>
+  </si>
+  <si>
+    <t>Talleres Córdoba</t>
+  </si>
+  <si>
+    <t>Ituano</t>
+  </si>
+  <si>
+    <t>Platense</t>
+  </si>
+  <si>
+    <t>Atlético GO</t>
+  </si>
+  <si>
+    <t>Oakland Roots</t>
+  </si>
+  <si>
+    <t>Alianza Lima</t>
+  </si>
+  <si>
+    <t>Real Garcilaso</t>
+  </si>
+  <si>
+    <t>Pacific FC</t>
   </si>
 </sst>
 </file>
@@ -927,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI60"/>
+  <dimension ref="A1:AI69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1048,103 +1117,103 @@
         <v>45079</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G2">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="H2">
-        <v>5.13</v>
+        <v>4.33</v>
       </c>
       <c r="I2">
-        <v>6.97</v>
+        <v>5.5</v>
       </c>
       <c r="J2">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K2">
-        <v>15.75</v>
+        <v>19.75</v>
       </c>
       <c r="L2">
+        <v>1.14</v>
+      </c>
+      <c r="M2">
+        <v>4.65</v>
+      </c>
+      <c r="N2">
+        <v>1.54</v>
+      </c>
+      <c r="O2">
+        <v>2.22</v>
+      </c>
+      <c r="P2">
+        <v>1.27</v>
+      </c>
+      <c r="Q2">
+        <v>3.56</v>
+      </c>
+      <c r="R2">
+        <v>1.66</v>
+      </c>
+      <c r="S2">
+        <v>2.14</v>
+      </c>
+      <c r="T2">
+        <v>1.14</v>
+      </c>
+      <c r="U2">
         <v>1.2</v>
       </c>
-      <c r="M2">
-        <v>4.2</v>
-      </c>
-      <c r="N2">
-        <v>1.63</v>
-      </c>
-      <c r="O2">
-        <v>2.06</v>
-      </c>
-      <c r="P2">
+      <c r="V2">
+        <v>2.51</v>
+      </c>
+      <c r="W2">
+        <v>1.8</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2">
+        <v>1.68</v>
+      </c>
+      <c r="Z2">
+        <v>1.47</v>
+      </c>
+      <c r="AA2">
+        <v>3.15</v>
+      </c>
+      <c r="AB2">
         <v>1.29</v>
       </c>
-      <c r="Q2">
-        <v>3.15</v>
-      </c>
-      <c r="R2">
-        <v>2.01</v>
-      </c>
-      <c r="S2">
-        <v>1.75</v>
-      </c>
-      <c r="T2">
-        <v>1.07</v>
-      </c>
-      <c r="U2">
-        <v>1.17</v>
-      </c>
-      <c r="V2">
-        <v>3.13</v>
-      </c>
-      <c r="W2">
-        <v>0.75</v>
-      </c>
-      <c r="X2">
-        <v>0.33</v>
-      </c>
-      <c r="Y2">
+      <c r="AC2">
+        <v>9.5</v>
+      </c>
+      <c r="AD2">
+        <v>4.32</v>
+      </c>
+      <c r="AE2">
         <v>1.28</v>
       </c>
-      <c r="Z2">
-        <v>1.07</v>
-      </c>
-      <c r="AA2">
-        <v>2.35</v>
-      </c>
-      <c r="AB2">
-        <v>1.5</v>
-      </c>
-      <c r="AC2">
-        <v>8.5</v>
-      </c>
-      <c r="AD2">
-        <v>3.1</v>
-      </c>
-      <c r="AE2">
-        <v>1.29</v>
-      </c>
       <c r="AF2">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AG2">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="AH2">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1155,103 +1224,103 @@
         <v>45079</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G3">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="H3">
-        <v>3.8</v>
+        <v>5.13</v>
       </c>
       <c r="I3">
-        <v>4.8</v>
+        <v>6.97</v>
       </c>
       <c r="J3">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K3">
-        <v>19.75</v>
+        <v>15.75</v>
       </c>
       <c r="L3">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="M3">
-        <v>4.65</v>
+        <v>4.2</v>
       </c>
       <c r="N3">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="O3">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="P3">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="Q3">
-        <v>3.56</v>
+        <v>3.15</v>
       </c>
       <c r="R3">
-        <v>1.66</v>
+        <v>2.01</v>
       </c>
       <c r="S3">
-        <v>2.14</v>
+        <v>1.75</v>
       </c>
       <c r="T3">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="U3">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="V3">
-        <v>2.51</v>
+        <v>3.13</v>
       </c>
       <c r="W3">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="X3">
+        <v>0.33</v>
+      </c>
+      <c r="Y3">
+        <v>1.28</v>
+      </c>
+      <c r="Z3">
+        <v>1.07</v>
+      </c>
+      <c r="AA3">
+        <v>2.35</v>
+      </c>
+      <c r="AB3">
+        <v>1.5</v>
+      </c>
+      <c r="AC3">
+        <v>8.5</v>
+      </c>
+      <c r="AD3">
+        <v>3.1</v>
+      </c>
+      <c r="AE3">
+        <v>1.29</v>
+      </c>
+      <c r="AF3">
+        <v>1.57</v>
+      </c>
+      <c r="AG3">
         <v>2</v>
       </c>
-      <c r="Y3">
-        <v>1.68</v>
-      </c>
-      <c r="Z3">
-        <v>1.47</v>
-      </c>
-      <c r="AA3">
-        <v>3.15</v>
-      </c>
-      <c r="AB3">
-        <v>1.29</v>
-      </c>
-      <c r="AC3">
-        <v>9.5</v>
-      </c>
-      <c r="AD3">
-        <v>4.32</v>
-      </c>
-      <c r="AE3">
-        <v>1.28</v>
-      </c>
-      <c r="AF3">
-        <v>1.53</v>
-      </c>
-      <c r="AG3">
-        <v>1.96</v>
-      </c>
       <c r="AH3">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1262,25 +1331,25 @@
         <v>45079</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G4">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="H4">
-        <v>3.3</v>
+        <v>2.83</v>
       </c>
       <c r="I4">
-        <v>4.26</v>
+        <v>4.39</v>
       </c>
       <c r="J4">
         <v>1.09</v>
@@ -1295,7 +1364,7 @@
         <v>2.55</v>
       </c>
       <c r="N4">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="O4">
         <v>1.5</v>
@@ -1337,28 +1406,28 @@
         <v>2.68</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1369,25 +1438,25 @@
         <v>45079</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G5">
-        <v>2.54</v>
+        <v>3.45</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I5">
-        <v>2.54</v>
+        <v>2.08</v>
       </c>
       <c r="J5">
         <v>1.08</v>
@@ -1402,10 +1471,10 @@
         <v>3</v>
       </c>
       <c r="N5">
-        <v>2.01</v>
+        <v>2.38</v>
       </c>
       <c r="O5">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="P5">
         <v>1.44</v>
@@ -1476,103 +1545,103 @@
         <v>45079</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="G6">
-        <v>1.6</v>
+        <v>4.35</v>
       </c>
       <c r="H6">
         <v>4.2</v>
       </c>
       <c r="I6">
-        <v>4.7</v>
+        <v>1.65</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.05</v>
       </c>
       <c r="N6">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="O6">
-        <v>2.35</v>
+        <v>2.9</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="R6">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S6">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W6">
-        <v>1.32</v>
+        <v>0.74</v>
       </c>
       <c r="X6">
-        <v>1.1</v>
+        <v>1.35</v>
       </c>
       <c r="Y6">
-        <v>1.79</v>
+        <v>1.34</v>
       </c>
       <c r="Z6">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AA6">
-        <v>3.15</v>
+        <v>2.65</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG6">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1583,16 +1652,16 @@
         <v>45079</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="G7">
         <v>2.28</v>
@@ -1604,16 +1673,16 @@
         <v>2.85</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="N7">
         <v>1.85</v>
@@ -1622,25 +1691,25 @@
         <v>1.95</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="R7">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S7">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W7">
         <v>1.29</v>
@@ -1658,28 +1727,28 @@
         <v>2.67</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF7">
         <v>1.85</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1690,103 +1759,103 @@
         <v>45079</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="G8">
-        <v>4.35</v>
+        <v>1.6</v>
       </c>
       <c r="H8">
         <v>4.2</v>
       </c>
       <c r="I8">
-        <v>1.65</v>
+        <v>4.7</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="N8">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="O8">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>3.82</v>
       </c>
       <c r="R8">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S8">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W8">
-        <v>0.74</v>
+        <v>1.32</v>
       </c>
       <c r="X8">
+        <v>1.1</v>
+      </c>
+      <c r="Y8">
+        <v>1.79</v>
+      </c>
+      <c r="Z8">
+        <v>1.36</v>
+      </c>
+      <c r="AA8">
+        <v>3.15</v>
+      </c>
+      <c r="AB8">
+        <v>1.37</v>
+      </c>
+      <c r="AC8">
+        <v>6.5</v>
+      </c>
+      <c r="AD8">
+        <v>3.6</v>
+      </c>
+      <c r="AE8">
+        <v>1.17</v>
+      </c>
+      <c r="AF8">
         <v>1.35</v>
       </c>
-      <c r="Y8">
-        <v>1.34</v>
-      </c>
-      <c r="Z8">
-        <v>1.31</v>
-      </c>
-      <c r="AA8">
-        <v>2.65</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
       <c r="AG8">
-        <v>1.82</v>
+        <v>2.2</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1797,16 +1866,16 @@
         <v>45079</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G9">
         <v>2.6</v>
@@ -1904,25 +1973,25 @@
         <v>45079</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G10">
-        <v>1.84</v>
+        <v>2.55</v>
       </c>
       <c r="H10">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="I10">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1937,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="O10">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1964,19 +2033,19 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>1.13</v>
+        <v>0.8</v>
       </c>
       <c r="X10">
-        <v>0.87</v>
+        <v>1.73</v>
       </c>
       <c r="Y10">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="Z10">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="AA10">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -2011,25 +2080,25 @@
         <v>45079</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="G11">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="H11">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="I11">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2044,10 +2113,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="O11">
-        <v>1.98</v>
+        <v>2.23</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2071,19 +2140,19 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0.8</v>
+        <v>1.13</v>
       </c>
       <c r="X11">
-        <v>1.73</v>
+        <v>0.87</v>
       </c>
       <c r="Y11">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="Z11">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AA11">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -2118,25 +2187,25 @@
         <v>45079</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G12">
-        <v>2.45</v>
+        <v>2.41</v>
       </c>
       <c r="H12">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="I12">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="J12">
         <v>1.02</v>
@@ -2151,10 +2220,10 @@
         <v>5</v>
       </c>
       <c r="N12">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="O12">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="P12">
         <v>1.25</v>
@@ -2202,19 +2271,19 @@
         <v>2.1</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -2225,25 +2294,25 @@
         <v>45079</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G13">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="H13">
-        <v>3.55</v>
+        <v>3.13</v>
       </c>
       <c r="I13">
-        <v>3.6</v>
+        <v>3.89</v>
       </c>
       <c r="J13">
         <v>1.04</v>
@@ -2258,10 +2327,10 @@
         <v>3.33</v>
       </c>
       <c r="N13">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="O13">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="P13">
         <v>1.4</v>
@@ -2300,28 +2369,28 @@
         <v>2.35</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2332,25 +2401,25 @@
         <v>45079</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D14">
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G14">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="H14">
-        <v>3.5</v>
+        <v>2.93</v>
       </c>
       <c r="I14">
-        <v>4.16</v>
+        <v>3.74</v>
       </c>
       <c r="J14">
         <v>1.06</v>
@@ -2365,10 +2434,10 @@
         <v>3</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="O14">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="P14">
         <v>1.45</v>
@@ -2407,28 +2476,28 @@
         <v>3.16</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2439,25 +2508,25 @@
         <v>45079</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D15">
         <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G15">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H15">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I15">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J15">
         <v>1.02</v>
@@ -2472,10 +2541,10 @@
         <v>5</v>
       </c>
       <c r="N15">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="O15">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="P15">
         <v>1.28</v>
@@ -2546,16 +2615,16 @@
         <v>45079</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G16">
         <v>1.98</v>
@@ -2621,28 +2690,28 @@
         <v>2.83</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2653,103 +2722,103 @@
         <v>45079</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D17">
         <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="G17">
-        <v>2.04</v>
+        <v>3.45</v>
       </c>
       <c r="H17">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="I17">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="K17">
-        <v>8.550000000000001</v>
+        <v>14.75</v>
       </c>
       <c r="L17">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="M17">
-        <v>2.75</v>
+        <v>4.32</v>
       </c>
       <c r="N17">
-        <v>2.2</v>
+        <v>1.68</v>
       </c>
       <c r="O17">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="P17">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="Q17">
-        <v>2.45</v>
+        <v>3.24</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.63</v>
       </c>
       <c r="S17">
-        <v>1.78</v>
+        <v>2.22</v>
       </c>
       <c r="T17">
-        <v>1.25</v>
+        <v>1.79</v>
       </c>
       <c r="U17">
         <v>1.28</v>
       </c>
       <c r="V17">
-        <v>1.68</v>
+        <v>1.31</v>
       </c>
       <c r="W17">
-        <v>2.06</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>0.78</v>
+        <v>1.22</v>
       </c>
       <c r="Y17">
-        <v>1.58</v>
+        <v>1.29</v>
       </c>
       <c r="Z17">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AA17">
-        <v>2.87</v>
+        <v>2.5</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AE17">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="AF17">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AG17">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="AH17">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="AI17">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2760,103 +2829,103 @@
         <v>45079</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D18">
         <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="G18">
-        <v>1.37</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>4.35</v>
+        <v>3.5</v>
       </c>
       <c r="I18">
-        <v>6.2</v>
+        <v>2.2</v>
       </c>
       <c r="J18">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K18">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="L18">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="M18">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="N18">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="O18">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="P18">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="Q18">
-        <v>3.36</v>
+        <v>2.8</v>
       </c>
       <c r="R18">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="S18">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="T18">
-        <v>1.09</v>
+        <v>1.63</v>
       </c>
       <c r="U18">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="V18">
-        <v>2.84</v>
+        <v>1.36</v>
       </c>
       <c r="W18">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="X18">
-        <v>1.28</v>
+        <v>0.78</v>
       </c>
       <c r="Y18">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="Z18">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="AA18">
-        <v>3.04</v>
+        <v>2.82</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AE18">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AF18">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AG18">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AH18">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AI18">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2867,103 +2936,103 @@
         <v>45079</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D19">
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G19">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H19">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I19">
-        <v>3.35</v>
+        <v>2.6</v>
       </c>
       <c r="J19">
         <v>1.05</v>
       </c>
       <c r="K19">
-        <v>12</v>
+        <v>12.25</v>
       </c>
       <c r="L19">
         <v>1.28</v>
       </c>
       <c r="M19">
-        <v>3.5</v>
+        <v>3.72</v>
       </c>
       <c r="N19">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="O19">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="P19">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q19">
         <v>2.85</v>
       </c>
       <c r="R19">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="S19">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T19">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="U19">
         <v>1.25</v>
       </c>
       <c r="V19">
-        <v>1.78</v>
+        <v>1.47</v>
       </c>
       <c r="W19">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="X19">
-        <v>0.78</v>
+        <v>1.11</v>
       </c>
       <c r="Y19">
         <v>1.51</v>
       </c>
       <c r="Z19">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="AA19">
-        <v>2.67</v>
+        <v>2.87</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE19">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="AF19">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AG19">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="AH19">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="AI19">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2974,103 +3043,103 @@
         <v>45079</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20">
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G20">
-        <v>2.48</v>
+        <v>1.38</v>
       </c>
       <c r="H20">
-        <v>3.3</v>
+        <v>4.85</v>
       </c>
       <c r="I20">
-        <v>2.42</v>
+        <v>7</v>
       </c>
       <c r="J20">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K20">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="L20">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="M20">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="N20">
-        <v>2.01</v>
+        <v>1.65</v>
       </c>
       <c r="O20">
-        <v>1.79</v>
+        <v>2.18</v>
       </c>
       <c r="P20">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="Q20">
-        <v>3.07</v>
+        <v>3.36</v>
       </c>
       <c r="R20">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="S20">
-        <v>2.16</v>
+        <v>1.88</v>
       </c>
       <c r="T20">
-        <v>1.57</v>
+        <v>1.09</v>
       </c>
       <c r="U20">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="V20">
+        <v>2.84</v>
+      </c>
+      <c r="W20">
+        <v>1.89</v>
+      </c>
+      <c r="X20">
+        <v>1.28</v>
+      </c>
+      <c r="Y20">
+        <v>1.63</v>
+      </c>
+      <c r="Z20">
+        <v>1.41</v>
+      </c>
+      <c r="AA20">
+        <v>3.04</v>
+      </c>
+      <c r="AB20">
+        <v>1.38</v>
+      </c>
+      <c r="AC20">
+        <v>8</v>
+      </c>
+      <c r="AD20">
+        <v>4</v>
+      </c>
+      <c r="AE20">
         <v>1.43</v>
       </c>
-      <c r="W20">
-        <v>1.78</v>
-      </c>
-      <c r="X20">
-        <v>1.5</v>
-      </c>
-      <c r="Y20">
-        <v>1.42</v>
-      </c>
-      <c r="Z20">
-        <v>1.26</v>
-      </c>
-      <c r="AA20">
-        <v>2.68</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>1.45</v>
-      </c>
       <c r="AF20">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AG20">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="AH20">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AI20">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -3081,31 +3150,31 @@
         <v>45079</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21">
         <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G21">
-        <v>2.65</v>
+        <v>2</v>
       </c>
       <c r="H21">
+        <v>3.6</v>
+      </c>
+      <c r="I21">
         <v>3.4</v>
       </c>
-      <c r="I21">
-        <v>2.23</v>
-      </c>
       <c r="J21">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K21">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="L21">
         <v>1.28</v>
@@ -3114,16 +3183,16 @@
         <v>3.5</v>
       </c>
       <c r="N21">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O21">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="P21">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="Q21">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="R21">
         <v>1.72</v>
@@ -3132,52 +3201,52 @@
         <v>2.05</v>
       </c>
       <c r="T21">
-        <v>1.63</v>
+        <v>1.22</v>
       </c>
       <c r="U21">
         <v>1.25</v>
       </c>
       <c r="V21">
-        <v>1.36</v>
+        <v>1.78</v>
       </c>
       <c r="W21">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="X21">
         <v>0.78</v>
       </c>
       <c r="Y21">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="Z21">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AA21">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AE21">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AF21">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AG21">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="AH21">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AI21">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -3188,103 +3257,103 @@
         <v>45079</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22">
         <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G22">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="H22">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I22">
-        <v>2.36</v>
+        <v>2.45</v>
       </c>
       <c r="J22">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K22">
-        <v>12.25</v>
+        <v>14.5</v>
       </c>
       <c r="L22">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="M22">
-        <v>3.72</v>
+        <v>4.17</v>
       </c>
       <c r="N22">
-        <v>1.88</v>
+        <v>1.68</v>
       </c>
       <c r="O22">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="P22">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="Q22">
-        <v>2.85</v>
+        <v>3.33</v>
       </c>
       <c r="R22">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="S22">
-        <v>2.1</v>
+        <v>2.29</v>
       </c>
       <c r="T22">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="U22">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V22">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="W22">
+        <v>1.44</v>
+      </c>
+      <c r="X22">
         <v>1.17</v>
-      </c>
-      <c r="X22">
-        <v>1.11</v>
       </c>
       <c r="Y22">
         <v>1.51</v>
       </c>
       <c r="Z22">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="AA22">
-        <v>2.87</v>
+        <v>2.97</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AE22">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="AF22">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AG22">
-        <v>2.28</v>
+        <v>2.45</v>
       </c>
       <c r="AH22">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="AI22">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3295,424 +3364,424 @@
         <v>45079</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D23">
         <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="G23">
-        <v>2.56</v>
+        <v>2.1</v>
       </c>
       <c r="H23">
+        <v>3.2</v>
+      </c>
+      <c r="I23">
         <v>3.5</v>
       </c>
-      <c r="I23">
-        <v>2.25</v>
-      </c>
       <c r="J23">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="K23">
-        <v>14.5</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="L23">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="M23">
-        <v>4.17</v>
+        <v>2.75</v>
       </c>
       <c r="N23">
-        <v>1.8</v>
+        <v>2.32</v>
       </c>
       <c r="O23">
-        <v>1.97</v>
+        <v>1.57</v>
       </c>
       <c r="P23">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
       <c r="Q23">
-        <v>3.33</v>
+        <v>2.45</v>
       </c>
       <c r="R23">
-        <v>1.59</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
-        <v>2.29</v>
+        <v>1.78</v>
       </c>
       <c r="T23">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="U23">
+        <v>1.28</v>
+      </c>
+      <c r="V23">
+        <v>1.68</v>
+      </c>
+      <c r="W23">
+        <v>2.06</v>
+      </c>
+      <c r="X23">
+        <v>0.78</v>
+      </c>
+      <c r="Y23">
+        <v>1.58</v>
+      </c>
+      <c r="Z23">
         <v>1.29</v>
       </c>
-      <c r="V23">
-        <v>1.44</v>
-      </c>
-      <c r="W23">
-        <v>1.44</v>
-      </c>
-      <c r="X23">
-        <v>1.17</v>
-      </c>
-      <c r="Y23">
-        <v>1.51</v>
-      </c>
-      <c r="Z23">
-        <v>1.46</v>
-      </c>
       <c r="AA23">
-        <v>2.97</v>
+        <v>2.87</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE23">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AF23">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AG23">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="AH23">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AI23">
-        <v>5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="24" spans="1:35">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2">
         <v>45079</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D24">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="G24">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H24">
-        <v>4.15</v>
+        <v>3.55</v>
       </c>
       <c r="I24">
-        <v>4.25</v>
+        <v>6</v>
       </c>
       <c r="J24">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="K24">
-        <v>22.5</v>
+        <v>7</v>
       </c>
       <c r="L24">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="M24">
-        <v>5.55</v>
+        <v>2.75</v>
       </c>
       <c r="N24">
+        <v>2.4</v>
+      </c>
+      <c r="O24">
         <v>1.5</v>
       </c>
-      <c r="O24">
+      <c r="P24">
+        <v>1.5</v>
+      </c>
+      <c r="Q24">
+        <v>2.5</v>
+      </c>
+      <c r="R24">
+        <v>2.3</v>
+      </c>
+      <c r="S24">
+        <v>1.57</v>
+      </c>
+      <c r="T24">
+        <v>1.08</v>
+      </c>
+      <c r="U24">
+        <v>1.25</v>
+      </c>
+      <c r="V24">
         <v>2.4</v>
       </c>
-      <c r="P24">
+      <c r="W24">
+        <v>1.56</v>
+      </c>
+      <c r="X24">
         <v>1.25</v>
       </c>
-      <c r="Q24">
-        <v>3.72</v>
-      </c>
-      <c r="R24">
-        <v>1.56</v>
-      </c>
-      <c r="S24">
-        <v>2.36</v>
-      </c>
-      <c r="T24">
-        <v>1.18</v>
-      </c>
-      <c r="U24">
-        <v>1.21</v>
-      </c>
-      <c r="V24">
-        <v>2.3</v>
-      </c>
-      <c r="W24">
-        <v>1.72</v>
-      </c>
-      <c r="X24">
-        <v>0.89</v>
-      </c>
       <c r="Y24">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="Z24">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AA24">
         <v>3.08</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AE24">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AF24">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AG24">
         <v>2.15</v>
       </c>
       <c r="AH24">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AI24">
-        <v>4.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2">
         <v>45079</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D25">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G25">
-        <v>1.45</v>
+        <v>2.1</v>
       </c>
       <c r="H25">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="I25">
-        <v>5.3</v>
+        <v>3.45</v>
       </c>
       <c r="J25">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K25">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="L25">
+        <v>1.36</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>2.06</v>
+      </c>
+      <c r="O25">
+        <v>1.7</v>
+      </c>
+      <c r="P25">
+        <v>1.4</v>
+      </c>
+      <c r="Q25">
+        <v>2.75</v>
+      </c>
+      <c r="R25">
+        <v>1.85</v>
+      </c>
+      <c r="S25">
+        <v>1.85</v>
+      </c>
+      <c r="T25">
+        <v>1.29</v>
+      </c>
+      <c r="U25">
+        <v>1.3</v>
+      </c>
+      <c r="V25">
+        <v>1.7</v>
+      </c>
+      <c r="W25">
+        <v>1.63</v>
+      </c>
+      <c r="X25">
         <v>1.25</v>
       </c>
-      <c r="M25">
-        <v>3.6</v>
-      </c>
-      <c r="N25">
-        <v>1.7</v>
-      </c>
-      <c r="O25">
-        <v>2</v>
-      </c>
-      <c r="P25">
-        <v>1.35</v>
-      </c>
-      <c r="Q25">
-        <v>3.24</v>
-      </c>
-      <c r="R25">
-        <v>1.89</v>
-      </c>
-      <c r="S25">
-        <v>1.87</v>
-      </c>
-      <c r="T25">
-        <v>1.11</v>
-      </c>
-      <c r="U25">
-        <v>1.21</v>
-      </c>
-      <c r="V25">
-        <v>2.63</v>
-      </c>
-      <c r="W25">
-        <v>2.22</v>
-      </c>
-      <c r="X25">
-        <v>1.33</v>
-      </c>
       <c r="Y25">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="Z25">
-        <v>1.16</v>
+        <v>1.55</v>
       </c>
       <c r="AA25">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE25">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="AF25">
-        <v>1.85</v>
+        <v>1.44</v>
       </c>
       <c r="AG25">
-        <v>2.4</v>
+        <v>1.76</v>
       </c>
       <c r="AH25">
-        <v>3.35</v>
+        <v>2.16</v>
       </c>
       <c r="AI25">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2">
         <v>45079</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G26">
-        <v>1.96</v>
+        <v>1.52</v>
       </c>
       <c r="H26">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="I26">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="J26">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K26">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="L26">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N26">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="O26">
-        <v>1.6</v>
+        <v>2.06</v>
       </c>
       <c r="P26">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="Q26">
-        <v>2.75</v>
+        <v>3.24</v>
       </c>
       <c r="R26">
+        <v>1.89</v>
+      </c>
+      <c r="S26">
+        <v>1.87</v>
+      </c>
+      <c r="T26">
+        <v>1.11</v>
+      </c>
+      <c r="U26">
+        <v>1.21</v>
+      </c>
+      <c r="V26">
+        <v>2.63</v>
+      </c>
+      <c r="W26">
+        <v>2.22</v>
+      </c>
+      <c r="X26">
+        <v>1.33</v>
+      </c>
+      <c r="Y26">
+        <v>1.64</v>
+      </c>
+      <c r="Z26">
+        <v>1.16</v>
+      </c>
+      <c r="AA26">
+        <v>2.8</v>
+      </c>
+      <c r="AB26">
+        <v>1.35</v>
+      </c>
+      <c r="AC26">
+        <v>8</v>
+      </c>
+      <c r="AD26">
+        <v>4.2</v>
+      </c>
+      <c r="AE26">
+        <v>1.45</v>
+      </c>
+      <c r="AF26">
         <v>1.85</v>
       </c>
-      <c r="S26">
-        <v>1.85</v>
-      </c>
-      <c r="T26">
-        <v>1.29</v>
-      </c>
-      <c r="U26">
-        <v>1.3</v>
-      </c>
-      <c r="V26">
-        <v>1.7</v>
-      </c>
-      <c r="W26">
-        <v>1.63</v>
-      </c>
-      <c r="X26">
-        <v>1.25</v>
-      </c>
-      <c r="Y26">
-        <v>1.6</v>
-      </c>
-      <c r="Z26">
-        <v>1.55</v>
-      </c>
-      <c r="AA26">
-        <v>3.15</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
       <c r="AG26">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3723,103 +3792,103 @@
         <v>45079</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D27">
         <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F27" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G27">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I27">
-        <v>5.1</v>
+        <v>3.35</v>
       </c>
       <c r="J27">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="K27">
-        <v>7</v>
+        <v>9.9</v>
       </c>
       <c r="L27">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="M27">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N27">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="O27">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="P27">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="Q27">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="R27">
-        <v>2.3</v>
+        <v>1.68</v>
       </c>
       <c r="S27">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="T27">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="U27">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V27">
-        <v>2.4</v>
+        <v>1.78</v>
       </c>
       <c r="W27">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="X27">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Y27">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="Z27">
         <v>1.16</v>
       </c>
       <c r="AA27">
-        <v>3.08</v>
+        <v>3.03</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3830,103 +3899,103 @@
         <v>45079</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D28">
         <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F28" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="G28">
-        <v>2.11</v>
+        <v>8.5</v>
       </c>
       <c r="H28">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="I28">
-        <v>3.15</v>
+        <v>1.32</v>
       </c>
       <c r="J28">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K28">
-        <v>9.9</v>
+        <v>12</v>
       </c>
       <c r="L28">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="M28">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N28">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="O28">
-        <v>1.77</v>
+        <v>2.18</v>
       </c>
       <c r="P28">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="Q28">
-        <v>2.95</v>
+        <v>3.45</v>
       </c>
       <c r="R28">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="T28">
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="U28">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="V28">
-        <v>1.78</v>
+        <v>1.03</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="X28">
-        <v>0.25</v>
+        <v>1.44</v>
       </c>
       <c r="Y28">
-        <v>1.87</v>
+        <v>1.03</v>
       </c>
       <c r="Z28">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="AA28">
-        <v>3.03</v>
+        <v>2.47</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -3937,210 +4006,210 @@
         <v>45079</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D29">
         <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F29" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G29">
-        <v>6.1</v>
+        <v>1.38</v>
       </c>
       <c r="H29">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="I29">
+        <v>7.3</v>
+      </c>
+      <c r="J29">
+        <v>1.04</v>
+      </c>
+      <c r="K29">
+        <v>10</v>
+      </c>
+      <c r="L29">
+        <v>1.22</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>1.71</v>
+      </c>
+      <c r="O29">
+        <v>2.04</v>
+      </c>
+      <c r="P29">
         <v>1.33</v>
       </c>
-      <c r="J29">
-        <v>1.02</v>
-      </c>
-      <c r="K29">
-        <v>12</v>
-      </c>
-      <c r="L29">
-        <v>1.18</v>
-      </c>
-      <c r="M29">
-        <v>4.5</v>
-      </c>
-      <c r="N29">
-        <v>1.58</v>
-      </c>
-      <c r="O29">
-        <v>2.24</v>
-      </c>
-      <c r="P29">
-        <v>1.27</v>
-      </c>
       <c r="Q29">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="T29">
-        <v>3.25</v>
+        <v>1.04</v>
       </c>
       <c r="U29">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="V29">
-        <v>1.03</v>
+        <v>2.95</v>
       </c>
       <c r="W29">
-        <v>0.63</v>
+        <v>1.67</v>
       </c>
       <c r="X29">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="Y29">
-        <v>1.03</v>
+        <v>2.12</v>
       </c>
       <c r="Z29">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="AA29">
-        <v>2.47</v>
+        <v>3.35</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2">
         <v>45079</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D30">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F30" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="G30">
+        <v>2.8</v>
+      </c>
+      <c r="H30">
+        <v>3.35</v>
+      </c>
+      <c r="I30">
+        <v>2.4</v>
+      </c>
+      <c r="J30">
+        <v>1.05</v>
+      </c>
+      <c r="K30">
+        <v>12.5</v>
+      </c>
+      <c r="L30">
+        <v>1.27</v>
+      </c>
+      <c r="M30">
+        <v>3.85</v>
+      </c>
+      <c r="N30">
+        <v>1.81</v>
+      </c>
+      <c r="O30">
+        <v>1.95</v>
+      </c>
+      <c r="P30">
         <v>1.39</v>
       </c>
-      <c r="H30">
-        <v>4.3</v>
-      </c>
-      <c r="I30">
+      <c r="Q30">
+        <v>3.07</v>
+      </c>
+      <c r="R30">
+        <v>1.66</v>
+      </c>
+      <c r="S30">
+        <v>2.16</v>
+      </c>
+      <c r="T30">
+        <v>1.57</v>
+      </c>
+      <c r="U30">
+        <v>1.3</v>
+      </c>
+      <c r="V30">
+        <v>1.43</v>
+      </c>
+      <c r="W30">
+        <v>1.78</v>
+      </c>
+      <c r="X30">
+        <v>1.5</v>
+      </c>
+      <c r="Y30">
+        <v>1.42</v>
+      </c>
+      <c r="Z30">
+        <v>1.26</v>
+      </c>
+      <c r="AA30">
+        <v>2.68</v>
+      </c>
+      <c r="AB30">
+        <v>1.95</v>
+      </c>
+      <c r="AC30">
         <v>7</v>
       </c>
-      <c r="J30">
-        <v>1.04</v>
-      </c>
-      <c r="K30">
-        <v>10</v>
-      </c>
-      <c r="L30">
-        <v>1.22</v>
-      </c>
-      <c r="M30">
-        <v>4</v>
-      </c>
-      <c r="N30">
-        <v>1.8</v>
-      </c>
-      <c r="O30">
-        <v>1.84</v>
-      </c>
-      <c r="P30">
-        <v>1.33</v>
-      </c>
-      <c r="Q30">
-        <v>3.05</v>
-      </c>
-      <c r="R30">
-        <v>2</v>
-      </c>
-      <c r="S30">
-        <v>1.75</v>
-      </c>
-      <c r="T30">
-        <v>1.04</v>
-      </c>
-      <c r="U30">
-        <v>1.14</v>
-      </c>
-      <c r="V30">
-        <v>2.95</v>
-      </c>
-      <c r="W30">
-        <v>1.67</v>
-      </c>
-      <c r="X30">
-        <v>1.22</v>
-      </c>
-      <c r="Y30">
-        <v>2.12</v>
-      </c>
-      <c r="Z30">
-        <v>1.23</v>
-      </c>
-      <c r="AA30">
+      <c r="AD30">
+        <v>2.25</v>
+      </c>
+      <c r="AE30">
+        <v>1.45</v>
+      </c>
+      <c r="AF30">
+        <v>1.85</v>
+      </c>
+      <c r="AG30">
+        <v>2.4</v>
+      </c>
+      <c r="AH30">
         <v>3.35</v>
       </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
       <c r="AI30">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -4151,100 +4220,100 @@
         <v>45079</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D31">
         <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F31" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="G31">
-        <v>3.05</v>
+        <v>1.6</v>
       </c>
       <c r="H31">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="I31">
-        <v>2.01</v>
+        <v>4.75</v>
       </c>
       <c r="J31">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K31">
-        <v>14.75</v>
+        <v>22.5</v>
       </c>
       <c r="L31">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="M31">
-        <v>4.32</v>
+        <v>5.55</v>
       </c>
       <c r="N31">
-        <v>1.82</v>
+        <v>1.47</v>
       </c>
       <c r="O31">
-        <v>1.94</v>
+        <v>2.55</v>
       </c>
       <c r="P31">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="Q31">
-        <v>3.24</v>
+        <v>3.72</v>
       </c>
       <c r="R31">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="S31">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="T31">
-        <v>1.79</v>
+        <v>1.18</v>
       </c>
       <c r="U31">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="V31">
-        <v>1.31</v>
+        <v>2.3</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>1.72</v>
       </c>
       <c r="X31">
-        <v>1.22</v>
+        <v>0.89</v>
       </c>
       <c r="Y31">
-        <v>1.29</v>
+        <v>1.85</v>
       </c>
       <c r="Z31">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="AA31">
-        <v>2.5</v>
+        <v>3.08</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AE31">
         <v>1.36</v>
       </c>
       <c r="AF31">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="AG31">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AH31">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AI31">
         <v>4.1</v>
@@ -4258,22 +4327,22 @@
         <v>45079</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D32">
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F32" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G32">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="H32">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I32">
         <v>4.2</v>
@@ -4294,7 +4363,7 @@
         <v>1.53</v>
       </c>
       <c r="O32">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="P32">
         <v>1.29</v>
@@ -4342,16 +4411,16 @@
         <v>2.77</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AI32">
         <v>1.98</v>
@@ -4365,25 +4434,25 @@
         <v>45079</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F33" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G33">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="H33">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="I33">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="J33">
         <v>1.02</v>
@@ -4392,16 +4461,16 @@
         <v>13</v>
       </c>
       <c r="L33">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N33">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="O33">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="P33">
         <v>1.25</v>
@@ -4410,58 +4479,58 @@
         <v>3.75</v>
       </c>
       <c r="R33">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S33">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="T33">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="U33">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="V33">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="W33">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="X33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y33">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="Z33">
-        <v>2.08</v>
+        <v>1.27</v>
       </c>
       <c r="AA33">
-        <v>3.98</v>
+        <v>2.87</v>
       </c>
       <c r="AB33">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AC33">
         <v>8.5</v>
       </c>
       <c r="AD33">
-        <v>2.43</v>
+        <v>2.53</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -4472,25 +4541,25 @@
         <v>45079</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F34" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="G34">
-        <v>1.94</v>
+        <v>2.25</v>
       </c>
       <c r="H34">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I34">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="J34">
         <v>1.02</v>
@@ -4499,16 +4568,16 @@
         <v>13</v>
       </c>
       <c r="L34">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="M34">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N34">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="O34">
-        <v>2.55</v>
+        <v>2.28</v>
       </c>
       <c r="P34">
         <v>1.25</v>
@@ -4517,58 +4586,58 @@
         <v>3.75</v>
       </c>
       <c r="R34">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S34">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="T34">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="U34">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="V34">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="W34">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="X34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y34">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="Z34">
-        <v>1.27</v>
+        <v>2.08</v>
       </c>
       <c r="AA34">
-        <v>2.87</v>
+        <v>3.98</v>
       </c>
       <c r="AB34">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="AC34">
         <v>8.5</v>
       </c>
       <c r="AD34">
-        <v>2.53</v>
+        <v>2.43</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -4579,79 +4648,79 @@
         <v>45079</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F35" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="G35">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>0.75</v>
+        <v>1.13</v>
       </c>
       <c r="X35">
         <v>1</v>
       </c>
       <c r="Y35">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="Z35">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="AA35">
-        <v>3.21</v>
+        <v>2.57</v>
       </c>
       <c r="AB35">
         <v>0</v>
@@ -4686,25 +4755,25 @@
         <v>45079</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F36" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="G36">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -4719,46 +4788,46 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>2.14</v>
+        <v>1.82</v>
       </c>
       <c r="X36">
-        <v>1.71</v>
+        <v>2.09</v>
       </c>
       <c r="Y36">
-        <v>1.69</v>
+        <v>1.35</v>
       </c>
       <c r="Z36">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="AA36">
-        <v>2.81</v>
+        <v>2.4</v>
       </c>
       <c r="AB36">
         <v>0</v>
@@ -4787,308 +4856,308 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2">
         <v>45079</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D37">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F37" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G37">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="H37">
-        <v>4.5</v>
+        <v>3.09</v>
       </c>
       <c r="I37">
-        <v>6.5</v>
+        <v>3.28</v>
       </c>
       <c r="J37">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K37">
-        <v>12</v>
+        <v>6.7</v>
       </c>
       <c r="L37">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="M37">
-        <v>4</v>
+        <v>2.53</v>
       </c>
       <c r="N37">
-        <v>1.53</v>
+        <v>2.37</v>
       </c>
       <c r="O37">
-        <v>2.15</v>
+        <v>1.52</v>
       </c>
       <c r="P37">
-        <v>1.29</v>
+        <v>1.52</v>
       </c>
       <c r="Q37">
-        <v>3.25</v>
+        <v>2.44</v>
       </c>
       <c r="R37">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="S37">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="T37">
-        <v>1.06</v>
+        <v>1.28</v>
       </c>
       <c r="U37">
-        <v>1.15</v>
+        <v>1.34</v>
       </c>
       <c r="V37">
-        <v>2.6</v>
+        <v>1.71</v>
       </c>
       <c r="W37">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="X37">
-        <v>1.2</v>
+        <v>1.71</v>
       </c>
       <c r="Y37">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="Z37">
-        <v>0.92</v>
+        <v>1.12</v>
       </c>
       <c r="AA37">
-        <v>2.64</v>
+        <v>2.81</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG37">
-        <v>1.95</v>
+        <v>1.76</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AI37">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="38" spans="1:35">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2">
         <v>45079</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" t="s">
+        <v>178</v>
+      </c>
+      <c r="G38">
+        <v>1.44</v>
+      </c>
+      <c r="H38">
+        <v>4.5</v>
+      </c>
+      <c r="I38">
+        <v>5.5</v>
+      </c>
+      <c r="J38">
+        <v>1.03</v>
+      </c>
+      <c r="K38">
+        <v>12</v>
+      </c>
+      <c r="L38">
+        <v>1.22</v>
+      </c>
+      <c r="M38">
+        <v>4</v>
+      </c>
+      <c r="N38">
+        <v>1.65</v>
+      </c>
+      <c r="O38">
+        <v>2.1</v>
+      </c>
+      <c r="P38">
+        <v>1.29</v>
+      </c>
+      <c r="Q38">
+        <v>3.25</v>
+      </c>
+      <c r="R38">
+        <v>1.87</v>
+      </c>
+      <c r="S38">
+        <v>1.87</v>
+      </c>
+      <c r="T38">
+        <v>1.06</v>
+      </c>
+      <c r="U38">
+        <v>1.15</v>
+      </c>
+      <c r="V38">
+        <v>2.6</v>
+      </c>
+      <c r="W38">
+        <v>2.5</v>
+      </c>
+      <c r="X38">
+        <v>1.2</v>
+      </c>
+      <c r="Y38">
+        <v>1.72</v>
+      </c>
+      <c r="Z38">
+        <v>0.92</v>
+      </c>
+      <c r="AA38">
+        <v>2.64</v>
+      </c>
+      <c r="AB38">
+        <v>1.23</v>
+      </c>
+      <c r="AC38">
         <v>10</v>
       </c>
-      <c r="E38" t="s">
-        <v>105</v>
-      </c>
-      <c r="F38" t="s">
-        <v>163</v>
-      </c>
-      <c r="G38">
+      <c r="AD38">
+        <v>5.15</v>
+      </c>
+      <c r="AE38">
+        <v>1.27</v>
+      </c>
+      <c r="AF38">
+        <v>1.56</v>
+      </c>
+      <c r="AG38">
         <v>1.95</v>
       </c>
-      <c r="H38">
+      <c r="AH38">
+        <v>2.41</v>
+      </c>
+      <c r="AI38">
         <v>3.2</v>
-      </c>
-      <c r="I38">
-        <v>3.85</v>
-      </c>
-      <c r="J38">
-        <v>1.1</v>
-      </c>
-      <c r="K38">
-        <v>6.5</v>
-      </c>
-      <c r="L38">
-        <v>1.44</v>
-      </c>
-      <c r="M38">
-        <v>2.62</v>
-      </c>
-      <c r="N38">
-        <v>2.35</v>
-      </c>
-      <c r="O38">
-        <v>1.54</v>
-      </c>
-      <c r="P38">
-        <v>1.5</v>
-      </c>
-      <c r="Q38">
-        <v>2.4</v>
-      </c>
-      <c r="R38">
-        <v>2.05</v>
-      </c>
-      <c r="S38">
-        <v>1.66</v>
-      </c>
-      <c r="T38">
-        <v>1.23</v>
-      </c>
-      <c r="U38">
-        <v>1.33</v>
-      </c>
-      <c r="V38">
-        <v>1.8</v>
-      </c>
-      <c r="W38">
-        <v>2.25</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38">
-        <v>1.57</v>
-      </c>
-      <c r="Z38">
-        <v>1.69</v>
-      </c>
-      <c r="AA38">
-        <v>3.26</v>
-      </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-      <c r="AE38">
-        <v>0</v>
-      </c>
-      <c r="AF38">
-        <v>0</v>
-      </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
-      <c r="AI38">
-        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:35">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2">
         <v>45079</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D39">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F39" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>1.95</v>
+      </c>
+      <c r="X39">
         <v>1.52</v>
       </c>
-      <c r="H39">
-        <v>3.59</v>
-      </c>
-      <c r="I39">
-        <v>5.7</v>
-      </c>
-      <c r="J39">
-        <v>1.07</v>
-      </c>
-      <c r="K39">
-        <v>7</v>
-      </c>
-      <c r="L39">
-        <v>1.38</v>
-      </c>
-      <c r="M39">
-        <v>2.8</v>
-      </c>
-      <c r="N39">
-        <v>2.15</v>
-      </c>
-      <c r="O39">
-        <v>1.62</v>
-      </c>
-      <c r="P39">
-        <v>1.48</v>
-      </c>
-      <c r="Q39">
-        <v>2.55</v>
-      </c>
-      <c r="R39">
-        <v>2.27</v>
-      </c>
-      <c r="S39">
-        <v>1.59</v>
-      </c>
-      <c r="T39">
-        <v>1.12</v>
-      </c>
-      <c r="U39">
-        <v>1.27</v>
-      </c>
-      <c r="V39">
-        <v>2.34</v>
-      </c>
-      <c r="W39">
-        <v>1.89</v>
-      </c>
-      <c r="X39">
-        <v>0.88</v>
-      </c>
       <c r="Y39">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="Z39">
-        <v>1.11</v>
+        <v>0.99</v>
       </c>
       <c r="AA39">
-        <v>2.61</v>
+        <v>2.94</v>
       </c>
       <c r="AB39">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AD39">
-        <v>4.12</v>
+        <v>0</v>
       </c>
       <c r="AE39">
         <v>0</v>
@@ -5108,22 +5177,22 @@
     </row>
     <row r="40" spans="1:35">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2">
         <v>45079</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D40">
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F40" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -5174,19 +5243,19 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>1.95</v>
+        <v>0.86</v>
       </c>
       <c r="X40">
-        <v>1.52</v>
+        <v>1.81</v>
       </c>
       <c r="Y40">
-        <v>1.95</v>
+        <v>1.3</v>
       </c>
       <c r="Z40">
-        <v>0.99</v>
+        <v>1.16</v>
       </c>
       <c r="AA40">
-        <v>2.94</v>
+        <v>2.46</v>
       </c>
       <c r="AB40">
         <v>0</v>
@@ -5215,22 +5284,22 @@
     </row>
     <row r="41" spans="1:35">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2">
         <v>45079</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D41">
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F41" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -5281,19 +5350,19 @@
         <v>0</v>
       </c>
       <c r="W41">
-        <v>0.86</v>
+        <v>1.18</v>
       </c>
       <c r="X41">
         <v>1.81</v>
       </c>
       <c r="Y41">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="Z41">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="AA41">
-        <v>2.46</v>
+        <v>2.81</v>
       </c>
       <c r="AB41">
         <v>0</v>
@@ -5322,22 +5391,22 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2">
         <v>45079</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D42">
         <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F42" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -5388,19 +5457,19 @@
         <v>0</v>
       </c>
       <c r="W42">
-        <v>1.13</v>
+        <v>2.29</v>
       </c>
       <c r="X42">
         <v>1</v>
       </c>
       <c r="Y42">
-        <v>1.33</v>
+        <v>1.81</v>
       </c>
       <c r="Z42">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="AA42">
-        <v>2.57</v>
+        <v>3.18</v>
       </c>
       <c r="AB42">
         <v>0</v>
@@ -5429,22 +5498,22 @@
     </row>
     <row r="43" spans="1:35">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2">
         <v>45079</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D43">
         <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F43" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -5495,19 +5564,19 @@
         <v>0</v>
       </c>
       <c r="W43">
-        <v>1.71</v>
+        <v>1.43</v>
       </c>
       <c r="X43">
-        <v>0.71</v>
+        <v>1.86</v>
       </c>
       <c r="Y43">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Z43">
-        <v>1.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA43">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="AB43">
         <v>0</v>
@@ -5536,129 +5605,129 @@
     </row>
     <row r="44" spans="1:35">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2">
         <v>45079</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D44">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E44" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F44" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>3.59</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="W44">
-        <v>1.29</v>
+        <v>1.89</v>
       </c>
       <c r="X44">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="Y44">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Z44">
-        <v>1.24</v>
+        <v>1.11</v>
       </c>
       <c r="AA44">
-        <v>2.76</v>
+        <v>2.61</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>4.12</v>
       </c>
       <c r="AE44">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF44">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG44">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AH44">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AI44">
-        <v>0</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="45" spans="1:35">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2">
         <v>45079</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D45">
         <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F45" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -5750,22 +5819,22 @@
     </row>
     <row r="46" spans="1:35">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2">
         <v>45079</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D46">
         <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F46" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -5816,19 +5885,19 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>2.14</v>
+        <v>1.29</v>
       </c>
       <c r="X46">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="Y46">
-        <v>1.69</v>
+        <v>1.52</v>
       </c>
       <c r="Z46">
-        <v>1.62</v>
+        <v>1.24</v>
       </c>
       <c r="AA46">
-        <v>3.31</v>
+        <v>2.76</v>
       </c>
       <c r="AB46">
         <v>0</v>
@@ -5857,22 +5926,22 @@
     </row>
     <row r="47" spans="1:35">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2">
         <v>45079</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D47">
         <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F47" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -5923,19 +5992,19 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="X47">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="Y47">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="Z47">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="AA47">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AB47">
         <v>0</v>
@@ -5964,22 +6033,22 @@
     </row>
     <row r="48" spans="1:35">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2">
         <v>45079</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D48">
         <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F48" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -6030,19 +6099,19 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>1.43</v>
+        <v>1.71</v>
       </c>
       <c r="X48">
-        <v>1.86</v>
+        <v>0.71</v>
       </c>
       <c r="Y48">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Z48">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
       <c r="AA48">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="AB48">
         <v>0</v>
@@ -6071,22 +6140,22 @@
     </row>
     <row r="49" spans="1:35">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="2">
         <v>45079</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D49">
         <v>18</v>
       </c>
       <c r="E49" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F49" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -6137,19 +6206,19 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="X49">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="Y49">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="Z49">
-        <v>1.37</v>
+        <v>1.62</v>
       </c>
       <c r="AA49">
-        <v>3.18</v>
+        <v>3.31</v>
       </c>
       <c r="AB49">
         <v>0</v>
@@ -6184,103 +6253,103 @@
         <v>45079</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D50">
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F50" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="W50">
-        <v>1.82</v>
+        <v>0.75</v>
       </c>
       <c r="X50">
-        <v>2.09</v>
+        <v>1</v>
       </c>
       <c r="Y50">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="Z50">
-        <v>1.05</v>
+        <v>1.68</v>
       </c>
       <c r="AA50">
-        <v>2.4</v>
+        <v>3.21</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AC50">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AE50">
         <v>0</v>
       </c>
       <c r="AF50">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG50">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AH50">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AI50">
-        <v>0</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="51" spans="1:35">
@@ -6291,123 +6360,123 @@
         <v>45079</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D51">
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F51" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V51">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W51">
-        <v>1.18</v>
+        <v>2.25</v>
       </c>
       <c r="X51">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="Y51">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="Z51">
-        <v>1.33</v>
+        <v>1.69</v>
       </c>
       <c r="AA51">
-        <v>2.81</v>
+        <v>3.26</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AC51">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD51">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AE51">
         <v>0</v>
       </c>
       <c r="AF51">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AG51">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AH51">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AI51">
-        <v>0</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="52" spans="1:35">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="2">
         <v>45079</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D52">
         <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F52" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -6458,19 +6527,19 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="X52">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="Y52">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="Z52">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AA52">
-        <v>2.59</v>
+        <v>2.69</v>
       </c>
       <c r="AB52">
         <v>0</v>
@@ -6499,192 +6568,192 @@
     </row>
     <row r="53" spans="1:35">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B53" s="2">
         <v>45079</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D53">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F53" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G53">
-        <v>2.8</v>
+        <v>4.35</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>3.27</v>
       </c>
       <c r="I53">
-        <v>2.44</v>
+        <v>1.53</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="N53">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="O53">
-        <v>1.6</v>
+        <v>1.86</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="V53">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W53">
-        <v>0.5</v>
+        <v>1.22</v>
       </c>
       <c r="X53">
-        <v>0.5</v>
+        <v>1.83</v>
       </c>
       <c r="Y53">
-        <v>2.39</v>
+        <v>1.28</v>
       </c>
       <c r="Z53">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="AA53">
-        <v>4.01</v>
+        <v>3.04</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AC53">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AE53">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF53">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AG53">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AH53">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AI53">
-        <v>0</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="54" spans="1:35">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B54" s="2">
         <v>45079</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F54" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H54">
-        <v>3.75</v>
+        <v>3.02</v>
       </c>
       <c r="I54">
-        <v>1.57</v>
+        <v>2.99</v>
       </c>
       <c r="J54">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>1.86</v>
+        <v>2.19</v>
       </c>
       <c r="O54">
-        <v>1.86</v>
+        <v>1.6</v>
       </c>
       <c r="P54">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="S54">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="T54">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="U54">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="V54">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="W54">
-        <v>1.22</v>
+        <v>0.5</v>
       </c>
       <c r="X54">
-        <v>1.83</v>
+        <v>0.5</v>
       </c>
       <c r="Y54">
-        <v>1.28</v>
+        <v>2.39</v>
       </c>
       <c r="Z54">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="AA54">
-        <v>3.04</v>
+        <v>4.01</v>
       </c>
       <c r="AB54">
         <v>0</v>
@@ -6719,31 +6788,31 @@
         <v>45079</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D55">
         <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F55" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="G55">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H55">
-        <v>4.1</v>
+        <v>3.83</v>
       </c>
       <c r="I55">
-        <v>6</v>
+        <v>5.72</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L55">
         <v>1.22</v>
@@ -6794,13 +6863,13 @@
         <v>2.87</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AC55">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD55">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AE55">
         <v>0</v>
@@ -6809,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="AG55">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH55">
         <v>0</v>
@@ -6826,25 +6895,25 @@
         <v>45079</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F56" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="G56">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="H56">
-        <v>3.64</v>
+        <v>3.26</v>
       </c>
       <c r="I56">
-        <v>3.86</v>
+        <v>3.42</v>
       </c>
       <c r="J56">
         <v>1.04</v>
@@ -6913,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="AF56">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG56">
         <v>0</v>
@@ -6933,25 +7002,25 @@
         <v>45079</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D57">
         <v>21</v>
       </c>
       <c r="E57" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F57" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -6966,10 +7035,10 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -6993,19 +7062,19 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="X57">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="Y57">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="Z57">
-        <v>1.56</v>
+        <v>1.35</v>
       </c>
       <c r="AA57">
-        <v>3.05</v>
+        <v>2.81</v>
       </c>
       <c r="AB57">
         <v>0</v>
@@ -7040,25 +7109,25 @@
         <v>45079</v>
       </c>
       <c r="C58" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D58">
         <v>21</v>
       </c>
       <c r="E58" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F58" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>3.09</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -7073,10 +7142,10 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -7100,19 +7169,19 @@
         <v>0</v>
       </c>
       <c r="W58">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="X58">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="Y58">
-        <v>1.28</v>
+        <v>1.49</v>
       </c>
       <c r="Z58">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="AA58">
-        <v>2.67</v>
+        <v>3.05</v>
       </c>
       <c r="AB58">
         <v>0</v>
@@ -7147,25 +7216,25 @@
         <v>45079</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D59">
         <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F59" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -7180,10 +7249,10 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -7210,16 +7279,16 @@
         <v>1.6</v>
       </c>
       <c r="X59">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="Y59">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="Z59">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="AA59">
-        <v>2.81</v>
+        <v>2.67</v>
       </c>
       <c r="AB59">
         <v>0</v>
@@ -7254,16 +7323,16 @@
         <v>45079</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D60">
         <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F60" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -7350,6 +7419,969 @@
         <v>0</v>
       </c>
       <c r="AI60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35">
+      <c r="A61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="2">
+        <v>45079</v>
+      </c>
+      <c r="C61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61">
+        <v>19</v>
+      </c>
+      <c r="E61" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" t="s">
+        <v>199</v>
+      </c>
+      <c r="G61">
+        <v>2.83</v>
+      </c>
+      <c r="H61">
+        <v>3.22</v>
+      </c>
+      <c r="I61">
+        <v>2.54</v>
+      </c>
+      <c r="J61">
+        <v>1.08</v>
+      </c>
+      <c r="K61">
+        <v>7</v>
+      </c>
+      <c r="L61">
+        <v>1.4</v>
+      </c>
+      <c r="M61">
+        <v>2.75</v>
+      </c>
+      <c r="N61">
+        <v>2.25</v>
+      </c>
+      <c r="O61">
+        <v>1.6</v>
+      </c>
+      <c r="P61">
+        <v>1.5</v>
+      </c>
+      <c r="Q61">
+        <v>2.5</v>
+      </c>
+      <c r="R61">
+        <v>1.91</v>
+      </c>
+      <c r="S61">
+        <v>1.8</v>
+      </c>
+      <c r="T61">
+        <v>1.5</v>
+      </c>
+      <c r="U61">
+        <v>1.35</v>
+      </c>
+      <c r="V61">
+        <v>1.4</v>
+      </c>
+      <c r="W61">
+        <v>1.5</v>
+      </c>
+      <c r="X61">
+        <v>1.88</v>
+      </c>
+      <c r="Y61">
+        <v>1.66</v>
+      </c>
+      <c r="Z61">
+        <v>1.33</v>
+      </c>
+      <c r="AA61">
+        <v>2.99</v>
+      </c>
+      <c r="AB61">
+        <v>2.05</v>
+      </c>
+      <c r="AC61">
+        <v>7.5</v>
+      </c>
+      <c r="AD61">
+        <v>2</v>
+      </c>
+      <c r="AE61">
+        <v>1.33</v>
+      </c>
+      <c r="AF61">
+        <v>1.6</v>
+      </c>
+      <c r="AG61">
+        <v>2.04</v>
+      </c>
+      <c r="AH61">
+        <v>2.75</v>
+      </c>
+      <c r="AI61">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35">
+      <c r="A62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="2">
+        <v>45079</v>
+      </c>
+      <c r="C62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>134</v>
+      </c>
+      <c r="F62" t="s">
+        <v>200</v>
+      </c>
+      <c r="G62">
+        <v>1.77</v>
+      </c>
+      <c r="H62">
+        <v>3.25</v>
+      </c>
+      <c r="I62">
+        <v>4.6</v>
+      </c>
+      <c r="J62">
+        <v>1.08</v>
+      </c>
+      <c r="K62">
+        <v>7</v>
+      </c>
+      <c r="L62">
+        <v>1.45</v>
+      </c>
+      <c r="M62">
+        <v>2.65</v>
+      </c>
+      <c r="N62">
+        <v>2.33</v>
+      </c>
+      <c r="O62">
+        <v>1.55</v>
+      </c>
+      <c r="P62">
+        <v>1.5</v>
+      </c>
+      <c r="Q62">
+        <v>2.4</v>
+      </c>
+      <c r="R62">
+        <v>2.2</v>
+      </c>
+      <c r="S62">
+        <v>1.58</v>
+      </c>
+      <c r="T62">
+        <v>1.18</v>
+      </c>
+      <c r="U62">
+        <v>1.29</v>
+      </c>
+      <c r="V62">
+        <v>2</v>
+      </c>
+      <c r="W62">
+        <v>2.25</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>1.75</v>
+      </c>
+      <c r="Z62">
+        <v>1.34</v>
+      </c>
+      <c r="AA62">
+        <v>3.09</v>
+      </c>
+      <c r="AB62">
+        <v>1.38</v>
+      </c>
+      <c r="AC62">
+        <v>8</v>
+      </c>
+      <c r="AD62">
+        <v>4</v>
+      </c>
+      <c r="AE62">
+        <v>1.27</v>
+      </c>
+      <c r="AF62">
+        <v>1.49</v>
+      </c>
+      <c r="AG62">
+        <v>2</v>
+      </c>
+      <c r="AH62">
+        <v>2.45</v>
+      </c>
+      <c r="AI62">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35">
+      <c r="A63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="2">
+        <v>45079</v>
+      </c>
+      <c r="C63" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63" t="s">
+        <v>201</v>
+      </c>
+      <c r="G63">
+        <v>1.58</v>
+      </c>
+      <c r="H63">
+        <v>3.58</v>
+      </c>
+      <c r="I63">
+        <v>5.65</v>
+      </c>
+      <c r="J63">
+        <v>1.08</v>
+      </c>
+      <c r="K63">
+        <v>7</v>
+      </c>
+      <c r="L63">
+        <v>1.4</v>
+      </c>
+      <c r="M63">
+        <v>2.75</v>
+      </c>
+      <c r="N63">
+        <v>2.2</v>
+      </c>
+      <c r="O63">
+        <v>1.62</v>
+      </c>
+      <c r="P63">
+        <v>1.47</v>
+      </c>
+      <c r="Q63">
+        <v>2.58</v>
+      </c>
+      <c r="R63">
+        <v>2.16</v>
+      </c>
+      <c r="S63">
+        <v>1.66</v>
+      </c>
+      <c r="T63">
+        <v>1.14</v>
+      </c>
+      <c r="U63">
+        <v>1.27</v>
+      </c>
+      <c r="V63">
+        <v>2.24</v>
+      </c>
+      <c r="W63">
+        <v>1.75</v>
+      </c>
+      <c r="X63">
+        <v>0.88</v>
+      </c>
+      <c r="Y63">
+        <v>1.95</v>
+      </c>
+      <c r="Z63">
+        <v>1.19</v>
+      </c>
+      <c r="AA63">
+        <v>3.14</v>
+      </c>
+      <c r="AB63">
+        <v>1.41</v>
+      </c>
+      <c r="AC63">
+        <v>9</v>
+      </c>
+      <c r="AD63">
+        <v>3.66</v>
+      </c>
+      <c r="AE63">
+        <v>1.33</v>
+      </c>
+      <c r="AF63">
+        <v>1.6</v>
+      </c>
+      <c r="AG63">
+        <v>2.04</v>
+      </c>
+      <c r="AH63">
+        <v>2.75</v>
+      </c>
+      <c r="AI63">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35">
+      <c r="A64" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="2">
+        <v>45079</v>
+      </c>
+      <c r="C64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>136</v>
+      </c>
+      <c r="F64" t="s">
+        <v>202</v>
+      </c>
+      <c r="G64">
+        <v>1.96</v>
+      </c>
+      <c r="H64">
+        <v>3.11</v>
+      </c>
+      <c r="I64">
+        <v>3.36</v>
+      </c>
+      <c r="J64">
+        <v>1.08</v>
+      </c>
+      <c r="K64">
+        <v>7.25</v>
+      </c>
+      <c r="L64">
+        <v>1.4</v>
+      </c>
+      <c r="M64">
+        <v>2.8</v>
+      </c>
+      <c r="N64">
+        <v>2.2</v>
+      </c>
+      <c r="O64">
+        <v>1.61</v>
+      </c>
+      <c r="P64">
+        <v>1.47</v>
+      </c>
+      <c r="Q64">
+        <v>2.45</v>
+      </c>
+      <c r="R64">
+        <v>1.95</v>
+      </c>
+      <c r="S64">
+        <v>1.73</v>
+      </c>
+      <c r="T64">
+        <v>1.27</v>
+      </c>
+      <c r="U64">
+        <v>1.33</v>
+      </c>
+      <c r="V64">
+        <v>1.71</v>
+      </c>
+      <c r="W64">
+        <v>2.4</v>
+      </c>
+      <c r="X64">
+        <v>1.25</v>
+      </c>
+      <c r="Y64">
+        <v>1.85</v>
+      </c>
+      <c r="Z64">
+        <v>1.38</v>
+      </c>
+      <c r="AA64">
+        <v>3.23</v>
+      </c>
+      <c r="AB64">
+        <v>1.48</v>
+      </c>
+      <c r="AC64">
+        <v>8.5</v>
+      </c>
+      <c r="AD64">
+        <v>3.3</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>1.33</v>
+      </c>
+      <c r="AH64">
+        <v>1.6</v>
+      </c>
+      <c r="AI64">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35">
+      <c r="A65" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="2">
+        <v>45079</v>
+      </c>
+      <c r="C65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" t="s">
+        <v>194</v>
+      </c>
+      <c r="G65">
+        <v>1.33</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <v>7.5</v>
+      </c>
+      <c r="J65">
+        <v>1.02</v>
+      </c>
+      <c r="K65">
+        <v>13.5</v>
+      </c>
+      <c r="L65">
+        <v>1.2</v>
+      </c>
+      <c r="M65">
+        <v>4.2</v>
+      </c>
+      <c r="N65">
+        <v>1.62</v>
+      </c>
+      <c r="O65">
+        <v>2.16</v>
+      </c>
+      <c r="P65">
+        <v>1.27</v>
+      </c>
+      <c r="Q65">
+        <v>3.4</v>
+      </c>
+      <c r="R65">
+        <v>1.88</v>
+      </c>
+      <c r="S65">
+        <v>1.8</v>
+      </c>
+      <c r="T65">
+        <v>1.08</v>
+      </c>
+      <c r="U65">
+        <v>1.13</v>
+      </c>
+      <c r="V65">
+        <v>2.5</v>
+      </c>
+      <c r="W65">
+        <v>1.6</v>
+      </c>
+      <c r="X65">
+        <v>0.33</v>
+      </c>
+      <c r="Y65">
+        <v>1.91</v>
+      </c>
+      <c r="Z65">
+        <v>1.18</v>
+      </c>
+      <c r="AA65">
+        <v>3.09</v>
+      </c>
+      <c r="AB65">
+        <v>1.19</v>
+      </c>
+      <c r="AC65">
+        <v>10.75</v>
+      </c>
+      <c r="AD65">
+        <v>5.9</v>
+      </c>
+      <c r="AE65">
+        <v>1.31</v>
+      </c>
+      <c r="AF65">
+        <v>1.93</v>
+      </c>
+      <c r="AG65">
+        <v>1.98</v>
+      </c>
+      <c r="AH65">
+        <v>2.57</v>
+      </c>
+      <c r="AI65">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35">
+      <c r="A66" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="2">
+        <v>45079</v>
+      </c>
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" t="s">
+        <v>203</v>
+      </c>
+      <c r="G66">
+        <v>1.82</v>
+      </c>
+      <c r="H66">
+        <v>3.12</v>
+      </c>
+      <c r="I66">
+        <v>3.14</v>
+      </c>
+      <c r="J66">
+        <v>1.04</v>
+      </c>
+      <c r="K66">
+        <v>13</v>
+      </c>
+      <c r="L66">
+        <v>1.24</v>
+      </c>
+      <c r="M66">
+        <v>3.62</v>
+      </c>
+      <c r="N66">
+        <v>1.69</v>
+      </c>
+      <c r="O66">
+        <v>1.82</v>
+      </c>
+      <c r="P66">
+        <v>1.35</v>
+      </c>
+      <c r="Q66">
+        <v>2.94</v>
+      </c>
+      <c r="R66">
+        <v>1.67</v>
+      </c>
+      <c r="S66">
+        <v>2.15</v>
+      </c>
+      <c r="T66">
+        <v>1.28</v>
+      </c>
+      <c r="U66">
+        <v>1.26</v>
+      </c>
+      <c r="V66">
+        <v>1.71</v>
+      </c>
+      <c r="W66">
+        <v>1.75</v>
+      </c>
+      <c r="X66">
+        <v>1.17</v>
+      </c>
+      <c r="Y66">
+        <v>1.55</v>
+      </c>
+      <c r="Z66">
+        <v>1.59</v>
+      </c>
+      <c r="AA66">
+        <v>3.14</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>1.85</v>
+      </c>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35">
+      <c r="A67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="2">
+        <v>45079</v>
+      </c>
+      <c r="C67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67">
+        <v>18</v>
+      </c>
+      <c r="E67" t="s">
+        <v>139</v>
+      </c>
+      <c r="F67" t="s">
+        <v>204</v>
+      </c>
+      <c r="G67">
+        <v>2.7</v>
+      </c>
+      <c r="H67">
+        <v>3.06</v>
+      </c>
+      <c r="I67">
+        <v>2.16</v>
+      </c>
+      <c r="J67">
+        <v>1.01</v>
+      </c>
+      <c r="K67">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="L67">
+        <v>1.24</v>
+      </c>
+      <c r="M67">
+        <v>3.6</v>
+      </c>
+      <c r="N67">
+        <v>1.74</v>
+      </c>
+      <c r="O67">
+        <v>1.87</v>
+      </c>
+      <c r="P67">
+        <v>1.36</v>
+      </c>
+      <c r="Q67">
+        <v>3</v>
+      </c>
+      <c r="R67">
+        <v>1.66</v>
+      </c>
+      <c r="S67">
+        <v>2.16</v>
+      </c>
+      <c r="T67">
+        <v>1.52</v>
+      </c>
+      <c r="U67">
+        <v>1.27</v>
+      </c>
+      <c r="V67">
+        <v>1.41</v>
+      </c>
+      <c r="W67">
+        <v>1.38</v>
+      </c>
+      <c r="X67">
+        <v>1.88</v>
+      </c>
+      <c r="Y67">
+        <v>1.91</v>
+      </c>
+      <c r="Z67">
+        <v>1.16</v>
+      </c>
+      <c r="AA67">
+        <v>3.07</v>
+      </c>
+      <c r="AB67">
+        <v>1.86</v>
+      </c>
+      <c r="AC67">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AD67">
+        <v>2.23</v>
+      </c>
+      <c r="AE67">
+        <v>1.15</v>
+      </c>
+      <c r="AF67">
+        <v>1.27</v>
+      </c>
+      <c r="AG67">
+        <v>1.51</v>
+      </c>
+      <c r="AH67">
+        <v>1.87</v>
+      </c>
+      <c r="AI67">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35">
+      <c r="A68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" s="2">
+        <v>45079</v>
+      </c>
+      <c r="C68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68">
+        <v>18</v>
+      </c>
+      <c r="E68" t="s">
+        <v>140</v>
+      </c>
+      <c r="F68" t="s">
+        <v>205</v>
+      </c>
+      <c r="G68">
+        <v>1.29</v>
+      </c>
+      <c r="H68">
+        <v>4.34</v>
+      </c>
+      <c r="I68">
+        <v>7.43</v>
+      </c>
+      <c r="J68">
+        <v>1.01</v>
+      </c>
+      <c r="K68">
+        <v>9.9</v>
+      </c>
+      <c r="L68">
+        <v>1.24</v>
+      </c>
+      <c r="M68">
+        <v>3.55</v>
+      </c>
+      <c r="N68">
+        <v>1.74</v>
+      </c>
+      <c r="O68">
+        <v>1.87</v>
+      </c>
+      <c r="P68">
+        <v>1.36</v>
+      </c>
+      <c r="Q68">
+        <v>3</v>
+      </c>
+      <c r="R68">
+        <v>2.1</v>
+      </c>
+      <c r="S68">
+        <v>1.7</v>
+      </c>
+      <c r="T68">
+        <v>1.05</v>
+      </c>
+      <c r="U68">
+        <v>1.18</v>
+      </c>
+      <c r="V68">
+        <v>2.92</v>
+      </c>
+      <c r="W68">
+        <v>2.63</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
+      </c>
+      <c r="Y68">
+        <v>1.95</v>
+      </c>
+      <c r="Z68">
+        <v>1.25</v>
+      </c>
+      <c r="AA68">
+        <v>3.2</v>
+      </c>
+      <c r="AB68">
+        <v>1.18</v>
+      </c>
+      <c r="AC68">
+        <v>12.75</v>
+      </c>
+      <c r="AD68">
+        <v>5.95</v>
+      </c>
+      <c r="AE68">
+        <v>1.17</v>
+      </c>
+      <c r="AF68">
+        <v>1.3</v>
+      </c>
+      <c r="AG68">
+        <v>1.54</v>
+      </c>
+      <c r="AH68">
+        <v>1.91</v>
+      </c>
+      <c r="AI68">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35">
+      <c r="A69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45079</v>
+      </c>
+      <c r="C69" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69">
+        <v>8</v>
+      </c>
+      <c r="E69" t="s">
+        <v>141</v>
+      </c>
+      <c r="F69" t="s">
+        <v>206</v>
+      </c>
+      <c r="G69">
+        <v>3.85</v>
+      </c>
+      <c r="H69">
+        <v>3.25</v>
+      </c>
+      <c r="I69">
+        <v>1.85</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1.9</v>
+      </c>
+      <c r="O69">
+        <v>1.68</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0.67</v>
+      </c>
+      <c r="X69">
+        <v>2</v>
+      </c>
+      <c r="Y69">
+        <v>1.11</v>
+      </c>
+      <c r="Z69">
+        <v>1.68</v>
+      </c>
+      <c r="AA69">
+        <v>2.79</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AF69">
+        <v>0</v>
+      </c>
+      <c r="AG69">
+        <v>0</v>
+      </c>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-06-02_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-02_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -148,12 +148,12 @@
     <t>Italy Serie B</t>
   </si>
   <si>
+    <t>Republic of Ireland Premier Division</t>
+  </si>
+  <si>
     <t>France Ligue 2</t>
   </si>
   <si>
-    <t>Republic of Ireland Premier Division</t>
-  </si>
-  <si>
     <t>Argentina Prim B Nacional</t>
   </si>
   <si>
@@ -163,24 +163,24 @@
     <t>Ecuador Primera Categoría Serie A</t>
   </si>
   <si>
+    <t>Brazil Serie B</t>
+  </si>
+  <si>
     <t>Argentina Primera División</t>
   </si>
   <si>
-    <t>Brazil Serie B</t>
-  </si>
-  <si>
     <t>Brazil Serie C</t>
   </si>
   <si>
     <t>Bolivia LFPB</t>
   </si>
   <si>
+    <t>Paraguay Division Profesional</t>
+  </si>
+  <si>
     <t>USA USL Championship</t>
   </si>
   <si>
-    <t>Paraguay Division Profesional</t>
-  </si>
-  <si>
     <t>Chile Segunda División</t>
   </si>
   <si>
@@ -241,192 +241,192 @@
     <t>23:00:00</t>
   </si>
   <si>
+    <t>Hangzhou</t>
+  </si>
+  <si>
     <t>Beijing Guoan</t>
   </si>
   <si>
-    <t>Hangzhou</t>
-  </si>
-  <si>
     <t>Ceramica Cleopatra</t>
   </si>
   <si>
     <t>Lokomotiv Plovdiv</t>
   </si>
   <si>
+    <t>HB Køge</t>
+  </si>
+  <si>
     <t>Nykøbing</t>
   </si>
   <si>
     <t>Hillerød</t>
   </si>
   <si>
-    <t>HB Køge</t>
+    <t>Wattens</t>
+  </si>
+  <si>
+    <t>Ried</t>
   </si>
   <si>
     <t>Austria Lustenau</t>
   </si>
   <si>
-    <t>Ried</t>
-  </si>
-  <si>
-    <t>Wattens</t>
-  </si>
-  <si>
     <t>Stjarnan</t>
   </si>
   <si>
     <t>Liverpool FC Montevideo</t>
   </si>
   <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
     <t>Pyramids FC</t>
   </si>
   <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
     <t>Bari 1908</t>
   </si>
   <si>
+    <t>Drogheda United</t>
+  </si>
+  <si>
+    <t>Derry City</t>
+  </si>
+  <si>
+    <t>Saint-Étienne</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Grenoble Foot 38</t>
+  </si>
+  <si>
+    <t>Amiens SC</t>
+  </si>
+  <si>
     <t>Niort</t>
   </si>
   <si>
-    <t>Amiens SC</t>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Nîmes</t>
   </si>
   <si>
     <t>Pau</t>
   </si>
   <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Bohemians</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers</t>
+  </si>
+  <si>
+    <t>UCD</t>
+  </si>
+  <si>
     <t>Metz</t>
   </si>
   <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>Nîmes</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Derry City</t>
-  </si>
-  <si>
-    <t>Bohemians</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Drogheda United</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers</t>
-  </si>
-  <si>
-    <t>Grenoble Foot 38</t>
-  </si>
-  <si>
-    <t>Saint-Étienne</t>
+    <t>Breidablik</t>
+  </si>
+  <si>
+    <t>Fram</t>
   </si>
   <si>
     <t>Valur</t>
   </si>
   <si>
-    <t>Fram</t>
-  </si>
-  <si>
-    <t>Breidablik</t>
+    <t>Independiente Rivadavia</t>
+  </si>
+  <si>
+    <t>Monastir</t>
+  </si>
+  <si>
+    <t>CS Sfaxien</t>
+  </si>
+  <si>
+    <t>Tataouine</t>
+  </si>
+  <si>
+    <t>ES Tunis</t>
+  </si>
+  <si>
+    <t>Tristán Suárez</t>
+  </si>
+  <si>
+    <t>Chaco For Ever</t>
+  </si>
+  <si>
+    <t>CSD Independiente del Valle</t>
+  </si>
+  <si>
+    <t>Deportivo Riestra</t>
+  </si>
+  <si>
+    <t>Chacarita Juniors</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Racing Córdoba</t>
   </si>
   <si>
     <t>Ferro Carril Oeste</t>
   </si>
   <si>
-    <t>Monastir</t>
-  </si>
-  <si>
-    <t>Chacarita Juniors</t>
-  </si>
-  <si>
-    <t>CSD Independiente del Valle</t>
-  </si>
-  <si>
-    <t>ES Tunis</t>
-  </si>
-  <si>
-    <t>Tataouine</t>
-  </si>
-  <si>
-    <t>CS Sfaxien</t>
-  </si>
-  <si>
-    <t>Independiente Rivadavia</t>
-  </si>
-  <si>
-    <t>Chaco For Ever</t>
+    <t>Ceará</t>
+  </si>
+  <si>
+    <t>Botafogo SP</t>
   </si>
   <si>
     <t>Estudiantes</t>
   </si>
   <si>
-    <t>Tristán Suárez</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>Racing Córdoba</t>
-  </si>
-  <si>
-    <t>Deportivo Riestra</t>
-  </si>
-  <si>
-    <t>Ceará</t>
-  </si>
-  <si>
-    <t>Botafogo SP</t>
-  </si>
-  <si>
     <t>Club Atlético Mitre</t>
   </si>
   <si>
+    <t>América RN</t>
+  </si>
+  <si>
     <t>La Luz</t>
   </si>
   <si>
-    <t>América RN</t>
-  </si>
-  <si>
     <t>Aurora</t>
   </si>
   <si>
+    <t>Sportivo Luqueño</t>
+  </si>
+  <si>
+    <t>Cerro Porteño</t>
+  </si>
+  <si>
     <t>Charleston Battery</t>
   </si>
   <si>
-    <t>Sportivo Luqueño</t>
-  </si>
-  <si>
-    <t>Cerro Porteño</t>
-  </si>
-  <si>
     <t>Guaraní</t>
   </si>
   <si>
     <t>Deportes Limache</t>
   </si>
   <si>
+    <t>Argentinos Juniors</t>
+  </si>
+  <si>
+    <t>Vitória</t>
+  </si>
+  <si>
+    <t>Criciúma</t>
+  </si>
+  <si>
     <t>Tigre</t>
   </si>
   <si>
-    <t>Vitória</t>
-  </si>
-  <si>
-    <t>Argentinos Juniors</t>
-  </si>
-  <si>
-    <t>Criciúma</t>
-  </si>
-  <si>
     <t>LDU Quito</t>
   </si>
   <si>
@@ -442,187 +442,187 @@
     <t>Vancouver FC</t>
   </si>
   <si>
+    <t>Shenzhen</t>
+  </si>
+  <si>
     <t>Changchun Yatai</t>
   </si>
   <si>
-    <t>Shenzhen</t>
-  </si>
-  <si>
     <t>Pharco</t>
   </si>
   <si>
     <t>Cherno More</t>
   </si>
   <si>
+    <t>Fremad Amager</t>
+  </si>
+  <si>
     <t>Fredericia</t>
   </si>
   <si>
     <t>Hobro</t>
   </si>
   <si>
-    <t>Fremad Amager</t>
+    <t>Rheindorf Altach</t>
+  </si>
+  <si>
+    <t>Wolfsberger AC</t>
   </si>
   <si>
     <t>Hartberg</t>
   </si>
   <si>
-    <t>Wolfsberger AC</t>
-  </si>
-  <si>
-    <t>Rheindorf Altach</t>
-  </si>
-  <si>
     <t>KA</t>
   </si>
   <si>
     <t>Racing</t>
   </si>
   <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
     <t>Coca-Cola</t>
   </si>
   <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
     <t>Südtirol</t>
   </si>
   <si>
+    <t>Cork City</t>
+  </si>
+  <si>
+    <t>Shelbourne</t>
+  </si>
+  <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
+    <t>Annecy</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Laval</t>
+  </si>
+  <si>
     <t>Quevilly Rouen</t>
   </si>
   <si>
-    <t>Laval</t>
+    <t>Dijon</t>
+  </si>
+  <si>
+    <t>Sochaux</t>
   </si>
   <si>
     <t>Caen</t>
   </si>
   <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Sligo Rovers</t>
+  </si>
+  <si>
+    <t>Dundalk</t>
+  </si>
+  <si>
+    <t>St Patrick's Athl.</t>
+  </si>
+  <si>
     <t>Bastia</t>
   </si>
   <si>
-    <t>Annecy</t>
-  </si>
-  <si>
-    <t>Sochaux</t>
-  </si>
-  <si>
-    <t>Dijon</t>
-  </si>
-  <si>
-    <t>Shelbourne</t>
-  </si>
-  <si>
-    <t>Sligo Rovers</t>
-  </si>
-  <si>
-    <t>Rodez</t>
-  </si>
-  <si>
-    <t>Cork City</t>
-  </si>
-  <si>
-    <t>St Patrick's Athl.</t>
-  </si>
-  <si>
-    <t>Dundalk</t>
-  </si>
-  <si>
-    <t>Guingamp</t>
-  </si>
-  <si>
-    <t>Valenciennes</t>
+    <t>Víkingur Reykjavík</t>
+  </si>
+  <si>
+    <t>Keflavík</t>
   </si>
   <si>
     <t>FH</t>
   </si>
   <si>
-    <t>Keflavík</t>
-  </si>
-  <si>
-    <t>Víkingur Reykjavík</t>
+    <t>Aldosivi</t>
+  </si>
+  <si>
+    <t>Etoile du Sahel</t>
+  </si>
+  <si>
+    <t>Ben Guerdane</t>
+  </si>
+  <si>
+    <t>Club Africain</t>
+  </si>
+  <si>
+    <t>Olympique Béja</t>
+  </si>
+  <si>
+    <t>Atlético Rafaela</t>
+  </si>
+  <si>
+    <t>Deportivo Maipú</t>
+  </si>
+  <si>
+    <t>SD Aucas</t>
+  </si>
+  <si>
+    <t>Quilmes</t>
+  </si>
+  <si>
+    <t>Deportivo Madryn</t>
+  </si>
+  <si>
+    <t>Estudiantes Caseros</t>
+  </si>
+  <si>
+    <t>Brown de Adrogué</t>
   </si>
   <si>
     <t>Gimnasia Jujuy</t>
   </si>
   <si>
-    <t>Etoile du Sahel</t>
-  </si>
-  <si>
-    <t>Atlético Rafaela</t>
-  </si>
-  <si>
-    <t>SD Aucas</t>
-  </si>
-  <si>
-    <t>Olympique Béja</t>
-  </si>
-  <si>
-    <t>Club Africain</t>
-  </si>
-  <si>
-    <t>Ben Guerdane</t>
-  </si>
-  <si>
-    <t>Aldosivi</t>
-  </si>
-  <si>
-    <t>Deportivo Maipú</t>
+    <t>Chapecoense</t>
+  </si>
+  <si>
+    <t>Tombense</t>
   </si>
   <si>
     <t>Barracas Central</t>
   </si>
   <si>
-    <t>Estudiantes Caseros</t>
-  </si>
-  <si>
-    <t>Brown de Adrogué</t>
-  </si>
-  <si>
-    <t>Quilmes</t>
-  </si>
-  <si>
-    <t>Deportivo Madryn</t>
-  </si>
-  <si>
-    <t>Chapecoense</t>
-  </si>
-  <si>
-    <t>Tombense</t>
-  </si>
-  <si>
     <t>Villa Dálmine</t>
   </si>
   <si>
+    <t>Operário PR</t>
+  </si>
+  <si>
     <t>Peñarol</t>
   </si>
   <si>
-    <t>Operário PR</t>
-  </si>
-  <si>
     <t>Libertad</t>
   </si>
   <si>
+    <t>Sportivo Trinidense</t>
+  </si>
+  <si>
     <t>Indy Eleven</t>
   </si>
   <si>
-    <t>Sportivo Trinidense</t>
-  </si>
-  <si>
     <t>Olimpia</t>
   </si>
   <si>
     <t>Trasandino</t>
   </si>
   <si>
+    <t>Platense</t>
+  </si>
+  <si>
+    <t>Ituano</t>
+  </si>
+  <si>
+    <t>Atlético GO</t>
+  </si>
+  <si>
     <t>Talleres Córdoba</t>
-  </si>
-  <si>
-    <t>Ituano</t>
-  </si>
-  <si>
-    <t>Platense</t>
-  </si>
-  <si>
-    <t>Atlético GO</t>
   </si>
   <si>
     <t>Oakland Roots</t>
@@ -1129,91 +1129,91 @@
         <v>142</v>
       </c>
       <c r="G2">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="H2">
-        <v>4.33</v>
+        <v>5.13</v>
       </c>
       <c r="I2">
-        <v>5.5</v>
+        <v>6.97</v>
       </c>
       <c r="J2">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K2">
-        <v>19.75</v>
+        <v>15.75</v>
       </c>
       <c r="L2">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="M2">
-        <v>4.65</v>
+        <v>4.2</v>
       </c>
       <c r="N2">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="O2">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="P2">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="Q2">
-        <v>3.56</v>
+        <v>3.15</v>
       </c>
       <c r="R2">
-        <v>1.66</v>
+        <v>2.01</v>
       </c>
       <c r="S2">
-        <v>2.14</v>
+        <v>1.75</v>
       </c>
       <c r="T2">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="U2">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="V2">
-        <v>2.51</v>
+        <v>3.13</v>
       </c>
       <c r="W2">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="X2">
+        <v>0.33</v>
+      </c>
+      <c r="Y2">
+        <v>1.28</v>
+      </c>
+      <c r="Z2">
+        <v>1.07</v>
+      </c>
+      <c r="AA2">
+        <v>2.35</v>
+      </c>
+      <c r="AB2">
+        <v>1.5</v>
+      </c>
+      <c r="AC2">
+        <v>8.5</v>
+      </c>
+      <c r="AD2">
+        <v>3.1</v>
+      </c>
+      <c r="AE2">
+        <v>1.29</v>
+      </c>
+      <c r="AF2">
+        <v>1.57</v>
+      </c>
+      <c r="AG2">
         <v>2</v>
       </c>
-      <c r="Y2">
-        <v>1.68</v>
-      </c>
-      <c r="Z2">
-        <v>1.47</v>
-      </c>
-      <c r="AA2">
-        <v>3.15</v>
-      </c>
-      <c r="AB2">
-        <v>1.29</v>
-      </c>
-      <c r="AC2">
-        <v>9.5</v>
-      </c>
-      <c r="AD2">
-        <v>4.32</v>
-      </c>
-      <c r="AE2">
-        <v>1.28</v>
-      </c>
-      <c r="AF2">
-        <v>1.53</v>
-      </c>
-      <c r="AG2">
-        <v>1.96</v>
-      </c>
       <c r="AH2">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="AI2">
-        <v>3.2</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1236,91 +1236,91 @@
         <v>143</v>
       </c>
       <c r="G3">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="H3">
-        <v>5.13</v>
+        <v>3.85</v>
       </c>
       <c r="I3">
-        <v>6.97</v>
+        <v>4.2</v>
       </c>
       <c r="J3">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K3">
-        <v>15.75</v>
+        <v>19.75</v>
       </c>
       <c r="L3">
+        <v>1.14</v>
+      </c>
+      <c r="M3">
+        <v>4.65</v>
+      </c>
+      <c r="N3">
+        <v>1.54</v>
+      </c>
+      <c r="O3">
+        <v>2.22</v>
+      </c>
+      <c r="P3">
+        <v>1.27</v>
+      </c>
+      <c r="Q3">
+        <v>3.56</v>
+      </c>
+      <c r="R3">
+        <v>1.66</v>
+      </c>
+      <c r="S3">
+        <v>2.14</v>
+      </c>
+      <c r="T3">
+        <v>1.14</v>
+      </c>
+      <c r="U3">
         <v>1.2</v>
       </c>
-      <c r="M3">
-        <v>4.2</v>
-      </c>
-      <c r="N3">
-        <v>1.63</v>
-      </c>
-      <c r="O3">
-        <v>2.06</v>
-      </c>
-      <c r="P3">
+      <c r="V3">
+        <v>2.51</v>
+      </c>
+      <c r="W3">
+        <v>1.8</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>1.68</v>
+      </c>
+      <c r="Z3">
+        <v>1.47</v>
+      </c>
+      <c r="AA3">
+        <v>3.15</v>
+      </c>
+      <c r="AB3">
         <v>1.29</v>
       </c>
-      <c r="Q3">
-        <v>3.15</v>
-      </c>
-      <c r="R3">
-        <v>2.01</v>
-      </c>
-      <c r="S3">
-        <v>1.75</v>
-      </c>
-      <c r="T3">
-        <v>1.07</v>
-      </c>
-      <c r="U3">
-        <v>1.17</v>
-      </c>
-      <c r="V3">
-        <v>3.13</v>
-      </c>
-      <c r="W3">
-        <v>0.75</v>
-      </c>
-      <c r="X3">
-        <v>0.33</v>
-      </c>
-      <c r="Y3">
+      <c r="AC3">
+        <v>9.5</v>
+      </c>
+      <c r="AD3">
+        <v>4.32</v>
+      </c>
+      <c r="AE3">
         <v>1.28</v>
       </c>
-      <c r="Z3">
-        <v>1.07</v>
-      </c>
-      <c r="AA3">
-        <v>2.35</v>
-      </c>
-      <c r="AB3">
-        <v>1.5</v>
-      </c>
-      <c r="AC3">
-        <v>8.5</v>
-      </c>
-      <c r="AD3">
-        <v>3.1</v>
-      </c>
-      <c r="AE3">
-        <v>1.29</v>
-      </c>
       <c r="AF3">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AG3">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="AH3">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="AI3">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1346,10 +1346,10 @@
         <v>1.79</v>
       </c>
       <c r="H4">
-        <v>2.83</v>
+        <v>2.98</v>
       </c>
       <c r="I4">
-        <v>4.39</v>
+        <v>4.15</v>
       </c>
       <c r="J4">
         <v>1.09</v>
@@ -1358,16 +1358,16 @@
         <v>7.5</v>
       </c>
       <c r="L4">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="M4">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="N4">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="O4">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="P4">
         <v>1.5</v>
@@ -1450,13 +1450,13 @@
         <v>145</v>
       </c>
       <c r="G5">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="H5">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I5">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="J5">
         <v>1.08</v>
@@ -1471,10 +1471,10 @@
         <v>3</v>
       </c>
       <c r="N5">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="O5">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P5">
         <v>1.44</v>
@@ -1557,91 +1557,91 @@
         <v>146</v>
       </c>
       <c r="G6">
-        <v>4.35</v>
+        <v>1.59</v>
       </c>
       <c r="H6">
-        <v>4.2</v>
+        <v>4.45</v>
       </c>
       <c r="I6">
-        <v>1.65</v>
+        <v>4.7</v>
       </c>
       <c r="J6">
         <v>1.01</v>
       </c>
       <c r="K6">
-        <v>29</v>
+        <v>22.5</v>
       </c>
       <c r="L6">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="M6">
-        <v>6.05</v>
+        <v>5.15</v>
       </c>
       <c r="N6">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="O6">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P6">
+        <v>1.24</v>
+      </c>
+      <c r="Q6">
+        <v>3.82</v>
+      </c>
+      <c r="R6">
+        <v>1.5</v>
+      </c>
+      <c r="S6">
+        <v>2.5</v>
+      </c>
+      <c r="T6">
         <v>1.2</v>
       </c>
-      <c r="Q6">
-        <v>4.3</v>
-      </c>
-      <c r="R6">
-        <v>1.44</v>
-      </c>
-      <c r="S6">
-        <v>2.63</v>
-      </c>
-      <c r="T6">
-        <v>2.25</v>
-      </c>
       <c r="U6">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="V6">
-        <v>1.19</v>
+        <v>2.1</v>
       </c>
       <c r="W6">
-        <v>0.74</v>
+        <v>1.32</v>
       </c>
       <c r="X6">
+        <v>1.1</v>
+      </c>
+      <c r="Y6">
+        <v>1.79</v>
+      </c>
+      <c r="Z6">
+        <v>1.36</v>
+      </c>
+      <c r="AA6">
+        <v>3.15</v>
+      </c>
+      <c r="AB6">
+        <v>1.38</v>
+      </c>
+      <c r="AC6">
+        <v>6.5</v>
+      </c>
+      <c r="AD6">
+        <v>3.65</v>
+      </c>
+      <c r="AE6">
+        <v>1.17</v>
+      </c>
+      <c r="AF6">
         <v>1.35</v>
-      </c>
-      <c r="Y6">
-        <v>1.34</v>
-      </c>
-      <c r="Z6">
-        <v>1.31</v>
-      </c>
-      <c r="AA6">
-        <v>2.65</v>
-      </c>
-      <c r="AB6">
-        <v>3.05</v>
-      </c>
-      <c r="AC6">
-        <v>6.25</v>
-      </c>
-      <c r="AD6">
-        <v>1.46</v>
-      </c>
-      <c r="AE6">
-        <v>1.2</v>
-      </c>
-      <c r="AF6">
-        <v>1.4</v>
       </c>
       <c r="AG6">
         <v>2.2</v>
       </c>
       <c r="AH6">
-        <v>2.15</v>
+        <v>2.06</v>
       </c>
       <c r="AI6">
-        <v>2.79</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1664,91 +1664,91 @@
         <v>147</v>
       </c>
       <c r="G7">
-        <v>2.28</v>
+        <v>4.3</v>
       </c>
       <c r="H7">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="I7">
-        <v>2.85</v>
+        <v>1.66</v>
       </c>
       <c r="J7">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K7">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="L7">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="M7">
-        <v>3.62</v>
+        <v>6.05</v>
       </c>
       <c r="N7">
-        <v>1.85</v>
+        <v>1.41</v>
       </c>
       <c r="O7">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="P7">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="Q7">
-        <v>3.14</v>
+        <v>4.3</v>
       </c>
       <c r="R7">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="T7">
+        <v>2.25</v>
+      </c>
+      <c r="U7">
+        <v>1.2</v>
+      </c>
+      <c r="V7">
+        <v>1.19</v>
+      </c>
+      <c r="W7">
+        <v>0.74</v>
+      </c>
+      <c r="X7">
+        <v>1.35</v>
+      </c>
+      <c r="Y7">
+        <v>1.34</v>
+      </c>
+      <c r="Z7">
+        <v>1.31</v>
+      </c>
+      <c r="AA7">
+        <v>2.65</v>
+      </c>
+      <c r="AB7">
+        <v>3.1</v>
+      </c>
+      <c r="AC7">
+        <v>6.5</v>
+      </c>
+      <c r="AD7">
+        <v>1.47</v>
+      </c>
+      <c r="AE7">
+        <v>1.2</v>
+      </c>
+      <c r="AF7">
         <v>1.4</v>
       </c>
-      <c r="U7">
-        <v>1.27</v>
-      </c>
-      <c r="V7">
-        <v>1.58</v>
-      </c>
-      <c r="W7">
-        <v>1.29</v>
-      </c>
-      <c r="X7">
-        <v>1.19</v>
-      </c>
-      <c r="Y7">
-        <v>1.3</v>
-      </c>
-      <c r="Z7">
-        <v>1.37</v>
-      </c>
-      <c r="AA7">
-        <v>2.67</v>
-      </c>
-      <c r="AB7">
-        <v>1.71</v>
-      </c>
-      <c r="AC7">
-        <v>5.75</v>
-      </c>
-      <c r="AD7">
-        <v>2.45</v>
-      </c>
-      <c r="AE7">
-        <v>1.41</v>
-      </c>
-      <c r="AF7">
-        <v>1.85</v>
-      </c>
       <c r="AG7">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="AH7">
-        <v>2.85</v>
+        <v>2.15</v>
       </c>
       <c r="AI7">
-        <v>4</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1771,91 +1771,91 @@
         <v>148</v>
       </c>
       <c r="G8">
-        <v>1.6</v>
+        <v>2.24</v>
       </c>
       <c r="H8">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="I8">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="J8">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K8">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="L8">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="M8">
-        <v>5.15</v>
+        <v>3.62</v>
       </c>
       <c r="N8">
-        <v>1.57</v>
+        <v>1.81</v>
       </c>
       <c r="O8">
-        <v>2.3</v>
+        <v>2.01</v>
       </c>
       <c r="P8">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="Q8">
-        <v>3.82</v>
+        <v>3.14</v>
       </c>
       <c r="R8">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="S8">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="U8">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="V8">
-        <v>2.1</v>
+        <v>1.58</v>
       </c>
       <c r="W8">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="X8">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="Y8">
-        <v>1.79</v>
+        <v>1.3</v>
       </c>
       <c r="Z8">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AA8">
-        <v>3.15</v>
+        <v>2.67</v>
       </c>
       <c r="AB8">
-        <v>1.37</v>
+        <v>1.71</v>
       </c>
       <c r="AC8">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD8">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="AE8">
-        <v>1.17</v>
+        <v>1.41</v>
       </c>
       <c r="AF8">
-        <v>1.35</v>
+        <v>1.85</v>
       </c>
       <c r="AG8">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="AH8">
-        <v>2.06</v>
+        <v>2.85</v>
       </c>
       <c r="AI8">
-        <v>2.69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1878,14 +1878,14 @@
         <v>149</v>
       </c>
       <c r="G9">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="H9">
+        <v>3.6</v>
+      </c>
+      <c r="I9">
         <v>3.35</v>
       </c>
-      <c r="I9">
-        <v>2.55</v>
-      </c>
       <c r="J9">
         <v>0</v>
       </c>
@@ -1899,10 +1899,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O9">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1926,19 +1926,19 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>1.47</v>
+        <v>1.13</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="Y9">
-        <v>0.96</v>
+        <v>1.23</v>
       </c>
       <c r="Z9">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="AA9">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>150</v>
       </c>
       <c r="G10">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H10">
-        <v>3.35</v>
+        <v>3.28</v>
       </c>
       <c r="I10">
-        <v>2.6</v>
+        <v>2.28</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O10">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>151</v>
       </c>
       <c r="G11">
-        <v>1.8</v>
+        <v>2.73</v>
       </c>
       <c r="H11">
-        <v>3.65</v>
+        <v>3.42</v>
       </c>
       <c r="I11">
-        <v>4.1</v>
+        <v>2.03</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2113,10 +2113,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="O11">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2140,19 +2140,19 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>1.13</v>
+        <v>1.47</v>
       </c>
       <c r="X11">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>1.23</v>
+        <v>0.96</v>
       </c>
       <c r="Z11">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="AA11">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -2199,13 +2199,13 @@
         <v>152</v>
       </c>
       <c r="G12">
-        <v>2.41</v>
+        <v>2.45</v>
       </c>
       <c r="H12">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I12">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="J12">
         <v>1.02</v>
@@ -2220,10 +2220,10 @@
         <v>5</v>
       </c>
       <c r="N12">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="O12">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="P12">
         <v>1.25</v>
@@ -2306,13 +2306,13 @@
         <v>153</v>
       </c>
       <c r="G13">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="H13">
-        <v>3.13</v>
+        <v>3.65</v>
       </c>
       <c r="I13">
-        <v>3.89</v>
+        <v>4.3</v>
       </c>
       <c r="J13">
         <v>1.04</v>
@@ -2327,10 +2327,10 @@
         <v>3.33</v>
       </c>
       <c r="N13">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="O13">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="P13">
         <v>1.4</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2">
         <v>45079</v>
@@ -2404,7 +2404,7 @@
         <v>64</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
         <v>87</v>
@@ -2413,96 +2413,96 @@
         <v>154</v>
       </c>
       <c r="G14">
-        <v>1.82</v>
+        <v>2.32</v>
       </c>
       <c r="H14">
-        <v>2.93</v>
+        <v>3.72</v>
       </c>
       <c r="I14">
-        <v>3.74</v>
+        <v>2.48</v>
       </c>
       <c r="J14">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K14">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="L14">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>2.12</v>
+        <v>1.52</v>
       </c>
       <c r="O14">
-        <v>1.63</v>
+        <v>2.55</v>
       </c>
       <c r="P14">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="Q14">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="R14">
-        <v>1.83</v>
+        <v>1.47</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="T14">
+        <v>1.52</v>
+      </c>
+      <c r="U14">
+        <v>1.22</v>
+      </c>
+      <c r="V14">
+        <v>1.58</v>
+      </c>
+      <c r="W14">
+        <v>1.56</v>
+      </c>
+      <c r="X14">
+        <v>1.11</v>
+      </c>
+      <c r="Y14">
+        <v>1.5</v>
+      </c>
+      <c r="Z14">
+        <v>1.57</v>
+      </c>
+      <c r="AA14">
+        <v>3.07</v>
+      </c>
+      <c r="AB14">
+        <v>1.97</v>
+      </c>
+      <c r="AC14">
+        <v>7.5</v>
+      </c>
+      <c r="AD14">
+        <v>2.1</v>
+      </c>
+      <c r="AE14">
         <v>1.23</v>
       </c>
-      <c r="U14">
-        <v>1.36</v>
-      </c>
-      <c r="V14">
-        <v>1.8</v>
-      </c>
-      <c r="W14">
-        <v>2.54</v>
-      </c>
-      <c r="X14">
-        <v>2.07</v>
-      </c>
-      <c r="Y14">
-        <v>1.75</v>
-      </c>
-      <c r="Z14">
-        <v>1.41</v>
-      </c>
-      <c r="AA14">
-        <v>3.16</v>
-      </c>
-      <c r="AB14">
-        <v>1.61</v>
-      </c>
-      <c r="AC14">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD14">
-        <v>2.76</v>
-      </c>
-      <c r="AE14">
-        <v>1.32</v>
-      </c>
       <c r="AF14">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AG14">
-        <v>2.02</v>
+        <v>1.77</v>
       </c>
       <c r="AH14">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AI14">
-        <v>3.56</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="15" spans="1:35">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2">
         <v>45079</v>
@@ -2511,7 +2511,7 @@
         <v>64</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>88</v>
@@ -2520,91 +2520,91 @@
         <v>155</v>
       </c>
       <c r="G15">
-        <v>2.55</v>
+        <v>1.87</v>
       </c>
       <c r="H15">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="I15">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="J15">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K15">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="L15">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N15">
-        <v>1.52</v>
+        <v>2.15</v>
       </c>
       <c r="O15">
-        <v>2.55</v>
+        <v>1.66</v>
       </c>
       <c r="P15">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="Q15">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="R15">
-        <v>1.47</v>
+        <v>1.83</v>
       </c>
       <c r="S15">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
-        <v>1.52</v>
+        <v>1.23</v>
       </c>
       <c r="U15">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="V15">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="W15">
-        <v>1.56</v>
+        <v>2.54</v>
       </c>
       <c r="X15">
-        <v>1.11</v>
+        <v>2.07</v>
       </c>
       <c r="Y15">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="Z15">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="AA15">
-        <v>3.07</v>
+        <v>3.16</v>
       </c>
       <c r="AB15">
-        <v>1.97</v>
+        <v>1.61</v>
       </c>
       <c r="AC15">
-        <v>7.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD15">
-        <v>2.1</v>
+        <v>2.76</v>
       </c>
       <c r="AE15">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="AF15">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="AG15">
-        <v>1.77</v>
+        <v>2.02</v>
       </c>
       <c r="AH15">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AI15">
-        <v>2.85</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2627,13 +2627,13 @@
         <v>156</v>
       </c>
       <c r="G16">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H16">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I16">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J16">
         <v>1.08</v>
@@ -2648,10 +2648,10 @@
         <v>2.65</v>
       </c>
       <c r="N16">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="O16">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P16">
         <v>1.54</v>
@@ -2725,7 +2725,7 @@
         <v>65</v>
       </c>
       <c r="D17">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
@@ -2734,91 +2734,91 @@
         <v>157</v>
       </c>
       <c r="G17">
-        <v>3.45</v>
+        <v>2.05</v>
       </c>
       <c r="H17">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="J17">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K17">
-        <v>14.75</v>
+        <v>9.9</v>
       </c>
       <c r="L17">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M17">
-        <v>4.32</v>
+        <v>3.6</v>
       </c>
       <c r="N17">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="O17">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="P17">
         <v>1.35</v>
       </c>
       <c r="Q17">
-        <v>3.24</v>
+        <v>2.95</v>
       </c>
       <c r="R17">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="S17">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="T17">
-        <v>1.79</v>
+        <v>1.25</v>
       </c>
       <c r="U17">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="V17">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="W17">
         <v>1</v>
       </c>
       <c r="X17">
-        <v>1.22</v>
+        <v>0.25</v>
       </c>
       <c r="Y17">
-        <v>1.29</v>
+        <v>1.87</v>
       </c>
       <c r="Z17">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AA17">
-        <v>2.5</v>
+        <v>3.03</v>
       </c>
       <c r="AB17">
-        <v>2.38</v>
+        <v>1.33</v>
       </c>
       <c r="AC17">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD17">
-        <v>1.91</v>
+        <v>4.33</v>
       </c>
       <c r="AE17">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="AF17">
-        <v>1.93</v>
+        <v>1.43</v>
       </c>
       <c r="AG17">
-        <v>2.12</v>
+        <v>1.75</v>
       </c>
       <c r="AH17">
-        <v>2.88</v>
+        <v>2.16</v>
       </c>
       <c r="AI17">
-        <v>4.1</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2832,7 +2832,7 @@
         <v>65</v>
       </c>
       <c r="D18">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
         <v>91</v>
@@ -2841,96 +2841,96 @@
         <v>158</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="H18">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I18">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="J18">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K18">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="L18">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="M18">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N18">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="O18">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="P18">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="Q18">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="R18">
-        <v>1.72</v>
+        <v>2.3</v>
       </c>
       <c r="S18">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="T18">
-        <v>1.63</v>
+        <v>1.08</v>
       </c>
       <c r="U18">
         <v>1.25</v>
       </c>
       <c r="V18">
-        <v>1.36</v>
+        <v>2.4</v>
       </c>
       <c r="W18">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="X18">
-        <v>0.78</v>
+        <v>1.25</v>
       </c>
       <c r="Y18">
-        <v>1.61</v>
+        <v>1.92</v>
       </c>
       <c r="Z18">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AA18">
-        <v>2.82</v>
+        <v>3.08</v>
       </c>
       <c r="AB18">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="AC18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD18">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="AE18">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AF18">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AG18">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="AH18">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="AI18">
-        <v>4.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2">
         <v>45079</v>
@@ -2948,96 +2948,96 @@
         <v>159</v>
       </c>
       <c r="G19">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="H19">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="I19">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="J19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K19">
-        <v>12.25</v>
+        <v>22.5</v>
       </c>
       <c r="L19">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="M19">
+        <v>5.55</v>
+      </c>
+      <c r="N19">
+        <v>1.47</v>
+      </c>
+      <c r="O19">
+        <v>2.55</v>
+      </c>
+      <c r="P19">
+        <v>1.25</v>
+      </c>
+      <c r="Q19">
         <v>3.72</v>
       </c>
-      <c r="N19">
-        <v>1.8</v>
-      </c>
-      <c r="O19">
-        <v>1.95</v>
-      </c>
-      <c r="P19">
-        <v>1.38</v>
-      </c>
-      <c r="Q19">
-        <v>2.85</v>
-      </c>
       <c r="R19">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="S19">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="T19">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="U19">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="V19">
-        <v>1.47</v>
+        <v>2.3</v>
       </c>
       <c r="W19">
-        <v>1.17</v>
+        <v>1.72</v>
       </c>
       <c r="X19">
-        <v>1.11</v>
+        <v>0.89</v>
       </c>
       <c r="Y19">
-        <v>1.51</v>
+        <v>1.85</v>
       </c>
       <c r="Z19">
+        <v>1.23</v>
+      </c>
+      <c r="AA19">
+        <v>3.08</v>
+      </c>
+      <c r="AB19">
+        <v>1.3</v>
+      </c>
+      <c r="AC19">
+        <v>8</v>
+      </c>
+      <c r="AD19">
+        <v>4.75</v>
+      </c>
+      <c r="AE19">
         <v>1.36</v>
       </c>
-      <c r="AA19">
-        <v>2.87</v>
-      </c>
-      <c r="AB19">
-        <v>2.2</v>
-      </c>
-      <c r="AC19">
-        <v>7</v>
-      </c>
-      <c r="AD19">
-        <v>2</v>
-      </c>
-      <c r="AE19">
-        <v>1.41</v>
-      </c>
       <c r="AF19">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="AG19">
-        <v>2.28</v>
+        <v>2.15</v>
       </c>
       <c r="AH19">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="AI19">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="2">
         <v>45079</v>
@@ -3055,96 +3055,96 @@
         <v>160</v>
       </c>
       <c r="G20">
-        <v>1.38</v>
+        <v>1.96</v>
       </c>
       <c r="H20">
-        <v>4.85</v>
+        <v>3.35</v>
       </c>
       <c r="I20">
+        <v>3.3</v>
+      </c>
+      <c r="J20">
+        <v>1.05</v>
+      </c>
+      <c r="K20">
+        <v>12</v>
+      </c>
+      <c r="L20">
+        <v>1.28</v>
+      </c>
+      <c r="M20">
+        <v>3.5</v>
+      </c>
+      <c r="N20">
+        <v>1.83</v>
+      </c>
+      <c r="O20">
+        <v>1.87</v>
+      </c>
+      <c r="P20">
+        <v>1.37</v>
+      </c>
+      <c r="Q20">
+        <v>2.85</v>
+      </c>
+      <c r="R20">
+        <v>1.72</v>
+      </c>
+      <c r="S20">
+        <v>2.05</v>
+      </c>
+      <c r="T20">
+        <v>1.22</v>
+      </c>
+      <c r="U20">
+        <v>1.25</v>
+      </c>
+      <c r="V20">
+        <v>1.78</v>
+      </c>
+      <c r="W20">
+        <v>1.33</v>
+      </c>
+      <c r="X20">
+        <v>0.78</v>
+      </c>
+      <c r="Y20">
+        <v>1.51</v>
+      </c>
+      <c r="Z20">
+        <v>1.16</v>
+      </c>
+      <c r="AA20">
+        <v>2.67</v>
+      </c>
+      <c r="AB20">
+        <v>1.67</v>
+      </c>
+      <c r="AC20">
         <v>7</v>
       </c>
-      <c r="J20">
-        <v>1.03</v>
-      </c>
-      <c r="K20">
-        <v>16</v>
-      </c>
-      <c r="L20">
-        <v>1.22</v>
-      </c>
-      <c r="M20">
-        <v>4.3</v>
-      </c>
-      <c r="N20">
-        <v>1.65</v>
-      </c>
-      <c r="O20">
-        <v>2.18</v>
-      </c>
-      <c r="P20">
-        <v>1.33</v>
-      </c>
-      <c r="Q20">
-        <v>3.36</v>
-      </c>
-      <c r="R20">
-        <v>1.88</v>
-      </c>
-      <c r="S20">
-        <v>1.88</v>
-      </c>
-      <c r="T20">
-        <v>1.09</v>
-      </c>
-      <c r="U20">
-        <v>1.18</v>
-      </c>
-      <c r="V20">
-        <v>2.84</v>
-      </c>
-      <c r="W20">
-        <v>1.89</v>
-      </c>
-      <c r="X20">
-        <v>1.28</v>
-      </c>
-      <c r="Y20">
-        <v>1.63</v>
-      </c>
-      <c r="Z20">
-        <v>1.41</v>
-      </c>
-      <c r="AA20">
-        <v>3.04</v>
-      </c>
-      <c r="AB20">
-        <v>1.38</v>
-      </c>
-      <c r="AC20">
-        <v>8</v>
-      </c>
       <c r="AD20">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="AE20">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="AF20">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AG20">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AH20">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AI20">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2">
         <v>45079</v>
@@ -3162,76 +3162,76 @@
         <v>161</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>2.62</v>
       </c>
       <c r="H21">
-        <v>3.6</v>
+        <v>3.43</v>
       </c>
       <c r="I21">
-        <v>3.4</v>
+        <v>2.28</v>
       </c>
       <c r="J21">
         <v>1.05</v>
       </c>
       <c r="K21">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="L21">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M21">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="N21">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="O21">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="P21">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="Q21">
-        <v>2.85</v>
+        <v>3.07</v>
       </c>
       <c r="R21">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="S21">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="T21">
-        <v>1.22</v>
+        <v>1.57</v>
       </c>
       <c r="U21">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="V21">
+        <v>1.43</v>
+      </c>
+      <c r="W21">
         <v>1.78</v>
       </c>
-      <c r="W21">
-        <v>1.33</v>
-      </c>
       <c r="X21">
-        <v>0.78</v>
+        <v>1.5</v>
       </c>
       <c r="Y21">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="Z21">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="AA21">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AB21">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="AC21">
         <v>7</v>
       </c>
       <c r="AD21">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="AE21">
         <v>1.45</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2">
         <v>45079</v>
@@ -3269,96 +3269,96 @@
         <v>162</v>
       </c>
       <c r="G22">
-        <v>2.75</v>
+        <v>2.83</v>
       </c>
       <c r="H22">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="I22">
-        <v>2.45</v>
+        <v>2.18</v>
       </c>
       <c r="J22">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K22">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="L22">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="M22">
-        <v>4.17</v>
+        <v>3.5</v>
       </c>
       <c r="N22">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="O22">
-        <v>2.1</v>
+        <v>1.81</v>
       </c>
       <c r="P22">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="Q22">
-        <v>3.33</v>
+        <v>2.8</v>
       </c>
       <c r="R22">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="S22">
-        <v>2.29</v>
+        <v>2.05</v>
       </c>
       <c r="T22">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="U22">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V22">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="W22">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X22">
-        <v>1.17</v>
+        <v>0.78</v>
       </c>
       <c r="Y22">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="Z22">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="AA22">
-        <v>2.97</v>
+        <v>2.82</v>
       </c>
       <c r="AB22">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="AC22">
         <v>7</v>
       </c>
       <c r="AD22">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="AE22">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AF22">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AG22">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AH22">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AI22">
-        <v>5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2">
         <v>45079</v>
@@ -3376,91 +3376,91 @@
         <v>163</v>
       </c>
       <c r="G23">
-        <v>2.1</v>
+        <v>3.05</v>
       </c>
       <c r="H23">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I23">
-        <v>3.5</v>
+        <v>1.99</v>
       </c>
       <c r="J23">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="K23">
-        <v>8.550000000000001</v>
+        <v>14.75</v>
       </c>
       <c r="L23">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="M23">
-        <v>2.75</v>
+        <v>4.32</v>
       </c>
       <c r="N23">
-        <v>2.32</v>
+        <v>1.75</v>
       </c>
       <c r="O23">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="P23">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="Q23">
-        <v>2.45</v>
+        <v>3.24</v>
       </c>
       <c r="R23">
-        <v>1.95</v>
+        <v>1.63</v>
       </c>
       <c r="S23">
-        <v>1.78</v>
+        <v>2.22</v>
       </c>
       <c r="T23">
-        <v>1.25</v>
+        <v>1.79</v>
       </c>
       <c r="U23">
         <v>1.28</v>
       </c>
       <c r="V23">
-        <v>1.68</v>
+        <v>1.31</v>
       </c>
       <c r="W23">
-        <v>2.06</v>
+        <v>1</v>
       </c>
       <c r="X23">
-        <v>0.78</v>
+        <v>1.22</v>
       </c>
       <c r="Y23">
-        <v>1.58</v>
+        <v>1.29</v>
       </c>
       <c r="Z23">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AA23">
-        <v>2.87</v>
+        <v>2.5</v>
       </c>
       <c r="AB23">
-        <v>1.6</v>
+        <v>2.38</v>
       </c>
       <c r="AC23">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD23">
-        <v>3</v>
+        <v>1.91</v>
       </c>
       <c r="AE23">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="AF23">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AG23">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="AH23">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="AI23">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3474,7 +3474,7 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
         <v>97</v>
@@ -3483,91 +3483,91 @@
         <v>164</v>
       </c>
       <c r="G24">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H24">
-        <v>3.55</v>
+        <v>3.12</v>
       </c>
       <c r="I24">
-        <v>6</v>
+        <v>3.17</v>
       </c>
       <c r="J24">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K24">
-        <v>7</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="L24">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M24">
         <v>2.75</v>
       </c>
       <c r="N24">
+        <v>2.3</v>
+      </c>
+      <c r="O24">
+        <v>1.57</v>
+      </c>
+      <c r="P24">
+        <v>1.49</v>
+      </c>
+      <c r="Q24">
+        <v>2.45</v>
+      </c>
+      <c r="R24">
+        <v>1.95</v>
+      </c>
+      <c r="S24">
+        <v>1.78</v>
+      </c>
+      <c r="T24">
+        <v>1.25</v>
+      </c>
+      <c r="U24">
+        <v>1.28</v>
+      </c>
+      <c r="V24">
+        <v>1.68</v>
+      </c>
+      <c r="W24">
+        <v>2.06</v>
+      </c>
+      <c r="X24">
+        <v>0.78</v>
+      </c>
+      <c r="Y24">
+        <v>1.58</v>
+      </c>
+      <c r="Z24">
+        <v>1.29</v>
+      </c>
+      <c r="AA24">
+        <v>2.87</v>
+      </c>
+      <c r="AB24">
+        <v>1.6</v>
+      </c>
+      <c r="AC24">
+        <v>7</v>
+      </c>
+      <c r="AD24">
+        <v>3</v>
+      </c>
+      <c r="AE24">
+        <v>1.45</v>
+      </c>
+      <c r="AF24">
+        <v>1.85</v>
+      </c>
+      <c r="AG24">
         <v>2.4</v>
       </c>
-      <c r="O24">
-        <v>1.5</v>
-      </c>
-      <c r="P24">
-        <v>1.5</v>
-      </c>
-      <c r="Q24">
-        <v>2.5</v>
-      </c>
-      <c r="R24">
-        <v>2.3</v>
-      </c>
-      <c r="S24">
-        <v>1.57</v>
-      </c>
-      <c r="T24">
-        <v>1.08</v>
-      </c>
-      <c r="U24">
-        <v>1.25</v>
-      </c>
-      <c r="V24">
-        <v>2.4</v>
-      </c>
-      <c r="W24">
-        <v>1.56</v>
-      </c>
-      <c r="X24">
-        <v>1.25</v>
-      </c>
-      <c r="Y24">
-        <v>1.92</v>
-      </c>
-      <c r="Z24">
-        <v>1.16</v>
-      </c>
-      <c r="AA24">
-        <v>3.08</v>
-      </c>
-      <c r="AB24">
-        <v>1.25</v>
-      </c>
-      <c r="AC24">
-        <v>9</v>
-      </c>
-      <c r="AD24">
-        <v>5.25</v>
-      </c>
-      <c r="AE24">
-        <v>1.43</v>
-      </c>
-      <c r="AF24">
-        <v>1.73</v>
-      </c>
-      <c r="AG24">
-        <v>2.15</v>
-      </c>
       <c r="AH24">
-        <v>2.7</v>
+        <v>3.35</v>
       </c>
       <c r="AI24">
-        <v>4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3581,7 +3581,7 @@
         <v>65</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
         <v>98</v>
@@ -3590,96 +3590,96 @@
         <v>165</v>
       </c>
       <c r="G25">
-        <v>2.1</v>
+        <v>2.57</v>
       </c>
       <c r="H25">
-        <v>3.2</v>
+        <v>3.58</v>
       </c>
       <c r="I25">
-        <v>3.45</v>
+        <v>2.25</v>
       </c>
       <c r="J25">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K25">
-        <v>7.5</v>
+        <v>14.5</v>
       </c>
       <c r="L25">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>4.17</v>
       </c>
       <c r="N25">
-        <v>2.06</v>
+        <v>1.75</v>
       </c>
       <c r="O25">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="P25">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="Q25">
-        <v>2.75</v>
+        <v>3.33</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.59</v>
       </c>
       <c r="S25">
-        <v>1.85</v>
+        <v>2.29</v>
       </c>
       <c r="T25">
+        <v>1.57</v>
+      </c>
+      <c r="U25">
         <v>1.29</v>
       </c>
-      <c r="U25">
-        <v>1.3</v>
-      </c>
       <c r="V25">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="W25">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="X25">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="Y25">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="Z25">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="AA25">
-        <v>3.15</v>
+        <v>2.97</v>
       </c>
       <c r="AB25">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="AC25">
         <v>7</v>
       </c>
       <c r="AD25">
-        <v>3</v>
+        <v>1.91</v>
       </c>
       <c r="AE25">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="AF25">
-        <v>1.44</v>
+        <v>1.88</v>
       </c>
       <c r="AG25">
-        <v>1.76</v>
+        <v>2.45</v>
       </c>
       <c r="AH25">
-        <v>2.16</v>
+        <v>3.4</v>
       </c>
       <c r="AI25">
-        <v>2.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2">
         <v>45079</v>
@@ -3697,91 +3697,91 @@
         <v>166</v>
       </c>
       <c r="G26">
-        <v>1.52</v>
+        <v>2.35</v>
       </c>
       <c r="H26">
-        <v>4.1</v>
+        <v>3.43</v>
       </c>
       <c r="I26">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="J26">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>12.25</v>
       </c>
       <c r="L26">
+        <v>1.28</v>
+      </c>
+      <c r="M26">
+        <v>3.72</v>
+      </c>
+      <c r="N26">
+        <v>1.78</v>
+      </c>
+      <c r="O26">
+        <v>1.92</v>
+      </c>
+      <c r="P26">
+        <v>1.38</v>
+      </c>
+      <c r="Q26">
+        <v>2.85</v>
+      </c>
+      <c r="R26">
+        <v>1.68</v>
+      </c>
+      <c r="S26">
+        <v>2.1</v>
+      </c>
+      <c r="T26">
+        <v>1.4</v>
+      </c>
+      <c r="U26">
         <v>1.25</v>
       </c>
-      <c r="M26">
-        <v>3.6</v>
-      </c>
-      <c r="N26">
-        <v>1.72</v>
-      </c>
-      <c r="O26">
-        <v>2.06</v>
-      </c>
-      <c r="P26">
-        <v>1.35</v>
-      </c>
-      <c r="Q26">
-        <v>3.24</v>
-      </c>
-      <c r="R26">
-        <v>1.89</v>
-      </c>
-      <c r="S26">
-        <v>1.87</v>
-      </c>
-      <c r="T26">
+      <c r="V26">
+        <v>1.47</v>
+      </c>
+      <c r="W26">
+        <v>1.17</v>
+      </c>
+      <c r="X26">
         <v>1.11</v>
       </c>
-      <c r="U26">
-        <v>1.21</v>
-      </c>
-      <c r="V26">
-        <v>2.63</v>
-      </c>
-      <c r="W26">
-        <v>2.22</v>
-      </c>
-      <c r="X26">
-        <v>1.33</v>
-      </c>
       <c r="Y26">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="Z26">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="AA26">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="AB26">
-        <v>1.35</v>
+        <v>2.2</v>
       </c>
       <c r="AC26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD26">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="AE26">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="AF26">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AG26">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="AH26">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="AI26">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3795,7 +3795,7 @@
         <v>65</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
         <v>100</v>
@@ -3804,19 +3804,19 @@
         <v>167</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="H27">
-        <v>3.65</v>
+        <v>4.15</v>
       </c>
       <c r="I27">
-        <v>3.35</v>
+        <v>5.35</v>
       </c>
       <c r="J27">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K27">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="L27">
         <v>1.25</v>
@@ -3825,75 +3825,75 @@
         <v>3.6</v>
       </c>
       <c r="N27">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="O27">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="P27">
         <v>1.35</v>
       </c>
       <c r="Q27">
-        <v>2.95</v>
+        <v>3.24</v>
       </c>
       <c r="R27">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="S27">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="T27">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="U27">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="V27">
-        <v>1.78</v>
+        <v>2.63</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="X27">
-        <v>0.25</v>
+        <v>1.33</v>
       </c>
       <c r="Y27">
-        <v>1.87</v>
+        <v>1.64</v>
       </c>
       <c r="Z27">
         <v>1.16</v>
       </c>
       <c r="AA27">
-        <v>3.03</v>
+        <v>2.8</v>
       </c>
       <c r="AB27">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AC27">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD27">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="AE27">
-        <v>1.19</v>
+        <v>1.45</v>
       </c>
       <c r="AF27">
-        <v>1.43</v>
+        <v>1.85</v>
       </c>
       <c r="AG27">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="AH27">
-        <v>2.16</v>
+        <v>3.35</v>
       </c>
       <c r="AI27">
-        <v>2.47</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2">
         <v>45079</v>
@@ -3911,96 +3911,96 @@
         <v>168</v>
       </c>
       <c r="G28">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="H28">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="I28">
-        <v>1.32</v>
+        <v>3.3</v>
       </c>
       <c r="J28">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="K28">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="L28">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="M28">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N28">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="O28">
-        <v>2.18</v>
+        <v>1.7</v>
       </c>
       <c r="P28">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="Q28">
-        <v>3.45</v>
+        <v>2.75</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T28">
-        <v>3.25</v>
+        <v>1.29</v>
       </c>
       <c r="U28">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="V28">
-        <v>1.03</v>
+        <v>1.7</v>
       </c>
       <c r="W28">
-        <v>0.63</v>
+        <v>1.63</v>
       </c>
       <c r="X28">
+        <v>1.25</v>
+      </c>
+      <c r="Y28">
+        <v>1.6</v>
+      </c>
+      <c r="Z28">
+        <v>1.55</v>
+      </c>
+      <c r="AA28">
+        <v>3.15</v>
+      </c>
+      <c r="AB28">
+        <v>1.6</v>
+      </c>
+      <c r="AC28">
+        <v>7</v>
+      </c>
+      <c r="AD28">
+        <v>3</v>
+      </c>
+      <c r="AE28">
+        <v>1.2</v>
+      </c>
+      <c r="AF28">
         <v>1.44</v>
       </c>
-      <c r="Y28">
-        <v>1.03</v>
-      </c>
-      <c r="Z28">
-        <v>1.44</v>
-      </c>
-      <c r="AA28">
-        <v>2.47</v>
-      </c>
-      <c r="AB28">
-        <v>4.75</v>
-      </c>
-      <c r="AC28">
-        <v>8</v>
-      </c>
-      <c r="AD28">
-        <v>1.3</v>
-      </c>
-      <c r="AE28">
-        <v>1.23</v>
-      </c>
-      <c r="AF28">
-        <v>1.51</v>
-      </c>
       <c r="AG28">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="AH28">
-        <v>2.25</v>
+        <v>2.16</v>
       </c>
       <c r="AI28">
-        <v>3.04</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2">
         <v>45079</v>
@@ -4018,13 +4018,13 @@
         <v>169</v>
       </c>
       <c r="G29">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H29">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I29">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="J29">
         <v>1.04</v>
@@ -4039,10 +4039,10 @@
         <v>4</v>
       </c>
       <c r="N29">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="O29">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="P29">
         <v>1.33</v>
@@ -4116,7 +4116,7 @@
         <v>65</v>
       </c>
       <c r="D30">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
         <v>103</v>
@@ -4125,96 +4125,96 @@
         <v>170</v>
       </c>
       <c r="G30">
-        <v>2.8</v>
+        <v>8.5</v>
       </c>
       <c r="H30">
-        <v>3.35</v>
+        <v>5.5</v>
       </c>
       <c r="I30">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="J30">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K30">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="L30">
+        <v>1.18</v>
+      </c>
+      <c r="M30">
+        <v>4.5</v>
+      </c>
+      <c r="N30">
+        <v>1.6</v>
+      </c>
+      <c r="O30">
+        <v>2.25</v>
+      </c>
+      <c r="P30">
         <v>1.27</v>
       </c>
-      <c r="M30">
-        <v>3.85</v>
-      </c>
-      <c r="N30">
-        <v>1.81</v>
-      </c>
-      <c r="O30">
-        <v>1.95</v>
-      </c>
-      <c r="P30">
-        <v>1.39</v>
-      </c>
       <c r="Q30">
-        <v>3.07</v>
+        <v>3.45</v>
       </c>
       <c r="R30">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="S30">
-        <v>2.16</v>
+        <v>1.83</v>
       </c>
       <c r="T30">
-        <v>1.57</v>
+        <v>3.25</v>
       </c>
       <c r="U30">
+        <v>1.11</v>
+      </c>
+      <c r="V30">
+        <v>1.03</v>
+      </c>
+      <c r="W30">
+        <v>0.63</v>
+      </c>
+      <c r="X30">
+        <v>1.44</v>
+      </c>
+      <c r="Y30">
+        <v>1.03</v>
+      </c>
+      <c r="Z30">
+        <v>1.44</v>
+      </c>
+      <c r="AA30">
+        <v>2.47</v>
+      </c>
+      <c r="AB30">
+        <v>4.75</v>
+      </c>
+      <c r="AC30">
+        <v>8</v>
+      </c>
+      <c r="AD30">
         <v>1.3</v>
       </c>
-      <c r="V30">
-        <v>1.43</v>
-      </c>
-      <c r="W30">
-        <v>1.78</v>
-      </c>
-      <c r="X30">
-        <v>1.5</v>
-      </c>
-      <c r="Y30">
-        <v>1.42</v>
-      </c>
-      <c r="Z30">
-        <v>1.26</v>
-      </c>
-      <c r="AA30">
-        <v>2.68</v>
-      </c>
-      <c r="AB30">
-        <v>1.95</v>
-      </c>
-      <c r="AC30">
-        <v>7</v>
-      </c>
-      <c r="AD30">
+      <c r="AE30">
+        <v>1.23</v>
+      </c>
+      <c r="AF30">
+        <v>1.51</v>
+      </c>
+      <c r="AG30">
+        <v>1.83</v>
+      </c>
+      <c r="AH30">
         <v>2.25</v>
       </c>
-      <c r="AE30">
-        <v>1.45</v>
-      </c>
-      <c r="AF30">
-        <v>1.85</v>
-      </c>
-      <c r="AG30">
-        <v>2.4</v>
-      </c>
-      <c r="AH30">
-        <v>3.35</v>
-      </c>
       <c r="AI30">
-        <v>4.8</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2">
         <v>45079</v>
@@ -4232,91 +4232,91 @@
         <v>171</v>
       </c>
       <c r="G31">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H31">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="I31">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="J31">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K31">
-        <v>22.5</v>
+        <v>16</v>
       </c>
       <c r="L31">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="M31">
-        <v>5.55</v>
+        <v>4.3</v>
       </c>
       <c r="N31">
-        <v>1.47</v>
+        <v>1.75</v>
       </c>
       <c r="O31">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="P31">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="Q31">
-        <v>3.72</v>
+        <v>3.36</v>
       </c>
       <c r="R31">
-        <v>1.56</v>
+        <v>1.88</v>
       </c>
       <c r="S31">
-        <v>2.36</v>
+        <v>1.88</v>
       </c>
       <c r="T31">
+        <v>1.09</v>
+      </c>
+      <c r="U31">
         <v>1.18</v>
       </c>
-      <c r="U31">
-        <v>1.21</v>
-      </c>
       <c r="V31">
-        <v>2.3</v>
+        <v>2.84</v>
       </c>
       <c r="W31">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="X31">
-        <v>0.89</v>
+        <v>1.28</v>
       </c>
       <c r="Y31">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="Z31">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
       <c r="AA31">
-        <v>3.08</v>
+        <v>3.04</v>
       </c>
       <c r="AB31">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AC31">
         <v>8</v>
       </c>
       <c r="AD31">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AE31">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AF31">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AG31">
-        <v>2.15</v>
+        <v>2.33</v>
       </c>
       <c r="AH31">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="AI31">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -4330,7 +4330,7 @@
         <v>66</v>
       </c>
       <c r="D32">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
         <v>105</v>
@@ -4339,91 +4339,91 @@
         <v>172</v>
       </c>
       <c r="G32">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H32">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I32">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="J32">
         <v>1.02</v>
       </c>
       <c r="K32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L32">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M32">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N32">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="O32">
-        <v>2.38</v>
+        <v>2.65</v>
       </c>
       <c r="P32">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q32">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R32">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="S32">
-        <v>2.29</v>
+        <v>2.63</v>
       </c>
       <c r="T32">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="U32">
         <v>1.24</v>
       </c>
       <c r="V32">
-        <v>2.14</v>
+        <v>1.75</v>
       </c>
       <c r="W32">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="X32">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="Y32">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="Z32">
-        <v>1.64</v>
+        <v>2.08</v>
       </c>
       <c r="AA32">
-        <v>3.31</v>
+        <v>3.98</v>
       </c>
       <c r="AB32">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="AC32">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD32">
-        <v>2.77</v>
+        <v>2.43</v>
       </c>
       <c r="AE32">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AF32">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AG32">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AH32">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AI32">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -4446,13 +4446,13 @@
         <v>173</v>
       </c>
       <c r="G33">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="H33">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I33">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="J33">
         <v>1.02</v>
@@ -4544,7 +4544,7 @@
         <v>66</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
         <v>107</v>
@@ -4553,91 +4553,91 @@
         <v>174</v>
       </c>
       <c r="G34">
-        <v>2.25</v>
+        <v>1.68</v>
       </c>
       <c r="H34">
-        <v>3.7</v>
+        <v>4.05</v>
       </c>
       <c r="I34">
-        <v>2.8</v>
+        <v>4.25</v>
       </c>
       <c r="J34">
         <v>1.02</v>
       </c>
       <c r="K34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L34">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M34">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N34">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O34">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="P34">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q34">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R34">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="S34">
-        <v>2.63</v>
+        <v>2.29</v>
       </c>
       <c r="T34">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="U34">
         <v>1.24</v>
       </c>
       <c r="V34">
-        <v>1.75</v>
+        <v>2.14</v>
       </c>
       <c r="W34">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="X34">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="Y34">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="Z34">
-        <v>2.08</v>
+        <v>1.64</v>
       </c>
       <c r="AA34">
-        <v>3.98</v>
+        <v>3.31</v>
       </c>
       <c r="AB34">
-        <v>1.75</v>
+        <v>1.59</v>
       </c>
       <c r="AC34">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD34">
-        <v>2.43</v>
+        <v>2.77</v>
       </c>
       <c r="AE34">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AF34">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AG34">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AH34">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AI34">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -4708,19 +4708,19 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>1.13</v>
+        <v>2.29</v>
       </c>
       <c r="X35">
         <v>1</v>
       </c>
       <c r="Y35">
-        <v>1.33</v>
+        <v>1.81</v>
       </c>
       <c r="Z35">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="AA35">
-        <v>2.57</v>
+        <v>3.18</v>
       </c>
       <c r="AB35">
         <v>0</v>
@@ -4856,7 +4856,7 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2">
         <v>45079</v>
@@ -4865,7 +4865,7 @@
         <v>67</v>
       </c>
       <c r="D37">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
         <v>110</v>
@@ -4874,96 +4874,96 @@
         <v>177</v>
       </c>
       <c r="G37">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>3.09</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>2.53</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>2.14</v>
+        <v>1.18</v>
       </c>
       <c r="X37">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Y37">
-        <v>1.69</v>
+        <v>1.48</v>
       </c>
       <c r="Z37">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="AA37">
-        <v>2.81</v>
+        <v>2.71</v>
       </c>
       <c r="AB37">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AC37">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD37">
-        <v>2.77</v>
+        <v>0</v>
       </c>
       <c r="AE37">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AG37">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AH37">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="AI37">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:35">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2">
         <v>45079</v>
@@ -4972,7 +4972,7 @@
         <v>67</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
         <v>111</v>
@@ -4981,91 +4981,91 @@
         <v>178</v>
       </c>
       <c r="G38">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="U38">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>2.5</v>
+        <v>0.86</v>
       </c>
       <c r="X38">
-        <v>1.2</v>
+        <v>1.81</v>
       </c>
       <c r="Y38">
-        <v>1.72</v>
+        <v>1.3</v>
       </c>
       <c r="Z38">
-        <v>0.92</v>
+        <v>1.16</v>
       </c>
       <c r="AA38">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="AB38">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD38">
-        <v>5.15</v>
+        <v>0</v>
       </c>
       <c r="AE38">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AG38">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AH38">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="AI38">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -5136,19 +5136,19 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X39">
         <v>1.52</v>
       </c>
       <c r="Y39">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="Z39">
         <v>0.99</v>
       </c>
       <c r="AA39">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="40" spans="1:35">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" s="2">
         <v>45079</v>
@@ -5186,7 +5186,7 @@
         <v>67</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E40" t="s">
         <v>113</v>
@@ -5243,19 +5243,19 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="X40">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="Y40">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="Z40">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AA40">
-        <v>2.46</v>
+        <v>3.17</v>
       </c>
       <c r="AB40">
         <v>0</v>
@@ -5284,7 +5284,7 @@
     </row>
     <row r="41" spans="1:35">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2">
         <v>45079</v>
@@ -5293,7 +5293,7 @@
         <v>67</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E41" t="s">
         <v>114</v>
@@ -5350,19 +5350,19 @@
         <v>0</v>
       </c>
       <c r="W41">
-        <v>1.18</v>
+        <v>1.43</v>
       </c>
       <c r="X41">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="Y41">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="Z41">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA41">
-        <v>2.81</v>
+        <v>2.88</v>
       </c>
       <c r="AB41">
         <v>0</v>
@@ -5391,7 +5391,7 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42" s="2">
         <v>45079</v>
@@ -5400,7 +5400,7 @@
         <v>67</v>
       </c>
       <c r="D42">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
         <v>115</v>
@@ -5409,91 +5409,91 @@
         <v>182</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="W42">
-        <v>2.29</v>
+        <v>2.5</v>
       </c>
       <c r="X42">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Y42">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="Z42">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AA42">
-        <v>3.18</v>
+        <v>2.64</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="AE42">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF42">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AG42">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AI42">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="43" spans="1:35">
@@ -5564,19 +5564,19 @@
         <v>0</v>
       </c>
       <c r="W43">
-        <v>1.43</v>
+        <v>1.71</v>
       </c>
       <c r="X43">
-        <v>1.86</v>
+        <v>0.71</v>
       </c>
       <c r="Y43">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Z43">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
       <c r="AA43">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="AB43">
         <v>0</v>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="44" spans="1:35">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2">
         <v>45079</v>
@@ -5614,7 +5614,7 @@
         <v>67</v>
       </c>
       <c r="D44">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E44" t="s">
         <v>117</v>
@@ -5623,91 +5623,91 @@
         <v>184</v>
       </c>
       <c r="G44">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>3.59</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>2.14</v>
+      </c>
+      <c r="X44">
+        <v>1.43</v>
+      </c>
+      <c r="Y44">
+        <v>1.69</v>
+      </c>
+      <c r="Z44">
         <v>1.62</v>
       </c>
-      <c r="P44">
-        <v>1.48</v>
-      </c>
-      <c r="Q44">
-        <v>2.55</v>
-      </c>
-      <c r="R44">
-        <v>2.27</v>
-      </c>
-      <c r="S44">
-        <v>1.59</v>
-      </c>
-      <c r="T44">
-        <v>1.12</v>
-      </c>
-      <c r="U44">
-        <v>1.27</v>
-      </c>
-      <c r="V44">
-        <v>2.34</v>
-      </c>
-      <c r="W44">
-        <v>1.89</v>
-      </c>
-      <c r="X44">
-        <v>0.88</v>
-      </c>
-      <c r="Y44">
-        <v>1.5</v>
-      </c>
-      <c r="Z44">
-        <v>1.11</v>
-      </c>
       <c r="AA44">
-        <v>2.61</v>
+        <v>3.31</v>
       </c>
       <c r="AB44">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AC44">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AD44">
-        <v>4.12</v>
+        <v>0</v>
       </c>
       <c r="AE44">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AF44">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AG44">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AH44">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AI44">
-        <v>3.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:35">
@@ -5727,7 +5727,7 @@
         <v>118</v>
       </c>
       <c r="F45" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -5778,19 +5778,19 @@
         <v>0</v>
       </c>
       <c r="W45">
+        <v>1.29</v>
+      </c>
+      <c r="X45">
         <v>1</v>
       </c>
-      <c r="X45">
-        <v>1.71</v>
-      </c>
       <c r="Y45">
-        <v>2.05</v>
+        <v>1.52</v>
       </c>
       <c r="Z45">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="AA45">
-        <v>3.17</v>
+        <v>2.76</v>
       </c>
       <c r="AB45">
         <v>0</v>
@@ -5834,7 +5834,7 @@
         <v>119</v>
       </c>
       <c r="F46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -5885,19 +5885,19 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>1.29</v>
+        <v>1.71</v>
       </c>
       <c r="X46">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="Y46">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="Z46">
-        <v>1.24</v>
+        <v>1.03</v>
       </c>
       <c r="AA46">
-        <v>2.76</v>
+        <v>2.59</v>
       </c>
       <c r="AB46">
         <v>0</v>
@@ -5941,7 +5941,7 @@
         <v>120</v>
       </c>
       <c r="F47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -5992,19 +5992,19 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <v>1.71</v>
+        <v>1.13</v>
       </c>
       <c r="X47">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="Y47">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="Z47">
-        <v>1.03</v>
+        <v>1.24</v>
       </c>
       <c r="AA47">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="AB47">
         <v>0</v>
@@ -6033,7 +6033,7 @@
     </row>
     <row r="48" spans="1:35">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2">
         <v>45079</v>
@@ -6042,105 +6042,105 @@
         <v>67</v>
       </c>
       <c r="D48">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
         <v>121</v>
       </c>
       <c r="F48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="W48">
-        <v>1.71</v>
+        <v>0.75</v>
       </c>
       <c r="X48">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="Y48">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="Z48">
-        <v>1.08</v>
+        <v>1.68</v>
       </c>
       <c r="AA48">
-        <v>2.7</v>
+        <v>3.21</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AC48">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AE48">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG48">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AI48">
-        <v>0</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="49" spans="1:35">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2">
         <v>45079</v>
@@ -6149,100 +6149,100 @@
         <v>67</v>
       </c>
       <c r="D49">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="F49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W49">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="X49">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Y49">
+        <v>1.57</v>
+      </c>
+      <c r="Z49">
         <v>1.69</v>
       </c>
-      <c r="Z49">
-        <v>1.62</v>
-      </c>
       <c r="AA49">
-        <v>3.31</v>
+        <v>3.26</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AC49">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD49">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AE49">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF49">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AG49">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AH49">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AI49">
-        <v>0</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="50" spans="1:35">
@@ -6256,105 +6256,105 @@
         <v>67</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G50">
-        <v>1.77</v>
+        <v>1.52</v>
       </c>
       <c r="H50">
-        <v>3.25</v>
+        <v>3.59</v>
       </c>
       <c r="I50">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="J50">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K50">
         <v>7</v>
       </c>
       <c r="L50">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="M50">
+        <v>2.8</v>
+      </c>
+      <c r="N50">
+        <v>2.15</v>
+      </c>
+      <c r="O50">
+        <v>1.62</v>
+      </c>
+      <c r="P50">
+        <v>1.48</v>
+      </c>
+      <c r="Q50">
+        <v>2.55</v>
+      </c>
+      <c r="R50">
+        <v>2.27</v>
+      </c>
+      <c r="S50">
+        <v>1.59</v>
+      </c>
+      <c r="T50">
+        <v>1.12</v>
+      </c>
+      <c r="U50">
+        <v>1.27</v>
+      </c>
+      <c r="V50">
+        <v>2.34</v>
+      </c>
+      <c r="W50">
+        <v>1.89</v>
+      </c>
+      <c r="X50">
+        <v>0.88</v>
+      </c>
+      <c r="Y50">
+        <v>1.5</v>
+      </c>
+      <c r="Z50">
+        <v>1.11</v>
+      </c>
+      <c r="AA50">
+        <v>2.61</v>
+      </c>
+      <c r="AB50">
+        <v>1.31</v>
+      </c>
+      <c r="AC50">
+        <v>9.5</v>
+      </c>
+      <c r="AD50">
+        <v>4.12</v>
+      </c>
+      <c r="AE50">
+        <v>1.33</v>
+      </c>
+      <c r="AF50">
+        <v>1.6</v>
+      </c>
+      <c r="AG50">
+        <v>2.04</v>
+      </c>
+      <c r="AH50">
         <v>2.75</v>
       </c>
-      <c r="N50">
-        <v>2.2</v>
-      </c>
-      <c r="O50">
-        <v>1.61</v>
-      </c>
-      <c r="P50">
-        <v>1.47</v>
-      </c>
-      <c r="Q50">
-        <v>2.5</v>
-      </c>
-      <c r="R50">
-        <v>2.05</v>
-      </c>
-      <c r="S50">
-        <v>1.66</v>
-      </c>
-      <c r="T50">
-        <v>1.18</v>
-      </c>
-      <c r="U50">
-        <v>1.3</v>
-      </c>
-      <c r="V50">
-        <v>1.98</v>
-      </c>
-      <c r="W50">
-        <v>0.75</v>
-      </c>
-      <c r="X50">
-        <v>1</v>
-      </c>
-      <c r="Y50">
-        <v>1.53</v>
-      </c>
-      <c r="Z50">
-        <v>1.68</v>
-      </c>
-      <c r="AA50">
-        <v>3.21</v>
-      </c>
-      <c r="AB50">
-        <v>1.43</v>
-      </c>
-      <c r="AC50">
-        <v>7.5</v>
-      </c>
-      <c r="AD50">
-        <v>3.75</v>
-      </c>
-      <c r="AE50">
-        <v>0</v>
-      </c>
-      <c r="AF50">
-        <v>1.29</v>
-      </c>
-      <c r="AG50">
-        <v>1.63</v>
-      </c>
-      <c r="AH50">
-        <v>1.98</v>
-      </c>
       <c r="AI50">
-        <v>2.44</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="51" spans="1:35">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B51" s="2">
         <v>45079</v>
@@ -6363,100 +6363,100 @@
         <v>67</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F51" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G51">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I51">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="J51">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="K51">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="L51">
         <v>1.44</v>
       </c>
       <c r="M51">
-        <v>2.62</v>
+        <v>2.53</v>
       </c>
       <c r="N51">
         <v>2.35</v>
       </c>
       <c r="O51">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P51">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q51">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="R51">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S51">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="T51">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="U51">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="V51">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="W51">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="Y51">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="Z51">
-        <v>1.69</v>
+        <v>1.12</v>
       </c>
       <c r="AA51">
-        <v>3.26</v>
+        <v>2.81</v>
       </c>
       <c r="AB51">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AC51">
-        <v>7.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD51">
-        <v>3.3</v>
+        <v>2.77</v>
       </c>
       <c r="AE51">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF51">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="AG51">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="AH51">
-        <v>1.91</v>
+        <v>2.18</v>
       </c>
       <c r="AI51">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="52" spans="1:35">
@@ -6568,7 +6568,7 @@
     </row>
     <row r="53" spans="1:35">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2">
         <v>45079</v>
@@ -6577,7 +6577,7 @@
         <v>68</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E53" t="s">
         <v>125</v>
@@ -6586,96 +6586,96 @@
         <v>192</v>
       </c>
       <c r="G53">
-        <v>4.35</v>
+        <v>2.8</v>
       </c>
       <c r="H53">
-        <v>3.27</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>1.53</v>
+        <v>2.44</v>
       </c>
       <c r="J53">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>1.86</v>
+        <v>2.19</v>
       </c>
       <c r="O53">
-        <v>1.86</v>
+        <v>1.6</v>
       </c>
       <c r="P53">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="S53">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="T53">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="U53">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="V53">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="W53">
-        <v>1.22</v>
+        <v>0.5</v>
       </c>
       <c r="X53">
-        <v>1.83</v>
+        <v>0.5</v>
       </c>
       <c r="Y53">
-        <v>1.28</v>
+        <v>2.39</v>
       </c>
       <c r="Z53">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="AA53">
-        <v>3.04</v>
+        <v>4.01</v>
       </c>
       <c r="AB53">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AD53">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AE53">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AF53">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="AG53">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="AH53">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="AI53">
-        <v>3.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:35">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B54" s="2">
         <v>45079</v>
@@ -6684,7 +6684,7 @@
         <v>68</v>
       </c>
       <c r="D54">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E54" t="s">
         <v>126</v>
@@ -6693,91 +6693,91 @@
         <v>193</v>
       </c>
       <c r="G54">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="H54">
-        <v>3.02</v>
+        <v>3.75</v>
       </c>
       <c r="I54">
-        <v>2.99</v>
+        <v>1.5</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="N54">
-        <v>2.19</v>
+        <v>1.75</v>
       </c>
       <c r="O54">
-        <v>1.6</v>
+        <v>1.87</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W54">
-        <v>0.5</v>
+        <v>1.22</v>
       </c>
       <c r="X54">
-        <v>0.5</v>
+        <v>1.83</v>
       </c>
       <c r="Y54">
-        <v>2.39</v>
+        <v>1.28</v>
       </c>
       <c r="Z54">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="AA54">
-        <v>4.01</v>
+        <v>3.04</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AC54">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AE54">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF54">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AH54">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AI54">
-        <v>0</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="55" spans="1:35">
@@ -6800,13 +6800,13 @@
         <v>194</v>
       </c>
       <c r="G55">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="H55">
-        <v>3.83</v>
+        <v>4.5</v>
       </c>
       <c r="I55">
-        <v>5.72</v>
+        <v>8.5</v>
       </c>
       <c r="J55">
         <v>1.03</v>
@@ -6821,10 +6821,10 @@
         <v>4</v>
       </c>
       <c r="N55">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O55">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="P55">
         <v>1.32</v>
@@ -6898,7 +6898,7 @@
         <v>69</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E56" t="s">
         <v>128</v>
@@ -6907,67 +6907,67 @@
         <v>195</v>
       </c>
       <c r="G56">
-        <v>1.69</v>
+        <v>2.6</v>
       </c>
       <c r="H56">
-        <v>3.26</v>
+        <v>3.1</v>
       </c>
       <c r="I56">
-        <v>3.42</v>
+        <v>2.55</v>
       </c>
       <c r="J56">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>13.25</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>1.69</v>
+        <v>1.9</v>
       </c>
       <c r="O56">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="P56">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="S56">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="T56">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="U56">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="V56">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="W56">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X56">
         <v>1.4</v>
       </c>
       <c r="Y56">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="Z56">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AA56">
-        <v>2.49</v>
+        <v>2.81</v>
       </c>
       <c r="AB56">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="AF56">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AG56">
         <v>0</v>
@@ -6996,7 +6996,7 @@
     </row>
     <row r="57" spans="1:35">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="2">
         <v>45079</v>
@@ -7011,16 +7011,16 @@
         <v>129</v>
       </c>
       <c r="F57" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G57">
-        <v>2.46</v>
+        <v>2.35</v>
       </c>
       <c r="H57">
-        <v>3.01</v>
+        <v>3.15</v>
       </c>
       <c r="I57">
-        <v>2.49</v>
+        <v>2.65</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -7035,10 +7035,10 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="O57">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -7062,19 +7062,19 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="X57">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y57">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="Z57">
-        <v>1.35</v>
+        <v>1.56</v>
       </c>
       <c r="AA57">
-        <v>2.81</v>
+        <v>3.05</v>
       </c>
       <c r="AB57">
         <v>0</v>
@@ -7112,97 +7112,97 @@
         <v>69</v>
       </c>
       <c r="D58">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E58" t="s">
         <v>130</v>
       </c>
       <c r="F58" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G58">
-        <v>2.31</v>
+        <v>1.8</v>
       </c>
       <c r="H58">
-        <v>3.09</v>
+        <v>3.2</v>
       </c>
       <c r="I58">
-        <v>2.61</v>
+        <v>3.55</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="N58">
+        <v>1.73</v>
+      </c>
+      <c r="O58">
+        <v>1.87</v>
+      </c>
+      <c r="P58">
+        <v>1.35</v>
+      </c>
+      <c r="Q58">
+        <v>2.94</v>
+      </c>
+      <c r="R58">
+        <v>1.69</v>
+      </c>
+      <c r="S58">
+        <v>2.11</v>
+      </c>
+      <c r="T58">
+        <v>1.21</v>
+      </c>
+      <c r="U58">
+        <v>1.24</v>
+      </c>
+      <c r="V58">
+        <v>1.88</v>
+      </c>
+      <c r="W58">
+        <v>1.57</v>
+      </c>
+      <c r="X58">
+        <v>1.4</v>
+      </c>
+      <c r="Y58">
+        <v>1.27</v>
+      </c>
+      <c r="Z58">
+        <v>1.22</v>
+      </c>
+      <c r="AA58">
+        <v>2.49</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>1.4</v>
+      </c>
+      <c r="AF58">
         <v>1.9</v>
       </c>
-      <c r="O58">
-        <v>1.72</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>1.7</v>
-      </c>
-      <c r="X58">
-        <v>2.2</v>
-      </c>
-      <c r="Y58">
-        <v>1.49</v>
-      </c>
-      <c r="Z58">
-        <v>1.56</v>
-      </c>
-      <c r="AA58">
-        <v>3.05</v>
-      </c>
-      <c r="AB58">
-        <v>0</v>
-      </c>
-      <c r="AC58">
-        <v>0</v>
-      </c>
-      <c r="AD58">
-        <v>0</v>
-      </c>
-      <c r="AE58">
-        <v>0</v>
-      </c>
-      <c r="AF58">
-        <v>0</v>
-      </c>
       <c r="AG58">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AH58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI58">
         <v>0</v>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="59" spans="1:35">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="2">
         <v>45079</v>
@@ -7228,13 +7228,13 @@
         <v>197</v>
       </c>
       <c r="G59">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="H59">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="I59">
-        <v>2.66</v>
+        <v>2.4</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -7249,10 +7249,10 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O59">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -7335,13 +7335,13 @@
         <v>198</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -7350,37 +7350,37 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="R60">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="T60">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="U60">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V60">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="W60">
         <v>3</v>
@@ -7424,7 +7424,7 @@
     </row>
     <row r="61" spans="1:35">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B61" s="2">
         <v>45079</v>
@@ -7442,13 +7442,13 @@
         <v>199</v>
       </c>
       <c r="G61">
-        <v>2.83</v>
+        <v>1.58</v>
       </c>
       <c r="H61">
-        <v>3.22</v>
+        <v>3.58</v>
       </c>
       <c r="I61">
-        <v>2.54</v>
+        <v>5.65</v>
       </c>
       <c r="J61">
         <v>1.08</v>
@@ -7463,55 +7463,55 @@
         <v>2.75</v>
       </c>
       <c r="N61">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O61">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P61">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q61">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="R61">
-        <v>1.91</v>
+        <v>2.16</v>
       </c>
       <c r="S61">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="T61">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="U61">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="V61">
-        <v>1.4</v>
+        <v>2.24</v>
       </c>
       <c r="W61">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="X61">
-        <v>1.88</v>
+        <v>0.88</v>
       </c>
       <c r="Y61">
-        <v>1.66</v>
+        <v>1.95</v>
       </c>
       <c r="Z61">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="AA61">
-        <v>2.99</v>
+        <v>3.14</v>
       </c>
       <c r="AB61">
-        <v>2.05</v>
+        <v>1.41</v>
       </c>
       <c r="AC61">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AD61">
-        <v>2</v>
+        <v>3.66</v>
       </c>
       <c r="AE61">
         <v>1.33</v>
@@ -7531,7 +7531,7 @@
     </row>
     <row r="62" spans="1:35">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B62" s="2">
         <v>45079</v>
@@ -7549,13 +7549,13 @@
         <v>200</v>
       </c>
       <c r="G62">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="H62">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I62">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="J62">
         <v>1.08</v>
@@ -7570,7 +7570,7 @@
         <v>2.65</v>
       </c>
       <c r="N62">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="O62">
         <v>1.55</v>
@@ -7647,7 +7647,7 @@
         <v>71</v>
       </c>
       <c r="D63">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
         <v>135</v>
@@ -7656,25 +7656,25 @@
         <v>201</v>
       </c>
       <c r="G63">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
       <c r="H63">
-        <v>3.58</v>
+        <v>3.4</v>
       </c>
       <c r="I63">
-        <v>5.65</v>
+        <v>3.75</v>
       </c>
       <c r="J63">
         <v>1.08</v>
       </c>
       <c r="K63">
-        <v>7</v>
+        <v>7.25</v>
       </c>
       <c r="L63">
         <v>1.4</v>
       </c>
       <c r="M63">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N63">
         <v>2.2</v>
@@ -7686,61 +7686,61 @@
         <v>1.47</v>
       </c>
       <c r="Q63">
-        <v>2.58</v>
+        <v>2.45</v>
       </c>
       <c r="R63">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="T63">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="U63">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="V63">
-        <v>2.24</v>
+        <v>1.71</v>
       </c>
       <c r="W63">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="X63">
-        <v>0.88</v>
+        <v>1.25</v>
       </c>
       <c r="Y63">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="Z63">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="AA63">
-        <v>3.14</v>
+        <v>3.23</v>
       </c>
       <c r="AB63">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AC63">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD63">
-        <v>3.66</v>
+        <v>3.3</v>
       </c>
       <c r="AE63">
+        <v>1.07</v>
+      </c>
+      <c r="AF63">
+        <v>1.17</v>
+      </c>
+      <c r="AG63">
         <v>1.33</v>
       </c>
-      <c r="AF63">
+      <c r="AH63">
         <v>1.6</v>
       </c>
-      <c r="AG63">
-        <v>2.04</v>
-      </c>
-      <c r="AH63">
-        <v>2.75</v>
-      </c>
       <c r="AI63">
-        <v>3.85</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="64" spans="1:35">
@@ -7754,7 +7754,7 @@
         <v>71</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E64" t="s">
         <v>136</v>
@@ -7763,91 +7763,91 @@
         <v>202</v>
       </c>
       <c r="G64">
-        <v>1.96</v>
+        <v>2.83</v>
       </c>
       <c r="H64">
-        <v>3.11</v>
+        <v>3.22</v>
       </c>
       <c r="I64">
-        <v>3.36</v>
+        <v>2.54</v>
       </c>
       <c r="J64">
         <v>1.08</v>
       </c>
       <c r="K64">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="L64">
         <v>1.4</v>
       </c>
       <c r="M64">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N64">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O64">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="P64">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q64">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="R64">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S64">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T64">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="U64">
+        <v>1.35</v>
+      </c>
+      <c r="V64">
+        <v>1.4</v>
+      </c>
+      <c r="W64">
+        <v>1.5</v>
+      </c>
+      <c r="X64">
+        <v>1.88</v>
+      </c>
+      <c r="Y64">
+        <v>1.66</v>
+      </c>
+      <c r="Z64">
         <v>1.33</v>
       </c>
-      <c r="V64">
-        <v>1.71</v>
-      </c>
-      <c r="W64">
-        <v>2.4</v>
-      </c>
-      <c r="X64">
-        <v>1.25</v>
-      </c>
-      <c r="Y64">
-        <v>1.85</v>
-      </c>
-      <c r="Z64">
-        <v>1.38</v>
-      </c>
       <c r="AA64">
-        <v>3.23</v>
+        <v>2.99</v>
       </c>
       <c r="AB64">
-        <v>1.48</v>
+        <v>2.05</v>
       </c>
       <c r="AC64">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD64">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="AE64">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF64">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG64">
-        <v>1.33</v>
+        <v>2.04</v>
       </c>
       <c r="AH64">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="AI64">
-        <v>1.98</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="65" spans="1:35">
@@ -7870,13 +7870,13 @@
         <v>194</v>
       </c>
       <c r="G65">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H65">
         <v>5</v>
       </c>
       <c r="I65">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="J65">
         <v>1.02</v>
@@ -7891,10 +7891,10 @@
         <v>4.2</v>
       </c>
       <c r="N65">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O65">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="P65">
         <v>1.27</v>
@@ -7959,7 +7959,7 @@
     </row>
     <row r="66" spans="1:35">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B66" s="2">
         <v>45079</v>
@@ -7977,13 +7977,13 @@
         <v>203</v>
       </c>
       <c r="G66">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="H66">
-        <v>3.12</v>
+        <v>3.28</v>
       </c>
       <c r="I66">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="J66">
         <v>1.04</v>
@@ -7998,10 +7998,10 @@
         <v>3.62</v>
       </c>
       <c r="N66">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="O66">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="P66">
         <v>1.35</v>
@@ -8040,28 +8040,28 @@
         <v>3.14</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AC66">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD66">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AE66">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF66">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG66">
         <v>1.85</v>
       </c>
       <c r="AH66">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AI66">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="67" spans="1:35">
@@ -8084,13 +8084,13 @@
         <v>204</v>
       </c>
       <c r="G67">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="H67">
-        <v>3.06</v>
+        <v>3.4</v>
       </c>
       <c r="I67">
-        <v>2.16</v>
+        <v>2.41</v>
       </c>
       <c r="J67">
         <v>1.01</v>
@@ -8105,10 +8105,10 @@
         <v>3.6</v>
       </c>
       <c r="N67">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="O67">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="P67">
         <v>1.36</v>
@@ -8301,49 +8301,49 @@
         <v>3.85</v>
       </c>
       <c r="H69">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I69">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="N69">
         <v>1.9</v>
       </c>
       <c r="O69">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R69">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S69">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T69">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="U69">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="V69">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W69">
         <v>0.67</v>

--- a/Jogos_do_Dia/2023-06-02_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-02_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="198">
   <si>
     <t>League</t>
   </si>
@@ -157,24 +157,21 @@
     <t>Argentina Prim B Nacional</t>
   </si>
   <si>
-    <t>Tunisia Ligue 1</t>
+    <t>Brazil Serie B</t>
+  </si>
+  <si>
+    <t>Argentina Primera División</t>
   </si>
   <si>
     <t>Ecuador Primera Categoría Serie A</t>
   </si>
   <si>
-    <t>Brazil Serie B</t>
-  </si>
-  <si>
-    <t>Argentina Primera División</t>
+    <t>Bolivia LFPB</t>
   </si>
   <si>
     <t>Brazil Serie C</t>
   </si>
   <si>
-    <t>Bolivia LFPB</t>
-  </si>
-  <si>
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
@@ -289,106 +286,97 @@
     <t>Drogheda United</t>
   </si>
   <si>
+    <t>Saint-Étienne</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Grenoble Foot 38</t>
+  </si>
+  <si>
+    <t>Amiens SC</t>
+  </si>
+  <si>
+    <t>Niort</t>
+  </si>
+  <si>
+    <t>Pau</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Bohemians</t>
+  </si>
+  <si>
     <t>Derry City</t>
   </si>
   <si>
-    <t>Saint-Étienne</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>Grenoble Foot 38</t>
-  </si>
-  <si>
-    <t>Amiens SC</t>
-  </si>
-  <si>
-    <t>Niort</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
+    <t>Shamrock Rovers</t>
+  </si>
+  <si>
+    <t>UCD</t>
   </si>
   <si>
     <t>Nîmes</t>
   </si>
   <si>
-    <t>Pau</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Bohemians</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t>Metz</t>
+    <t>Fram</t>
   </si>
   <si>
     <t>Breidablik</t>
   </si>
   <si>
-    <t>Fram</t>
-  </si>
-  <si>
     <t>Valur</t>
   </si>
   <si>
+    <t>Deportivo Riestra</t>
+  </si>
+  <si>
+    <t>Chacarita Juniors</t>
+  </si>
+  <si>
+    <t>Ceará</t>
+  </si>
+  <si>
+    <t>Estudiantes</t>
+  </si>
+  <si>
+    <t>Botafogo SP</t>
+  </si>
+  <si>
+    <t>Ferro Carril Oeste</t>
+  </si>
+  <si>
+    <t>Racing Córdoba</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Tristán Suárez</t>
+  </si>
+  <si>
+    <t>Club Atlético Mitre</t>
+  </si>
+  <si>
+    <t>Chaco For Ever</t>
+  </si>
+  <si>
     <t>Independiente Rivadavia</t>
   </si>
   <si>
-    <t>Monastir</t>
-  </si>
-  <si>
-    <t>CS Sfaxien</t>
-  </si>
-  <si>
-    <t>Tataouine</t>
-  </si>
-  <si>
-    <t>ES Tunis</t>
-  </si>
-  <si>
-    <t>Tristán Suárez</t>
-  </si>
-  <si>
-    <t>Chaco For Ever</t>
-  </si>
-  <si>
     <t>CSD Independiente del Valle</t>
   </si>
   <si>
-    <t>Deportivo Riestra</t>
-  </si>
-  <si>
-    <t>Chacarita Juniors</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>Racing Córdoba</t>
-  </si>
-  <si>
-    <t>Ferro Carril Oeste</t>
-  </si>
-  <si>
-    <t>Ceará</t>
-  </si>
-  <si>
-    <t>Botafogo SP</t>
-  </si>
-  <si>
-    <t>Estudiantes</t>
-  </si>
-  <si>
-    <t>Club Atlético Mitre</t>
+    <t>Aurora</t>
   </si>
   <si>
     <t>América RN</t>
@@ -397,39 +385,36 @@
     <t>La Luz</t>
   </si>
   <si>
-    <t>Aurora</t>
-  </si>
-  <si>
     <t>Sportivo Luqueño</t>
   </si>
   <si>
+    <t>Guaraní</t>
+  </si>
+  <si>
     <t>Cerro Porteño</t>
   </si>
   <si>
     <t>Charleston Battery</t>
   </si>
   <si>
-    <t>Guaraní</t>
-  </si>
-  <si>
     <t>Deportes Limache</t>
   </si>
   <si>
+    <t>Vitória</t>
+  </si>
+  <si>
+    <t>Criciúma</t>
+  </si>
+  <si>
+    <t>LDU Quito</t>
+  </si>
+  <si>
     <t>Argentinos Juniors</t>
   </si>
   <si>
-    <t>Vitória</t>
-  </si>
-  <si>
-    <t>Criciúma</t>
-  </si>
-  <si>
     <t>Tigre</t>
   </si>
   <si>
-    <t>LDU Quito</t>
-  </si>
-  <si>
     <t>Colorado Springs</t>
   </si>
   <si>
@@ -490,106 +475,97 @@
     <t>Cork City</t>
   </si>
   <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
+    <t>Annecy</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Laval</t>
+  </si>
+  <si>
+    <t>Quevilly Rouen</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Bastia</t>
+  </si>
+  <si>
+    <t>Dijon</t>
+  </si>
+  <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Sligo Rovers</t>
+  </si>
+  <si>
     <t>Shelbourne</t>
   </si>
   <si>
-    <t>Valenciennes</t>
-  </si>
-  <si>
-    <t>Annecy</t>
-  </si>
-  <si>
-    <t>Guingamp</t>
-  </si>
-  <si>
-    <t>Laval</t>
-  </si>
-  <si>
-    <t>Quevilly Rouen</t>
-  </si>
-  <si>
-    <t>Dijon</t>
+    <t>Dundalk</t>
+  </si>
+  <si>
+    <t>St Patrick's Athl.</t>
   </si>
   <si>
     <t>Sochaux</t>
   </si>
   <si>
-    <t>Caen</t>
-  </si>
-  <si>
-    <t>Rodez</t>
-  </si>
-  <si>
-    <t>Sligo Rovers</t>
-  </si>
-  <si>
-    <t>Dundalk</t>
-  </si>
-  <si>
-    <t>St Patrick's Athl.</t>
-  </si>
-  <si>
-    <t>Bastia</t>
+    <t>Keflavík</t>
   </si>
   <si>
     <t>Víkingur Reykjavík</t>
   </si>
   <si>
-    <t>Keflavík</t>
-  </si>
-  <si>
     <t>FH</t>
   </si>
   <si>
+    <t>Quilmes</t>
+  </si>
+  <si>
+    <t>Atlético Rafaela</t>
+  </si>
+  <si>
+    <t>Chapecoense</t>
+  </si>
+  <si>
+    <t>Barracas Central</t>
+  </si>
+  <si>
+    <t>Tombense</t>
+  </si>
+  <si>
+    <t>Gimnasia Jujuy</t>
+  </si>
+  <si>
+    <t>Brown de Adrogué</t>
+  </si>
+  <si>
+    <t>Estudiantes Caseros</t>
+  </si>
+  <si>
+    <t>Deportivo Madryn</t>
+  </si>
+  <si>
+    <t>Villa Dálmine</t>
+  </si>
+  <si>
+    <t>Deportivo Maipú</t>
+  </si>
+  <si>
     <t>Aldosivi</t>
   </si>
   <si>
-    <t>Etoile du Sahel</t>
-  </si>
-  <si>
-    <t>Ben Guerdane</t>
-  </si>
-  <si>
-    <t>Club Africain</t>
-  </si>
-  <si>
-    <t>Olympique Béja</t>
-  </si>
-  <si>
-    <t>Atlético Rafaela</t>
-  </si>
-  <si>
-    <t>Deportivo Maipú</t>
-  </si>
-  <si>
     <t>SD Aucas</t>
   </si>
   <si>
-    <t>Quilmes</t>
-  </si>
-  <si>
-    <t>Deportivo Madryn</t>
-  </si>
-  <si>
-    <t>Estudiantes Caseros</t>
-  </si>
-  <si>
-    <t>Brown de Adrogué</t>
-  </si>
-  <si>
-    <t>Gimnasia Jujuy</t>
-  </si>
-  <si>
-    <t>Chapecoense</t>
-  </si>
-  <si>
-    <t>Tombense</t>
-  </si>
-  <si>
-    <t>Barracas Central</t>
-  </si>
-  <si>
-    <t>Villa Dálmine</t>
+    <t>Libertad</t>
   </si>
   <si>
     <t>Operário PR</t>
@@ -598,28 +574,25 @@
     <t>Peñarol</t>
   </si>
   <si>
-    <t>Libertad</t>
-  </si>
-  <si>
     <t>Sportivo Trinidense</t>
   </si>
   <si>
+    <t>Olimpia</t>
+  </si>
+  <si>
     <t>Indy Eleven</t>
   </si>
   <si>
-    <t>Olimpia</t>
-  </si>
-  <si>
     <t>Trasandino</t>
   </si>
   <si>
+    <t>Ituano</t>
+  </si>
+  <si>
+    <t>Atlético GO</t>
+  </si>
+  <si>
     <t>Platense</t>
-  </si>
-  <si>
-    <t>Ituano</t>
-  </si>
-  <si>
-    <t>Atlético GO</t>
   </si>
   <si>
     <t>Talleres Córdoba</t>
@@ -996,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI69"/>
+  <dimension ref="A1:AI65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1117,16 +1090,16 @@
         <v>45079</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G2">
         <v>1.35</v>
@@ -1177,10 +1150,10 @@
         <v>3.13</v>
       </c>
       <c r="W2">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="X2">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="Y2">
         <v>1.28</v>
@@ -1224,16 +1197,16 @@
         <v>45079</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G3">
         <v>1.53</v>
@@ -1284,10 +1257,10 @@
         <v>2.51</v>
       </c>
       <c r="W3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X3">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="Y3">
         <v>1.68</v>
@@ -1331,25 +1304,25 @@
         <v>45079</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G4">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="H4">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="I4">
-        <v>4.15</v>
+        <v>4.23</v>
       </c>
       <c r="J4">
         <v>1.09</v>
@@ -1364,10 +1337,10 @@
         <v>2.45</v>
       </c>
       <c r="N4">
-        <v>2.25</v>
+        <v>2.36</v>
       </c>
       <c r="O4">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="P4">
         <v>1.5</v>
@@ -1391,7 +1364,7 @@
         <v>1.86</v>
       </c>
       <c r="W4">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="X4">
         <v>1</v>
@@ -1438,25 +1411,25 @@
         <v>45079</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G5">
-        <v>3.25</v>
+        <v>3.39</v>
       </c>
       <c r="H5">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I5">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="J5">
         <v>1.08</v>
@@ -1471,10 +1444,10 @@
         <v>3</v>
       </c>
       <c r="N5">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="O5">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="P5">
         <v>1.44</v>
@@ -1498,10 +1471,10 @@
         <v>1.3</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="X5">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="Y5">
         <v>1.61</v>
@@ -1545,25 +1518,25 @@
         <v>45079</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G6">
-        <v>1.59</v>
+        <v>1.8</v>
       </c>
       <c r="H6">
-        <v>4.45</v>
+        <v>4.2</v>
       </c>
       <c r="I6">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="J6">
         <v>1.01</v>
@@ -1578,10 +1551,10 @@
         <v>5.15</v>
       </c>
       <c r="N6">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="O6">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P6">
         <v>1.24</v>
@@ -1590,10 +1563,10 @@
         <v>3.82</v>
       </c>
       <c r="R6">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="S6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T6">
         <v>1.2</v>
@@ -1605,10 +1578,10 @@
         <v>2.1</v>
       </c>
       <c r="W6">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="X6">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="Y6">
         <v>1.79</v>
@@ -1652,25 +1625,25 @@
         <v>45079</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G7">
-        <v>4.3</v>
+        <v>7.5</v>
       </c>
       <c r="H7">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>1.66</v>
+        <v>1.33</v>
       </c>
       <c r="J7">
         <v>1.01</v>
@@ -1685,10 +1658,10 @@
         <v>6.05</v>
       </c>
       <c r="N7">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="O7">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P7">
         <v>1.2</v>
@@ -1697,10 +1670,10 @@
         <v>4.3</v>
       </c>
       <c r="R7">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S7">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T7">
         <v>2.25</v>
@@ -1712,10 +1685,10 @@
         <v>1.19</v>
       </c>
       <c r="W7">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="X7">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="Y7">
         <v>1.34</v>
@@ -1727,13 +1700,13 @@
         <v>2.65</v>
       </c>
       <c r="AB7">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="AC7">
         <v>6.5</v>
       </c>
       <c r="AD7">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AE7">
         <v>1.2</v>
@@ -1759,25 +1732,25 @@
         <v>45079</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G8">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="H8">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="I8">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="J8">
         <v>1.03</v>
@@ -1792,10 +1765,10 @@
         <v>3.62</v>
       </c>
       <c r="N8">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="O8">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="P8">
         <v>1.37</v>
@@ -1819,7 +1792,7 @@
         <v>1.58</v>
       </c>
       <c r="W8">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X8">
         <v>1.19</v>
@@ -1834,13 +1807,13 @@
         <v>2.67</v>
       </c>
       <c r="AB8">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="AC8">
         <v>5.5</v>
       </c>
       <c r="AD8">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="AE8">
         <v>1.41</v>
@@ -1866,25 +1839,25 @@
         <v>45079</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G9">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H9">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="I9">
-        <v>3.35</v>
+        <v>4.17</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1899,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O9">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1929,7 +1902,7 @@
         <v>1.13</v>
       </c>
       <c r="X9">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="Y9">
         <v>1.23</v>
@@ -1973,26 +1946,26 @@
         <v>45079</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G10">
+        <v>2.74</v>
+      </c>
+      <c r="H10">
+        <v>3.55</v>
+      </c>
+      <c r="I10">
         <v>2.45</v>
       </c>
-      <c r="H10">
-        <v>3.28</v>
-      </c>
-      <c r="I10">
-        <v>2.28</v>
-      </c>
       <c r="J10">
         <v>0</v>
       </c>
@@ -2006,10 +1979,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2033,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="X10">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="Y10">
         <v>1.16</v>
@@ -2080,25 +2053,25 @@
         <v>45079</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G11">
-        <v>2.73</v>
+        <v>3.06</v>
       </c>
       <c r="H11">
-        <v>3.42</v>
+        <v>3.65</v>
       </c>
       <c r="I11">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2113,10 +2086,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O11">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2140,10 +2113,10 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Y11">
         <v>0.96</v>
@@ -2187,25 +2160,25 @@
         <v>45079</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G12">
         <v>2.45</v>
       </c>
       <c r="H12">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I12">
-        <v>2.55</v>
+        <v>2.49</v>
       </c>
       <c r="J12">
         <v>1.02</v>
@@ -2220,10 +2193,10 @@
         <v>5</v>
       </c>
       <c r="N12">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="O12">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="P12">
         <v>1.25</v>
@@ -2247,10 +2220,10 @@
         <v>1.45</v>
       </c>
       <c r="W12">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y12">
         <v>1.83</v>
@@ -2294,25 +2267,25 @@
         <v>45079</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G13">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="H13">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I13">
-        <v>4.3</v>
+        <v>3.88</v>
       </c>
       <c r="J13">
         <v>1.04</v>
@@ -2327,10 +2300,10 @@
         <v>3.33</v>
       </c>
       <c r="N13">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="O13">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="P13">
         <v>1.4</v>
@@ -2354,10 +2327,10 @@
         <v>1.95</v>
       </c>
       <c r="W13">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="X13">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="Y13">
         <v>1.45</v>
@@ -2401,25 +2374,25 @@
         <v>45079</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G14">
-        <v>2.32</v>
+        <v>2.47</v>
       </c>
       <c r="H14">
-        <v>3.72</v>
+        <v>3.75</v>
       </c>
       <c r="I14">
-        <v>2.48</v>
+        <v>2.61</v>
       </c>
       <c r="J14">
         <v>1.02</v>
@@ -2434,10 +2407,10 @@
         <v>5</v>
       </c>
       <c r="N14">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="O14">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="P14">
         <v>1.28</v>
@@ -2461,10 +2434,10 @@
         <v>1.58</v>
       </c>
       <c r="W14">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="X14">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="Y14">
         <v>1.5</v>
@@ -2508,25 +2481,25 @@
         <v>45079</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15">
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G15">
         <v>1.87</v>
       </c>
       <c r="H15">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I15">
-        <v>4.2</v>
+        <v>3.88</v>
       </c>
       <c r="J15">
         <v>1.06</v>
@@ -2541,10 +2514,10 @@
         <v>3</v>
       </c>
       <c r="N15">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="O15">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="P15">
         <v>1.45</v>
@@ -2568,10 +2541,10 @@
         <v>1.8</v>
       </c>
       <c r="W15">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="X15">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="Y15">
         <v>1.75</v>
@@ -2615,25 +2588,25 @@
         <v>45079</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G16">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="H16">
         <v>3.2</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>4.17</v>
       </c>
       <c r="J16">
         <v>1.08</v>
@@ -2642,13 +2615,13 @@
         <v>7.1</v>
       </c>
       <c r="L16">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="M16">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="N16">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O16">
         <v>1.47</v>
@@ -2675,10 +2648,10 @@
         <v>1.83</v>
       </c>
       <c r="W16">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X16">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="Y16">
         <v>1.62</v>
@@ -2722,25 +2695,25 @@
         <v>45079</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17">
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G17">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="H17">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I17">
-        <v>3.4</v>
+        <v>3.19</v>
       </c>
       <c r="J17">
         <v>1.01</v>
@@ -2755,10 +2728,10 @@
         <v>3.6</v>
       </c>
       <c r="N17">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="O17">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P17">
         <v>1.35</v>
@@ -2782,10 +2755,10 @@
         <v>1.78</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="X17">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y17">
         <v>1.87</v>
@@ -2823,109 +2796,109 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2">
         <v>45079</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G18">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="H18">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="I18">
-        <v>6.5</v>
+        <v>4.19</v>
       </c>
       <c r="J18">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="K18">
-        <v>7</v>
+        <v>22.5</v>
       </c>
       <c r="L18">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="M18">
-        <v>2.75</v>
+        <v>5.55</v>
       </c>
       <c r="N18">
-        <v>2.25</v>
+        <v>1.48</v>
       </c>
       <c r="O18">
-        <v>1.6</v>
+        <v>2.47</v>
       </c>
       <c r="P18">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q18">
-        <v>2.5</v>
+        <v>3.72</v>
       </c>
       <c r="R18">
+        <v>1.56</v>
+      </c>
+      <c r="S18">
+        <v>2.36</v>
+      </c>
+      <c r="T18">
+        <v>1.18</v>
+      </c>
+      <c r="U18">
+        <v>1.21</v>
+      </c>
+      <c r="V18">
         <v>2.3</v>
       </c>
-      <c r="S18">
-        <v>1.57</v>
-      </c>
-      <c r="T18">
-        <v>1.08</v>
-      </c>
-      <c r="U18">
-        <v>1.25</v>
-      </c>
-      <c r="V18">
-        <v>2.4</v>
-      </c>
       <c r="W18">
-        <v>1.56</v>
+        <v>1.79</v>
       </c>
       <c r="X18">
-        <v>1.25</v>
+        <v>0.84</v>
       </c>
       <c r="Y18">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="Z18">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AA18">
         <v>3.08</v>
       </c>
       <c r="AB18">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AC18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD18">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="AE18">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AF18">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AG18">
         <v>2.15</v>
       </c>
       <c r="AH18">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AI18">
-        <v>4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2936,103 +2909,103 @@
         <v>45079</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19">
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G19">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="H19">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="I19">
-        <v>4.3</v>
+        <v>3.49</v>
       </c>
       <c r="J19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K19">
-        <v>22.5</v>
+        <v>12</v>
       </c>
       <c r="L19">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="M19">
-        <v>5.55</v>
+        <v>3.5</v>
       </c>
       <c r="N19">
-        <v>1.47</v>
+        <v>1.85</v>
       </c>
       <c r="O19">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="P19">
+        <v>1.37</v>
+      </c>
+      <c r="Q19">
+        <v>2.85</v>
+      </c>
+      <c r="R19">
+        <v>1.72</v>
+      </c>
+      <c r="S19">
+        <v>2.05</v>
+      </c>
+      <c r="T19">
+        <v>1.22</v>
+      </c>
+      <c r="U19">
         <v>1.25</v>
       </c>
-      <c r="Q19">
-        <v>3.72</v>
-      </c>
-      <c r="R19">
-        <v>1.56</v>
-      </c>
-      <c r="S19">
-        <v>2.36</v>
-      </c>
-      <c r="T19">
-        <v>1.18</v>
-      </c>
-      <c r="U19">
-        <v>1.21</v>
-      </c>
       <c r="V19">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="W19">
-        <v>1.72</v>
+        <v>1.42</v>
       </c>
       <c r="X19">
-        <v>0.89</v>
+        <v>0.74</v>
       </c>
       <c r="Y19">
+        <v>1.51</v>
+      </c>
+      <c r="Z19">
+        <v>1.16</v>
+      </c>
+      <c r="AA19">
+        <v>2.67</v>
+      </c>
+      <c r="AB19">
+        <v>1.67</v>
+      </c>
+      <c r="AC19">
+        <v>7</v>
+      </c>
+      <c r="AD19">
+        <v>2.8</v>
+      </c>
+      <c r="AE19">
+        <v>1.45</v>
+      </c>
+      <c r="AF19">
         <v>1.85</v>
       </c>
-      <c r="Z19">
-        <v>1.23</v>
-      </c>
-      <c r="AA19">
-        <v>3.08</v>
-      </c>
-      <c r="AB19">
-        <v>1.3</v>
-      </c>
-      <c r="AC19">
-        <v>8</v>
-      </c>
-      <c r="AD19">
-        <v>4.75</v>
-      </c>
-      <c r="AE19">
-        <v>1.36</v>
-      </c>
-      <c r="AF19">
-        <v>1.67</v>
-      </c>
       <c r="AG19">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="AH19">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="AI19">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -3043,88 +3016,88 @@
         <v>45079</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20">
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G20">
-        <v>1.96</v>
+        <v>2.74</v>
       </c>
       <c r="H20">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I20">
-        <v>3.3</v>
+        <v>2.35</v>
       </c>
       <c r="J20">
         <v>1.05</v>
       </c>
       <c r="K20">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="L20">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M20">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="N20">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="O20">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="P20">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="Q20">
-        <v>2.85</v>
+        <v>3.07</v>
       </c>
       <c r="R20">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="S20">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="T20">
-        <v>1.22</v>
+        <v>1.57</v>
       </c>
       <c r="U20">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="V20">
-        <v>1.78</v>
+        <v>1.43</v>
       </c>
       <c r="W20">
-        <v>1.33</v>
+        <v>1.68</v>
       </c>
       <c r="X20">
-        <v>0.78</v>
+        <v>1.58</v>
       </c>
       <c r="Y20">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="Z20">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="AA20">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AB20">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="AC20">
         <v>7</v>
       </c>
       <c r="AD20">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="AE20">
         <v>1.45</v>
@@ -3150,103 +3123,103 @@
         <v>45079</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21">
         <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G21">
-        <v>2.62</v>
+        <v>2.89</v>
       </c>
       <c r="H21">
-        <v>3.43</v>
+        <v>3.4</v>
       </c>
       <c r="I21">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="J21">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K21">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="L21">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M21">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="N21">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="O21">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="P21">
         <v>1.39</v>
       </c>
       <c r="Q21">
-        <v>3.07</v>
+        <v>2.8</v>
       </c>
       <c r="R21">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="S21">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="T21">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="U21">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="V21">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="W21">
-        <v>1.78</v>
+        <v>1.42</v>
       </c>
       <c r="X21">
-        <v>1.5</v>
+        <v>0.89</v>
       </c>
       <c r="Y21">
-        <v>1.42</v>
+        <v>1.61</v>
       </c>
       <c r="Z21">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="AA21">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
       <c r="AB21">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AC21">
         <v>7</v>
       </c>
       <c r="AD21">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AE21">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AF21">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AG21">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="AH21">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AI21">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -3257,103 +3230,103 @@
         <v>45079</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22">
         <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G22">
-        <v>2.83</v>
+        <v>3.44</v>
       </c>
       <c r="H22">
-        <v>3.33</v>
+        <v>3.55</v>
       </c>
       <c r="I22">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="J22">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K22">
-        <v>11.5</v>
+        <v>14.75</v>
       </c>
       <c r="L22">
+        <v>1.22</v>
+      </c>
+      <c r="M22">
+        <v>4.32</v>
+      </c>
+      <c r="N22">
+        <v>1.67</v>
+      </c>
+      <c r="O22">
+        <v>2.07</v>
+      </c>
+      <c r="P22">
+        <v>1.35</v>
+      </c>
+      <c r="Q22">
+        <v>3.24</v>
+      </c>
+      <c r="R22">
+        <v>1.63</v>
+      </c>
+      <c r="S22">
+        <v>2.22</v>
+      </c>
+      <c r="T22">
+        <v>1.79</v>
+      </c>
+      <c r="U22">
         <v>1.28</v>
       </c>
-      <c r="M22">
-        <v>3.5</v>
-      </c>
-      <c r="N22">
-        <v>1.89</v>
-      </c>
-      <c r="O22">
-        <v>1.81</v>
-      </c>
-      <c r="P22">
-        <v>1.39</v>
-      </c>
-      <c r="Q22">
-        <v>2.8</v>
-      </c>
-      <c r="R22">
-        <v>1.72</v>
-      </c>
-      <c r="S22">
-        <v>2.05</v>
-      </c>
-      <c r="T22">
-        <v>1.63</v>
-      </c>
-      <c r="U22">
-        <v>1.25</v>
-      </c>
       <c r="V22">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="W22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>0.78</v>
+        <v>1.21</v>
       </c>
       <c r="Y22">
-        <v>1.61</v>
+        <v>1.29</v>
       </c>
       <c r="Z22">
         <v>1.21</v>
       </c>
       <c r="AA22">
-        <v>2.82</v>
+        <v>2.5</v>
       </c>
       <c r="AB22">
-        <v>1.85</v>
+        <v>2.38</v>
       </c>
       <c r="AC22">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD22">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="AE22">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AF22">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="AG22">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="AH22">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="AI22">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3364,103 +3337,103 @@
         <v>45079</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23">
         <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G23">
-        <v>3.05</v>
+        <v>2.5</v>
       </c>
       <c r="H23">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I23">
-        <v>1.99</v>
+        <v>2.56</v>
       </c>
       <c r="J23">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K23">
-        <v>14.75</v>
+        <v>12.25</v>
       </c>
       <c r="L23">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="M23">
-        <v>4.32</v>
+        <v>3.72</v>
       </c>
       <c r="N23">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O23">
+        <v>1.9</v>
+      </c>
+      <c r="P23">
+        <v>1.38</v>
+      </c>
+      <c r="Q23">
+        <v>2.85</v>
+      </c>
+      <c r="R23">
+        <v>1.68</v>
+      </c>
+      <c r="S23">
+        <v>2.1</v>
+      </c>
+      <c r="T23">
+        <v>1.4</v>
+      </c>
+      <c r="U23">
+        <v>1.25</v>
+      </c>
+      <c r="V23">
+        <v>1.47</v>
+      </c>
+      <c r="W23">
+        <v>1.26</v>
+      </c>
+      <c r="X23">
+        <v>1.05</v>
+      </c>
+      <c r="Y23">
+        <v>1.51</v>
+      </c>
+      <c r="Z23">
+        <v>1.36</v>
+      </c>
+      <c r="AA23">
+        <v>2.87</v>
+      </c>
+      <c r="AB23">
+        <v>2.2</v>
+      </c>
+      <c r="AC23">
+        <v>7</v>
+      </c>
+      <c r="AD23">
         <v>2</v>
       </c>
-      <c r="P23">
-        <v>1.35</v>
-      </c>
-      <c r="Q23">
-        <v>3.24</v>
-      </c>
-      <c r="R23">
-        <v>1.63</v>
-      </c>
-      <c r="S23">
-        <v>2.22</v>
-      </c>
-      <c r="T23">
-        <v>1.79</v>
-      </c>
-      <c r="U23">
-        <v>1.28</v>
-      </c>
-      <c r="V23">
-        <v>1.31</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23">
-        <v>1.22</v>
-      </c>
-      <c r="Y23">
-        <v>1.29</v>
-      </c>
-      <c r="Z23">
-        <v>1.21</v>
-      </c>
-      <c r="AA23">
-        <v>2.5</v>
-      </c>
-      <c r="AB23">
-        <v>2.38</v>
-      </c>
-      <c r="AC23">
-        <v>6.5</v>
-      </c>
-      <c r="AD23">
-        <v>1.91</v>
-      </c>
       <c r="AE23">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AF23">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AG23">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="AH23">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="AI23">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3471,103 +3444,103 @@
         <v>45079</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24">
         <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G24">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="H24">
-        <v>3.12</v>
+        <v>4.4</v>
       </c>
       <c r="I24">
-        <v>3.17</v>
+        <v>5.95</v>
       </c>
       <c r="J24">
+        <v>1.03</v>
+      </c>
+      <c r="K24">
+        <v>16</v>
+      </c>
+      <c r="L24">
+        <v>1.22</v>
+      </c>
+      <c r="M24">
+        <v>4.3</v>
+      </c>
+      <c r="N24">
+        <v>1.67</v>
+      </c>
+      <c r="O24">
+        <v>2.07</v>
+      </c>
+      <c r="P24">
+        <v>1.33</v>
+      </c>
+      <c r="Q24">
+        <v>3.36</v>
+      </c>
+      <c r="R24">
+        <v>1.88</v>
+      </c>
+      <c r="S24">
+        <v>1.88</v>
+      </c>
+      <c r="T24">
         <v>1.09</v>
       </c>
-      <c r="K24">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="L24">
-        <v>1.42</v>
-      </c>
-      <c r="M24">
-        <v>2.75</v>
-      </c>
-      <c r="N24">
-        <v>2.3</v>
-      </c>
-      <c r="O24">
-        <v>1.57</v>
-      </c>
-      <c r="P24">
-        <v>1.49</v>
-      </c>
-      <c r="Q24">
-        <v>2.45</v>
-      </c>
-      <c r="R24">
+      <c r="U24">
+        <v>1.18</v>
+      </c>
+      <c r="V24">
+        <v>2.84</v>
+      </c>
+      <c r="W24">
         <v>1.95</v>
       </c>
-      <c r="S24">
-        <v>1.78</v>
-      </c>
-      <c r="T24">
-        <v>1.25</v>
-      </c>
-      <c r="U24">
-        <v>1.28</v>
-      </c>
-      <c r="V24">
-        <v>1.68</v>
-      </c>
-      <c r="W24">
-        <v>2.06</v>
-      </c>
       <c r="X24">
-        <v>0.78</v>
+        <v>1.21</v>
       </c>
       <c r="Y24">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="Z24">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AA24">
-        <v>2.87</v>
+        <v>3.04</v>
       </c>
       <c r="AB24">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="AC24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE24">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AF24">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AG24">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="AH24">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AI24">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3578,103 +3551,103 @@
         <v>45079</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25">
         <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F25" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G25">
-        <v>2.57</v>
+        <v>2.07</v>
       </c>
       <c r="H25">
-        <v>3.58</v>
+        <v>3.2</v>
       </c>
       <c r="I25">
+        <v>3.46</v>
+      </c>
+      <c r="J25">
+        <v>1.09</v>
+      </c>
+      <c r="K25">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="L25">
+        <v>1.42</v>
+      </c>
+      <c r="M25">
+        <v>2.75</v>
+      </c>
+      <c r="N25">
         <v>2.25</v>
       </c>
-      <c r="J25">
-        <v>1.04</v>
-      </c>
-      <c r="K25">
-        <v>14.5</v>
-      </c>
-      <c r="L25">
-        <v>1.23</v>
-      </c>
-      <c r="M25">
-        <v>4.17</v>
-      </c>
-      <c r="N25">
-        <v>1.75</v>
-      </c>
       <c r="O25">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="P25">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
       <c r="Q25">
-        <v>3.33</v>
+        <v>2.45</v>
       </c>
       <c r="R25">
-        <v>1.59</v>
+        <v>1.95</v>
       </c>
       <c r="S25">
-        <v>2.29</v>
+        <v>1.78</v>
       </c>
       <c r="T25">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="U25">
+        <v>1.28</v>
+      </c>
+      <c r="V25">
+        <v>1.68</v>
+      </c>
+      <c r="W25">
+        <v>2.11</v>
+      </c>
+      <c r="X25">
+        <v>0.74</v>
+      </c>
+      <c r="Y25">
+        <v>1.58</v>
+      </c>
+      <c r="Z25">
         <v>1.29</v>
       </c>
-      <c r="V25">
-        <v>1.44</v>
-      </c>
-      <c r="W25">
-        <v>1.44</v>
-      </c>
-      <c r="X25">
-        <v>1.17</v>
-      </c>
-      <c r="Y25">
-        <v>1.51</v>
-      </c>
-      <c r="Z25">
-        <v>1.46</v>
-      </c>
       <c r="AA25">
-        <v>2.97</v>
+        <v>2.87</v>
       </c>
       <c r="AB25">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="AC25">
         <v>7</v>
       </c>
       <c r="AD25">
-        <v>1.91</v>
+        <v>3</v>
       </c>
       <c r="AE25">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AF25">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AG25">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="AH25">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AI25">
-        <v>5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3685,210 +3658,210 @@
         <v>45079</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26">
         <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F26" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G26">
-        <v>2.35</v>
+        <v>1.45</v>
       </c>
       <c r="H26">
-        <v>3.43</v>
+        <v>4.3</v>
       </c>
       <c r="I26">
-        <v>2.55</v>
+        <v>6.14</v>
       </c>
       <c r="J26">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K26">
-        <v>12.25</v>
+        <v>10</v>
       </c>
       <c r="L26">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="M26">
-        <v>3.72</v>
+        <v>3.6</v>
       </c>
       <c r="N26">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="O26">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="P26">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="Q26">
-        <v>2.85</v>
+        <v>3.24</v>
       </c>
       <c r="R26">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="S26">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="T26">
-        <v>1.4</v>
+        <v>1.11</v>
       </c>
       <c r="U26">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="V26">
-        <v>1.47</v>
+        <v>2.63</v>
       </c>
       <c r="W26">
-        <v>1.17</v>
+        <v>2.22</v>
       </c>
       <c r="X26">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="Y26">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
       <c r="Z26">
-        <v>1.36</v>
+        <v>1.16</v>
       </c>
       <c r="AA26">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="AB26">
-        <v>2.2</v>
+        <v>1.35</v>
       </c>
       <c r="AC26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD26">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="AE26">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="AF26">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AG26">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="AH26">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="AI26">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2">
         <v>45079</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G27">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>4.15</v>
+        <v>3.3</v>
       </c>
       <c r="I27">
-        <v>5.35</v>
+        <v>3.31</v>
       </c>
       <c r="J27">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="L27">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="M27">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>1.75</v>
+        <v>2.03</v>
       </c>
       <c r="O27">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="P27">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="Q27">
-        <v>3.24</v>
+        <v>2.75</v>
       </c>
       <c r="R27">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="S27">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T27">
+        <v>1.29</v>
+      </c>
+      <c r="U27">
+        <v>1.3</v>
+      </c>
+      <c r="V27">
+        <v>1.7</v>
+      </c>
+      <c r="W27">
+        <v>1.78</v>
+      </c>
+      <c r="X27">
         <v>1.11</v>
       </c>
-      <c r="U27">
-        <v>1.21</v>
-      </c>
-      <c r="V27">
-        <v>2.63</v>
-      </c>
-      <c r="W27">
-        <v>2.22</v>
-      </c>
-      <c r="X27">
-        <v>1.33</v>
-      </c>
       <c r="Y27">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="Z27">
-        <v>1.16</v>
+        <v>1.55</v>
       </c>
       <c r="AA27">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="AB27">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="AC27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD27">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="AE27">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="AF27">
-        <v>1.85</v>
+        <v>1.44</v>
       </c>
       <c r="AG27">
-        <v>2.4</v>
+        <v>1.76</v>
       </c>
       <c r="AH27">
-        <v>3.35</v>
+        <v>2.16</v>
       </c>
       <c r="AI27">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3899,103 +3872,103 @@
         <v>45079</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28">
         <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G28">
-        <v>2.1</v>
+        <v>1.52</v>
       </c>
       <c r="H28">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I28">
-        <v>3.3</v>
+        <v>5.78</v>
       </c>
       <c r="J28">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K28">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L28">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N28">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="O28">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="P28">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R28">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="S28">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="T28">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="U28">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="V28">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="W28">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="X28">
+        <v>1.22</v>
+      </c>
+      <c r="Y28">
+        <v>1.92</v>
+      </c>
+      <c r="Z28">
+        <v>1.16</v>
+      </c>
+      <c r="AA28">
+        <v>3.08</v>
+      </c>
+      <c r="AB28">
         <v>1.25</v>
       </c>
-      <c r="Y28">
-        <v>1.6</v>
-      </c>
-      <c r="Z28">
-        <v>1.55</v>
-      </c>
-      <c r="AA28">
-        <v>3.15</v>
-      </c>
-      <c r="AB28">
-        <v>1.6</v>
-      </c>
       <c r="AC28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD28">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="AE28">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="AF28">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="AG28">
-        <v>1.76</v>
+        <v>2.15</v>
       </c>
       <c r="AH28">
-        <v>2.16</v>
+        <v>2.7</v>
       </c>
       <c r="AI28">
-        <v>2.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -4006,25 +3979,25 @@
         <v>45079</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29">
         <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F29" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G29">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H29">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="I29">
-        <v>7.5</v>
+        <v>6.22</v>
       </c>
       <c r="J29">
         <v>1.04</v>
@@ -4039,10 +4012,10 @@
         <v>4</v>
       </c>
       <c r="N29">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O29">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="P29">
         <v>1.33</v>
@@ -4066,10 +4039,10 @@
         <v>2.95</v>
       </c>
       <c r="W29">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="X29">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="Y29">
         <v>2.12</v>
@@ -4113,25 +4086,25 @@
         <v>45079</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30">
         <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F30" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G30">
-        <v>8.5</v>
+        <v>7.06</v>
       </c>
       <c r="H30">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="J30">
         <v>1.02</v>
@@ -4149,7 +4122,7 @@
         <v>1.6</v>
       </c>
       <c r="O30">
-        <v>2.25</v>
+        <v>2.19</v>
       </c>
       <c r="P30">
         <v>1.27</v>
@@ -4173,10 +4146,10 @@
         <v>1.03</v>
       </c>
       <c r="W30">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X30">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="Y30">
         <v>1.03</v>
@@ -4220,103 +4193,103 @@
         <v>45079</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31">
         <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F31" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G31">
-        <v>1.4</v>
+        <v>2.67</v>
       </c>
       <c r="H31">
-        <v>4.35</v>
+        <v>3.4</v>
       </c>
       <c r="I31">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="J31">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K31">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="L31">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M31">
-        <v>4.3</v>
+        <v>4.17</v>
       </c>
       <c r="N31">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="O31">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="P31">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="Q31">
-        <v>3.36</v>
+        <v>3.33</v>
       </c>
       <c r="R31">
+        <v>1.59</v>
+      </c>
+      <c r="S31">
+        <v>2.29</v>
+      </c>
+      <c r="T31">
+        <v>1.57</v>
+      </c>
+      <c r="U31">
+        <v>1.29</v>
+      </c>
+      <c r="V31">
+        <v>1.44</v>
+      </c>
+      <c r="W31">
+        <v>1.53</v>
+      </c>
+      <c r="X31">
+        <v>1.11</v>
+      </c>
+      <c r="Y31">
+        <v>1.51</v>
+      </c>
+      <c r="Z31">
+        <v>1.46</v>
+      </c>
+      <c r="AA31">
+        <v>2.97</v>
+      </c>
+      <c r="AB31">
+        <v>2.3</v>
+      </c>
+      <c r="AC31">
+        <v>7</v>
+      </c>
+      <c r="AD31">
+        <v>1.91</v>
+      </c>
+      <c r="AE31">
+        <v>1.47</v>
+      </c>
+      <c r="AF31">
         <v>1.88</v>
       </c>
-      <c r="S31">
-        <v>1.88</v>
-      </c>
-      <c r="T31">
-        <v>1.09</v>
-      </c>
-      <c r="U31">
-        <v>1.18</v>
-      </c>
-      <c r="V31">
-        <v>2.84</v>
-      </c>
-      <c r="W31">
-        <v>1.89</v>
-      </c>
-      <c r="X31">
-        <v>1.28</v>
-      </c>
-      <c r="Y31">
-        <v>1.63</v>
-      </c>
-      <c r="Z31">
-        <v>1.41</v>
-      </c>
-      <c r="AA31">
-        <v>3.04</v>
-      </c>
-      <c r="AB31">
-        <v>1.38</v>
-      </c>
-      <c r="AC31">
-        <v>8</v>
-      </c>
-      <c r="AD31">
-        <v>4</v>
-      </c>
-      <c r="AE31">
-        <v>1.43</v>
-      </c>
-      <c r="AF31">
-        <v>1.8</v>
-      </c>
       <c r="AG31">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="AH31">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AI31">
-        <v>4.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -4327,25 +4300,25 @@
         <v>45079</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32">
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F32" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G32">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="H32">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>3.54</v>
       </c>
       <c r="J32">
         <v>1.02</v>
@@ -4354,16 +4327,16 @@
         <v>13</v>
       </c>
       <c r="L32">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N32">
         <v>1.45</v>
       </c>
       <c r="O32">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="P32">
         <v>1.25</v>
@@ -4372,58 +4345,58 @@
         <v>3.75</v>
       </c>
       <c r="R32">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S32">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="T32">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="U32">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="V32">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="W32">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="X32">
-        <v>3</v>
+        <v>0.83</v>
       </c>
       <c r="Y32">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="Z32">
-        <v>2.08</v>
+        <v>1.27</v>
       </c>
       <c r="AA32">
-        <v>3.98</v>
+        <v>2.87</v>
       </c>
       <c r="AB32">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AC32">
         <v>8.5</v>
       </c>
       <c r="AD32">
-        <v>2.43</v>
+        <v>2.53</v>
       </c>
       <c r="AE32">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AF32">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="AG32">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AH32">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="AI32">
-        <v>2.12</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -4434,25 +4407,25 @@
         <v>45079</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F33" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G33">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="H33">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I33">
-        <v>3.35</v>
+        <v>2.82</v>
       </c>
       <c r="J33">
         <v>1.02</v>
@@ -4461,16 +4434,16 @@
         <v>13</v>
       </c>
       <c r="L33">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="M33">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N33">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="O33">
-        <v>2.55</v>
+        <v>2.29</v>
       </c>
       <c r="P33">
         <v>1.25</v>
@@ -4479,58 +4452,58 @@
         <v>3.75</v>
       </c>
       <c r="R33">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S33">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="T33">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="U33">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="V33">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="W33">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="X33">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="Y33">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="Z33">
-        <v>1.27</v>
+        <v>2.08</v>
       </c>
       <c r="AA33">
-        <v>2.87</v>
+        <v>3.98</v>
       </c>
       <c r="AB33">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="AC33">
         <v>8.5</v>
       </c>
       <c r="AD33">
-        <v>2.53</v>
+        <v>2.43</v>
       </c>
       <c r="AE33">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AF33">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="AG33">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AH33">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="AI33">
-        <v>2.03</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -4541,25 +4514,25 @@
         <v>45079</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F34" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G34">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="H34">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>4.25</v>
+        <v>4.19</v>
       </c>
       <c r="J34">
         <v>1.02</v>
@@ -4574,10 +4547,10 @@
         <v>4.5</v>
       </c>
       <c r="N34">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="O34">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="P34">
         <v>1.29</v>
@@ -4601,10 +4574,10 @@
         <v>2.14</v>
       </c>
       <c r="W34">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="X34">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="Y34">
         <v>1.67</v>
@@ -4648,16 +4621,16 @@
         <v>45079</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D35">
         <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -4708,19 +4681,19 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>2.29</v>
+        <v>1.71</v>
       </c>
       <c r="X35">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="Y35">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="Z35">
-        <v>1.37</v>
+        <v>1.08</v>
       </c>
       <c r="AA35">
-        <v>3.18</v>
+        <v>2.7</v>
       </c>
       <c r="AB35">
         <v>0</v>
@@ -4749,109 +4722,109 @@
     </row>
     <row r="36" spans="1:35">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2">
         <v>45079</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F36" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="W36">
-        <v>1.82</v>
+        <v>2.14</v>
       </c>
       <c r="X36">
-        <v>2.09</v>
+        <v>1.71</v>
       </c>
       <c r="Y36">
-        <v>1.35</v>
+        <v>1.69</v>
       </c>
       <c r="Z36">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="AA36">
-        <v>2.4</v>
+        <v>2.81</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF36">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG36">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AI36">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -4862,210 +4835,210 @@
         <v>45079</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37">
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F37" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>4.04</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="W37">
-        <v>1.18</v>
+        <v>0.75</v>
       </c>
       <c r="X37">
-        <v>1.73</v>
+        <v>1</v>
       </c>
       <c r="Y37">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="Z37">
-        <v>1.23</v>
+        <v>1.68</v>
       </c>
       <c r="AA37">
-        <v>2.71</v>
+        <v>3.21</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG37">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AI37">
-        <v>0</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="38" spans="1:35">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2">
         <v>45079</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F38" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>3.59</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="W38">
-        <v>0.86</v>
+        <v>1.89</v>
       </c>
       <c r="X38">
-        <v>1.81</v>
+        <v>0.88</v>
       </c>
       <c r="Y38">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="Z38">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="AA38">
-        <v>2.46</v>
+        <v>2.61</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>4.12</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG38">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AI38">
-        <v>0</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -5076,103 +5049,103 @@
         <v>45079</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D39">
         <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F39" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W39">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="X39">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>1.97</v>
+        <v>1.57</v>
       </c>
       <c r="Z39">
-        <v>0.99</v>
+        <v>1.69</v>
       </c>
       <c r="AA39">
-        <v>2.96</v>
+        <v>3.26</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AG39">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AI39">
-        <v>0</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="40" spans="1:35">
@@ -5183,16 +5156,16 @@
         <v>45079</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D40">
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F40" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -5243,19 +5216,19 @@
         <v>0</v>
       </c>
       <c r="W40">
+        <v>1.13</v>
+      </c>
+      <c r="X40">
         <v>1</v>
       </c>
-      <c r="X40">
-        <v>1.71</v>
-      </c>
       <c r="Y40">
-        <v>2.05</v>
+        <v>1.33</v>
       </c>
       <c r="Z40">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="AA40">
-        <v>3.17</v>
+        <v>2.57</v>
       </c>
       <c r="AB40">
         <v>0</v>
@@ -5290,16 +5263,16 @@
         <v>45079</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41">
         <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F41" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -5350,19 +5323,19 @@
         <v>0</v>
       </c>
       <c r="W41">
-        <v>1.43</v>
+        <v>1.71</v>
       </c>
       <c r="X41">
-        <v>1.86</v>
+        <v>0.71</v>
       </c>
       <c r="Y41">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="Z41">
-        <v>1.3</v>
+        <v>1.03</v>
       </c>
       <c r="AA41">
-        <v>2.88</v>
+        <v>2.59</v>
       </c>
       <c r="AB41">
         <v>0</v>
@@ -5391,109 +5364,109 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2">
         <v>45079</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D42">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F42" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G42">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
         <v>1.29</v>
       </c>
-      <c r="Q42">
-        <v>3.25</v>
-      </c>
-      <c r="R42">
-        <v>1.87</v>
-      </c>
-      <c r="S42">
-        <v>1.87</v>
-      </c>
-      <c r="T42">
-        <v>1.06</v>
-      </c>
-      <c r="U42">
-        <v>1.15</v>
-      </c>
-      <c r="V42">
-        <v>2.6</v>
-      </c>
-      <c r="W42">
-        <v>2.5</v>
-      </c>
       <c r="X42">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Y42">
-        <v>1.72</v>
+        <v>1.52</v>
       </c>
       <c r="Z42">
-        <v>0.92</v>
+        <v>1.24</v>
       </c>
       <c r="AA42">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="AB42">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD42">
-        <v>5.15</v>
+        <v>0</v>
       </c>
       <c r="AE42">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AF42">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AG42">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AH42">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="AI42">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:35">
@@ -5504,16 +5477,16 @@
         <v>45079</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D43">
         <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F43" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -5564,19 +5537,19 @@
         <v>0</v>
       </c>
       <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
         <v>1.71</v>
       </c>
-      <c r="X43">
-        <v>0.71</v>
-      </c>
       <c r="Y43">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="Z43">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AA43">
-        <v>2.7</v>
+        <v>3.17</v>
       </c>
       <c r="AB43">
         <v>0</v>
@@ -5611,16 +5584,16 @@
         <v>45079</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D44">
         <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F44" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -5718,16 +5691,16 @@
         <v>45079</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D45">
         <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F45" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -5778,19 +5751,19 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>1.29</v>
+        <v>1.86</v>
       </c>
       <c r="X45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="Z45">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="AA45">
-        <v>2.76</v>
+        <v>2.69</v>
       </c>
       <c r="AB45">
         <v>0</v>
@@ -5825,16 +5798,16 @@
         <v>45079</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D46">
         <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F46" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -5885,19 +5858,19 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>1.71</v>
+        <v>1.43</v>
       </c>
       <c r="X46">
-        <v>0.71</v>
+        <v>1.86</v>
       </c>
       <c r="Y46">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="Z46">
-        <v>1.03</v>
+        <v>1.3</v>
       </c>
       <c r="AA46">
-        <v>2.59</v>
+        <v>2.88</v>
       </c>
       <c r="AB46">
         <v>0</v>
@@ -5932,16 +5905,16 @@
         <v>45079</v>
       </c>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D47">
         <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F47" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -5992,19 +5965,19 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <v>1.13</v>
+        <v>2.29</v>
       </c>
       <c r="X47">
         <v>1</v>
       </c>
       <c r="Y47">
-        <v>1.33</v>
+        <v>1.81</v>
       </c>
       <c r="Z47">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="AA47">
-        <v>2.57</v>
+        <v>3.18</v>
       </c>
       <c r="AB47">
         <v>0</v>
@@ -6039,108 +6012,108 @@
         <v>45079</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D48">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48" t="s">
+        <v>182</v>
+      </c>
+      <c r="G48">
+        <v>1.33</v>
+      </c>
+      <c r="H48">
+        <v>4.65</v>
+      </c>
+      <c r="I48">
+        <v>7.24</v>
+      </c>
+      <c r="J48">
+        <v>1.03</v>
+      </c>
+      <c r="K48">
+        <v>12</v>
+      </c>
+      <c r="L48">
+        <v>1.22</v>
+      </c>
+      <c r="M48">
+        <v>4</v>
+      </c>
+      <c r="N48">
+        <v>1.57</v>
+      </c>
+      <c r="O48">
+        <v>2.25</v>
+      </c>
+      <c r="P48">
+        <v>1.29</v>
+      </c>
+      <c r="Q48">
+        <v>3.25</v>
+      </c>
+      <c r="R48">
+        <v>1.87</v>
+      </c>
+      <c r="S48">
+        <v>1.87</v>
+      </c>
+      <c r="T48">
+        <v>1.06</v>
+      </c>
+      <c r="U48">
+        <v>1.15</v>
+      </c>
+      <c r="V48">
+        <v>2.6</v>
+      </c>
+      <c r="W48">
+        <v>2.5</v>
+      </c>
+      <c r="X48">
+        <v>1.2</v>
+      </c>
+      <c r="Y48">
+        <v>1.72</v>
+      </c>
+      <c r="Z48">
+        <v>0.92</v>
+      </c>
+      <c r="AA48">
+        <v>2.64</v>
+      </c>
+      <c r="AB48">
+        <v>1.23</v>
+      </c>
+      <c r="AC48">
         <v>10</v>
       </c>
-      <c r="E48" t="s">
-        <v>121</v>
-      </c>
-      <c r="F48" t="s">
-        <v>188</v>
-      </c>
-      <c r="G48">
-        <v>1.78</v>
-      </c>
-      <c r="H48">
-        <v>3.5</v>
-      </c>
-      <c r="I48">
-        <v>4.5</v>
-      </c>
-      <c r="J48">
-        <v>1.08</v>
-      </c>
-      <c r="K48">
-        <v>7</v>
-      </c>
-      <c r="L48">
-        <v>1.4</v>
-      </c>
-      <c r="M48">
-        <v>2.75</v>
-      </c>
-      <c r="N48">
-        <v>2.2</v>
-      </c>
-      <c r="O48">
-        <v>1.63</v>
-      </c>
-      <c r="P48">
-        <v>1.47</v>
-      </c>
-      <c r="Q48">
-        <v>2.5</v>
-      </c>
-      <c r="R48">
-        <v>2.05</v>
-      </c>
-      <c r="S48">
-        <v>1.66</v>
-      </c>
-      <c r="T48">
-        <v>1.18</v>
-      </c>
-      <c r="U48">
-        <v>1.3</v>
-      </c>
-      <c r="V48">
-        <v>1.98</v>
-      </c>
-      <c r="W48">
-        <v>0.75</v>
-      </c>
-      <c r="X48">
-        <v>1</v>
-      </c>
-      <c r="Y48">
-        <v>1.53</v>
-      </c>
-      <c r="Z48">
-        <v>1.68</v>
-      </c>
-      <c r="AA48">
-        <v>3.21</v>
-      </c>
-      <c r="AB48">
-        <v>1.43</v>
-      </c>
-      <c r="AC48">
-        <v>7.5</v>
-      </c>
       <c r="AD48">
-        <v>3.75</v>
+        <v>5.15</v>
       </c>
       <c r="AE48">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="AF48">
-        <v>1.29</v>
+        <v>1.56</v>
       </c>
       <c r="AG48">
-        <v>1.63</v>
+        <v>1.95</v>
       </c>
       <c r="AH48">
-        <v>1.98</v>
+        <v>2.41</v>
       </c>
       <c r="AI48">
-        <v>2.44</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="49" spans="1:35">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49" s="2">
         <v>45079</v>
@@ -6149,105 +6122,105 @@
         <v>67</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F49" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G49">
-        <v>1.95</v>
+        <v>1.25</v>
       </c>
       <c r="H49">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="I49">
+        <v>9.09</v>
+      </c>
+      <c r="J49">
+        <v>1.03</v>
+      </c>
+      <c r="K49">
+        <v>13</v>
+      </c>
+      <c r="L49">
+        <v>1.22</v>
+      </c>
+      <c r="M49">
         <v>4</v>
       </c>
-      <c r="J49">
+      <c r="N49">
+        <v>1.67</v>
+      </c>
+      <c r="O49">
+        <v>2.02</v>
+      </c>
+      <c r="P49">
+        <v>1.32</v>
+      </c>
+      <c r="Q49">
+        <v>3.1</v>
+      </c>
+      <c r="R49">
+        <v>2.3</v>
+      </c>
+      <c r="S49">
+        <v>1.57</v>
+      </c>
+      <c r="T49">
+        <v>1.04</v>
+      </c>
+      <c r="U49">
         <v>1.1</v>
       </c>
-      <c r="K49">
-        <v>6.5</v>
-      </c>
-      <c r="L49">
-        <v>1.44</v>
-      </c>
-      <c r="M49">
-        <v>2.62</v>
-      </c>
-      <c r="N49">
-        <v>2.35</v>
-      </c>
-      <c r="O49">
-        <v>1.55</v>
-      </c>
-      <c r="P49">
-        <v>1.5</v>
-      </c>
-      <c r="Q49">
-        <v>2.4</v>
-      </c>
-      <c r="R49">
-        <v>2.05</v>
-      </c>
-      <c r="S49">
-        <v>1.66</v>
-      </c>
-      <c r="T49">
-        <v>1.23</v>
-      </c>
-      <c r="U49">
-        <v>1.33</v>
-      </c>
       <c r="V49">
-        <v>1.8</v>
+        <v>2.81</v>
       </c>
       <c r="W49">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="X49">
         <v>0</v>
       </c>
       <c r="Y49">
-        <v>1.57</v>
+        <v>1.81</v>
       </c>
       <c r="Z49">
-        <v>1.69</v>
+        <v>1.06</v>
       </c>
       <c r="AA49">
-        <v>3.26</v>
+        <v>2.87</v>
       </c>
       <c r="AB49">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="AC49">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AD49">
-        <v>3.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AE49">
-        <v>1.12</v>
+        <v>1.26</v>
       </c>
       <c r="AF49">
-        <v>1.28</v>
+        <v>1.49</v>
       </c>
       <c r="AG49">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="AH49">
-        <v>1.91</v>
+        <v>2.45</v>
       </c>
       <c r="AI49">
-        <v>2.38</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="50" spans="1:35">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2">
         <v>45079</v>
@@ -6256,105 +6229,105 @@
         <v>67</v>
       </c>
       <c r="D50">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F50" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G50">
-        <v>1.52</v>
+        <v>2.45</v>
       </c>
       <c r="H50">
-        <v>3.59</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>5.7</v>
+        <v>2.68</v>
       </c>
       <c r="J50">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="O50">
+        <v>1.6</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0.5</v>
+      </c>
+      <c r="X50">
+        <v>0.5</v>
+      </c>
+      <c r="Y50">
+        <v>2.39</v>
+      </c>
+      <c r="Z50">
         <v>1.62</v>
       </c>
-      <c r="P50">
-        <v>1.48</v>
-      </c>
-      <c r="Q50">
-        <v>2.55</v>
-      </c>
-      <c r="R50">
-        <v>2.27</v>
-      </c>
-      <c r="S50">
-        <v>1.59</v>
-      </c>
-      <c r="T50">
-        <v>1.12</v>
-      </c>
-      <c r="U50">
-        <v>1.27</v>
-      </c>
-      <c r="V50">
-        <v>2.34</v>
-      </c>
-      <c r="W50">
-        <v>1.89</v>
-      </c>
-      <c r="X50">
-        <v>0.88</v>
-      </c>
-      <c r="Y50">
-        <v>1.5</v>
-      </c>
-      <c r="Z50">
-        <v>1.11</v>
-      </c>
       <c r="AA50">
-        <v>2.61</v>
+        <v>4.01</v>
       </c>
       <c r="AB50">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AD50">
-        <v>4.12</v>
+        <v>0</v>
       </c>
       <c r="AE50">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AF50">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AG50">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AH50">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AI50">
-        <v>3.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:35">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B51" s="2">
         <v>45079</v>
@@ -6363,129 +6336,129 @@
         <v>67</v>
       </c>
       <c r="D51">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F51" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>5.13</v>
       </c>
       <c r="H51">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>3.35</v>
+        <v>1.55</v>
       </c>
       <c r="J51">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K51">
-        <v>6.7</v>
+        <v>12.25</v>
       </c>
       <c r="L51">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="M51">
-        <v>2.53</v>
+        <v>3.4</v>
       </c>
       <c r="N51">
-        <v>2.35</v>
+        <v>1.9</v>
       </c>
       <c r="O51">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="P51">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="Q51">
-        <v>2.44</v>
+        <v>3.04</v>
       </c>
       <c r="R51">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="S51">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="T51">
+        <v>2.15</v>
+      </c>
+      <c r="U51">
+        <v>1.23</v>
+      </c>
+      <c r="V51">
+        <v>1.14</v>
+      </c>
+      <c r="W51">
+        <v>1.22</v>
+      </c>
+      <c r="X51">
+        <v>1.83</v>
+      </c>
+      <c r="Y51">
         <v>1.28</v>
       </c>
-      <c r="U51">
-        <v>1.34</v>
-      </c>
-      <c r="V51">
-        <v>1.71</v>
-      </c>
-      <c r="W51">
-        <v>2.14</v>
-      </c>
-      <c r="X51">
-        <v>1.71</v>
-      </c>
-      <c r="Y51">
-        <v>1.69</v>
-      </c>
       <c r="Z51">
-        <v>1.12</v>
+        <v>1.76</v>
       </c>
       <c r="AA51">
-        <v>2.81</v>
+        <v>3.04</v>
       </c>
       <c r="AB51">
-        <v>1.62</v>
+        <v>3.34</v>
       </c>
       <c r="AC51">
-        <v>8.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD51">
-        <v>2.77</v>
+        <v>1.43</v>
       </c>
       <c r="AE51">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AF51">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="AG51">
-        <v>1.76</v>
+        <v>2.03</v>
       </c>
       <c r="AH51">
-        <v>2.18</v>
+        <v>2.62</v>
       </c>
       <c r="AI51">
-        <v>2.7</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="52" spans="1:35">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B52" s="2">
         <v>45079</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D52">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F52" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -6500,10 +6473,10 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -6527,19 +6500,19 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>1.86</v>
+        <v>1.6</v>
       </c>
       <c r="X52">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Y52">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="Z52">
-        <v>1.1</v>
+        <v>1.35</v>
       </c>
       <c r="AA52">
-        <v>2.69</v>
+        <v>2.81</v>
       </c>
       <c r="AB52">
         <v>0</v>
@@ -6568,7 +6541,7 @@
     </row>
     <row r="53" spans="1:35">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2">
         <v>45079</v>
@@ -6577,22 +6550,22 @@
         <v>68</v>
       </c>
       <c r="D53">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F53" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G53">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="H53">
         <v>3</v>
       </c>
       <c r="I53">
-        <v>2.44</v>
+        <v>2.45</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -6607,46 +6580,46 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>2.19</v>
+        <v>1.96</v>
       </c>
       <c r="O53">
+        <v>1.75</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
         <v>1.6</v>
       </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0.5</v>
-      </c>
       <c r="X53">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="Y53">
-        <v>2.39</v>
+        <v>1.28</v>
       </c>
       <c r="Z53">
-        <v>1.62</v>
+        <v>1.39</v>
       </c>
       <c r="AA53">
-        <v>4.01</v>
+        <v>2.67</v>
       </c>
       <c r="AB53">
         <v>0</v>
@@ -6675,7 +6648,7 @@
     </row>
     <row r="54" spans="1:35">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2">
         <v>45079</v>
@@ -6684,105 +6657,105 @@
         <v>68</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F54" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G54">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="H54">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="I54">
-        <v>1.5</v>
+        <v>2.73</v>
       </c>
       <c r="J54">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="N54">
+        <v>1.96</v>
+      </c>
+      <c r="O54">
         <v>1.75</v>
       </c>
-      <c r="O54">
-        <v>1.87</v>
-      </c>
       <c r="P54">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="S54">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="T54">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="U54">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="V54">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="W54">
-        <v>1.22</v>
+        <v>1.7</v>
       </c>
       <c r="X54">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="Y54">
-        <v>1.28</v>
+        <v>1.49</v>
       </c>
       <c r="Z54">
-        <v>1.76</v>
+        <v>1.56</v>
       </c>
       <c r="AA54">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="AB54">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AD54">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AE54">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AF54">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="AG54">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="AH54">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="AI54">
-        <v>3.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:35">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2">
         <v>45079</v>
@@ -6791,97 +6764,97 @@
         <v>68</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F55" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G55">
-        <v>1.28</v>
+        <v>1.74</v>
       </c>
       <c r="H55">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="I55">
-        <v>8.5</v>
+        <v>3.92</v>
       </c>
       <c r="J55">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K55">
-        <v>13</v>
+        <v>13.25</v>
       </c>
       <c r="L55">
+        <v>1.25</v>
+      </c>
+      <c r="M55">
+        <v>3.6</v>
+      </c>
+      <c r="N55">
+        <v>1.77</v>
+      </c>
+      <c r="O55">
+        <v>1.94</v>
+      </c>
+      <c r="P55">
+        <v>1.35</v>
+      </c>
+      <c r="Q55">
+        <v>2.94</v>
+      </c>
+      <c r="R55">
+        <v>1.69</v>
+      </c>
+      <c r="S55">
+        <v>2.11</v>
+      </c>
+      <c r="T55">
+        <v>1.21</v>
+      </c>
+      <c r="U55">
+        <v>1.24</v>
+      </c>
+      <c r="V55">
+        <v>1.88</v>
+      </c>
+      <c r="W55">
+        <v>1.57</v>
+      </c>
+      <c r="X55">
+        <v>1.4</v>
+      </c>
+      <c r="Y55">
+        <v>1.27</v>
+      </c>
+      <c r="Z55">
         <v>1.22</v>
       </c>
-      <c r="M55">
-        <v>4</v>
-      </c>
-      <c r="N55">
-        <v>1.75</v>
-      </c>
-      <c r="O55">
-        <v>1.95</v>
-      </c>
-      <c r="P55">
-        <v>1.32</v>
-      </c>
-      <c r="Q55">
-        <v>3.1</v>
-      </c>
-      <c r="R55">
-        <v>2.3</v>
-      </c>
-      <c r="S55">
-        <v>1.57</v>
-      </c>
-      <c r="T55">
-        <v>1.04</v>
-      </c>
-      <c r="U55">
-        <v>1.1</v>
-      </c>
-      <c r="V55">
-        <v>2.81</v>
-      </c>
-      <c r="W55">
-        <v>2.14</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <v>1.81</v>
-      </c>
-      <c r="Z55">
-        <v>1.06</v>
-      </c>
       <c r="AA55">
-        <v>2.87</v>
+        <v>2.49</v>
       </c>
       <c r="AB55">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AC55">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AD55">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AE55">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF55">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG55">
-        <v>1.93</v>
+        <v>2.22</v>
       </c>
       <c r="AH55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI55">
         <v>0</v>
@@ -6889,7 +6862,7 @@
     </row>
     <row r="56" spans="1:35">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2">
         <v>45079</v>
@@ -6898,76 +6871,76 @@
         <v>69</v>
       </c>
       <c r="D56">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F56" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G56">
-        <v>2.6</v>
+        <v>1.57</v>
       </c>
       <c r="H56">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="I56">
-        <v>2.55</v>
+        <v>4.6</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="N56">
-        <v>1.9</v>
+        <v>2.33</v>
       </c>
       <c r="O56">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="R56">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="W56">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="X56">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Y56">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="Z56">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="AA56">
-        <v>2.81</v>
+        <v>2.92</v>
       </c>
       <c r="AB56">
         <v>0</v>
@@ -6996,328 +6969,328 @@
     </row>
     <row r="57" spans="1:35">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B57" s="2">
         <v>45079</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D57">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F57" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G57">
-        <v>2.35</v>
+        <v>1.65</v>
       </c>
       <c r="H57">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="I57">
+        <v>4.83</v>
+      </c>
+      <c r="J57">
+        <v>1.08</v>
+      </c>
+      <c r="K57">
+        <v>7</v>
+      </c>
+      <c r="L57">
+        <v>1.45</v>
+      </c>
+      <c r="M57">
         <v>2.65</v>
       </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
       <c r="N57">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O57">
+        <v>1.57</v>
+      </c>
+      <c r="P57">
+        <v>1.5</v>
+      </c>
+      <c r="Q57">
+        <v>2.4</v>
+      </c>
+      <c r="R57">
+        <v>2.2</v>
+      </c>
+      <c r="S57">
+        <v>1.58</v>
+      </c>
+      <c r="T57">
+        <v>1.18</v>
+      </c>
+      <c r="U57">
+        <v>1.29</v>
+      </c>
+      <c r="V57">
+        <v>2</v>
+      </c>
+      <c r="W57">
+        <v>2.25</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
         <v>1.75</v>
       </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>1.7</v>
-      </c>
-      <c r="X57">
-        <v>2.2</v>
-      </c>
-      <c r="Y57">
+      <c r="Z57">
+        <v>1.34</v>
+      </c>
+      <c r="AA57">
+        <v>3.09</v>
+      </c>
+      <c r="AB57">
+        <v>1.38</v>
+      </c>
+      <c r="AC57">
+        <v>8</v>
+      </c>
+      <c r="AD57">
+        <v>4</v>
+      </c>
+      <c r="AE57">
+        <v>1.27</v>
+      </c>
+      <c r="AF57">
         <v>1.49</v>
       </c>
-      <c r="Z57">
-        <v>1.56</v>
-      </c>
-      <c r="AA57">
-        <v>3.05</v>
-      </c>
-      <c r="AB57">
-        <v>0</v>
-      </c>
-      <c r="AC57">
-        <v>0</v>
-      </c>
-      <c r="AD57">
-        <v>0</v>
-      </c>
-      <c r="AE57">
-        <v>0</v>
-      </c>
-      <c r="AF57">
-        <v>0</v>
-      </c>
       <c r="AG57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH57">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AI57">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="58" spans="1:35">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B58" s="2">
         <v>45079</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F58" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G58">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="H58">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I58">
-        <v>3.55</v>
+        <v>3.34</v>
       </c>
       <c r="J58">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="K58">
-        <v>13.25</v>
+        <v>7.25</v>
       </c>
       <c r="L58">
+        <v>1.4</v>
+      </c>
+      <c r="M58">
+        <v>2.8</v>
+      </c>
+      <c r="N58">
+        <v>2.11</v>
+      </c>
+      <c r="O58">
+        <v>1.65</v>
+      </c>
+      <c r="P58">
+        <v>1.47</v>
+      </c>
+      <c r="Q58">
+        <v>2.45</v>
+      </c>
+      <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
+        <v>1.73</v>
+      </c>
+      <c r="T58">
+        <v>1.27</v>
+      </c>
+      <c r="U58">
+        <v>1.33</v>
+      </c>
+      <c r="V58">
+        <v>1.71</v>
+      </c>
+      <c r="W58">
+        <v>2.4</v>
+      </c>
+      <c r="X58">
         <v>1.25</v>
       </c>
-      <c r="M58">
-        <v>3.6</v>
-      </c>
-      <c r="N58">
-        <v>1.73</v>
-      </c>
-      <c r="O58">
-        <v>1.87</v>
-      </c>
-      <c r="P58">
-        <v>1.35</v>
-      </c>
-      <c r="Q58">
-        <v>2.94</v>
-      </c>
-      <c r="R58">
-        <v>1.69</v>
-      </c>
-      <c r="S58">
-        <v>2.11</v>
-      </c>
-      <c r="T58">
-        <v>1.21</v>
-      </c>
-      <c r="U58">
-        <v>1.24</v>
-      </c>
-      <c r="V58">
-        <v>1.88</v>
-      </c>
-      <c r="W58">
-        <v>1.57</v>
-      </c>
-      <c r="X58">
-        <v>1.4</v>
-      </c>
       <c r="Y58">
-        <v>1.27</v>
+        <v>1.85</v>
       </c>
       <c r="Z58">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AA58">
-        <v>2.49</v>
+        <v>3.23</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AC58">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD58">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AE58">
-        <v>1.4</v>
+        <v>1.07</v>
       </c>
       <c r="AF58">
-        <v>1.9</v>
+        <v>1.17</v>
       </c>
       <c r="AG58">
-        <v>2.22</v>
+        <v>1.33</v>
       </c>
       <c r="AH58">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="AI58">
-        <v>0</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="59" spans="1:35">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B59" s="2">
         <v>45079</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D59">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F59" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="G59">
-        <v>2.7</v>
+        <v>1.25</v>
       </c>
       <c r="H59">
-        <v>2.95</v>
+        <v>5.35</v>
       </c>
       <c r="I59">
-        <v>2.4</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N59">
-        <v>1.95</v>
+        <v>1.63</v>
       </c>
       <c r="O59">
-        <v>1.75</v>
+        <v>2.14</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R59">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="V59">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W59">
         <v>1.6</v>
       </c>
       <c r="X59">
-        <v>1.2</v>
+        <v>0.33</v>
       </c>
       <c r="Y59">
-        <v>1.28</v>
+        <v>1.91</v>
       </c>
       <c r="Z59">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="AA59">
-        <v>2.67</v>
+        <v>3.09</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AC59">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="AD59">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AE59">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF59">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG59">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH59">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AI59">
-        <v>0</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="60" spans="1:35">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B60" s="2">
         <v>45079</v>
@@ -7326,129 +7299,129 @@
         <v>70</v>
       </c>
       <c r="D60">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F60" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G60">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="H60">
-        <v>3.5</v>
+        <v>3.58</v>
       </c>
       <c r="I60">
-        <v>4.5</v>
+        <v>5.65</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L60">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M60">
-        <v>2.51</v>
+        <v>2.75</v>
       </c>
       <c r="N60">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="O60">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P60">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="Q60">
-        <v>2.39</v>
+        <v>2.58</v>
       </c>
       <c r="R60">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="S60">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="T60">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="U60">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="V60">
-        <v>1.94</v>
+        <v>2.24</v>
       </c>
       <c r="W60">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="X60">
+        <v>0.88</v>
+      </c>
+      <c r="Y60">
+        <v>1.95</v>
+      </c>
+      <c r="Z60">
+        <v>1.19</v>
+      </c>
+      <c r="AA60">
+        <v>3.14</v>
+      </c>
+      <c r="AB60">
+        <v>1.41</v>
+      </c>
+      <c r="AC60">
+        <v>9</v>
+      </c>
+      <c r="AD60">
+        <v>3.66</v>
+      </c>
+      <c r="AE60">
         <v>1.33</v>
       </c>
-      <c r="Y60">
-        <v>1.35</v>
-      </c>
-      <c r="Z60">
-        <v>1.57</v>
-      </c>
-      <c r="AA60">
-        <v>2.92</v>
-      </c>
-      <c r="AB60">
-        <v>0</v>
-      </c>
-      <c r="AC60">
-        <v>0</v>
-      </c>
-      <c r="AD60">
-        <v>0</v>
-      </c>
-      <c r="AE60">
-        <v>0</v>
-      </c>
       <c r="AF60">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG60">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AH60">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AI60">
-        <v>0</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="61" spans="1:35">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B61" s="2">
         <v>45079</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D61">
         <v>19</v>
       </c>
       <c r="E61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F61" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G61">
-        <v>1.58</v>
+        <v>2.83</v>
       </c>
       <c r="H61">
-        <v>3.58</v>
+        <v>3.22</v>
       </c>
       <c r="I61">
-        <v>5.65</v>
+        <v>2.54</v>
       </c>
       <c r="J61">
         <v>1.08</v>
@@ -7463,55 +7436,55 @@
         <v>2.75</v>
       </c>
       <c r="N61">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O61">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P61">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q61">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="R61">
-        <v>2.16</v>
+        <v>1.91</v>
       </c>
       <c r="S61">
+        <v>1.8</v>
+      </c>
+      <c r="T61">
+        <v>1.5</v>
+      </c>
+      <c r="U61">
+        <v>1.35</v>
+      </c>
+      <c r="V61">
+        <v>1.4</v>
+      </c>
+      <c r="W61">
+        <v>1.5</v>
+      </c>
+      <c r="X61">
+        <v>1.88</v>
+      </c>
+      <c r="Y61">
         <v>1.66</v>
       </c>
-      <c r="T61">
-        <v>1.14</v>
-      </c>
-      <c r="U61">
-        <v>1.27</v>
-      </c>
-      <c r="V61">
-        <v>2.24</v>
-      </c>
-      <c r="W61">
-        <v>1.75</v>
-      </c>
-      <c r="X61">
-        <v>0.88</v>
-      </c>
-      <c r="Y61">
-        <v>1.95</v>
-      </c>
       <c r="Z61">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="AA61">
-        <v>3.14</v>
+        <v>2.99</v>
       </c>
       <c r="AB61">
-        <v>1.41</v>
+        <v>2.05</v>
       </c>
       <c r="AC61">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AD61">
-        <v>3.66</v>
+        <v>2</v>
       </c>
       <c r="AE61">
         <v>1.33</v>
@@ -7531,7 +7504,7 @@
     </row>
     <row r="62" spans="1:35">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B62" s="2">
         <v>45079</v>
@@ -7540,105 +7513,105 @@
         <v>71</v>
       </c>
       <c r="D62">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F62" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G62">
-        <v>1.72</v>
+        <v>2.2</v>
       </c>
       <c r="H62">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I62">
-        <v>5</v>
+        <v>2.85</v>
       </c>
       <c r="J62">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="K62">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L62">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="M62">
-        <v>2.65</v>
+        <v>3.62</v>
       </c>
       <c r="N62">
-        <v>2.35</v>
+        <v>1.81</v>
       </c>
       <c r="O62">
+        <v>1.89</v>
+      </c>
+      <c r="P62">
+        <v>1.35</v>
+      </c>
+      <c r="Q62">
+        <v>2.94</v>
+      </c>
+      <c r="R62">
+        <v>1.67</v>
+      </c>
+      <c r="S62">
+        <v>2.15</v>
+      </c>
+      <c r="T62">
+        <v>1.28</v>
+      </c>
+      <c r="U62">
+        <v>1.26</v>
+      </c>
+      <c r="V62">
+        <v>1.71</v>
+      </c>
+      <c r="W62">
+        <v>1.75</v>
+      </c>
+      <c r="X62">
+        <v>1.17</v>
+      </c>
+      <c r="Y62">
         <v>1.55</v>
       </c>
-      <c r="P62">
-        <v>1.5</v>
-      </c>
-      <c r="Q62">
-        <v>2.4</v>
-      </c>
-      <c r="R62">
-        <v>2.2</v>
-      </c>
-      <c r="S62">
-        <v>1.58</v>
-      </c>
-      <c r="T62">
-        <v>1.18</v>
-      </c>
-      <c r="U62">
-        <v>1.29</v>
-      </c>
-      <c r="V62">
-        <v>2</v>
-      </c>
-      <c r="W62">
-        <v>2.25</v>
-      </c>
-      <c r="X62">
-        <v>0</v>
-      </c>
-      <c r="Y62">
-        <v>1.75</v>
-      </c>
       <c r="Z62">
-        <v>1.34</v>
+        <v>1.59</v>
       </c>
       <c r="AA62">
-        <v>3.09</v>
+        <v>3.14</v>
       </c>
       <c r="AB62">
-        <v>1.38</v>
+        <v>1.74</v>
       </c>
       <c r="AC62">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD62">
-        <v>4</v>
+        <v>2.62</v>
       </c>
       <c r="AE62">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="AF62">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AG62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AH62">
-        <v>2.45</v>
+        <v>2.16</v>
       </c>
       <c r="AI62">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="63" spans="1:35">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B63" s="2">
         <v>45079</v>
@@ -7647,741 +7620,313 @@
         <v>71</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F63" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G63">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="H63">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I63">
-        <v>3.75</v>
+        <v>2.66</v>
       </c>
       <c r="J63">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="K63">
-        <v>7.25</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L63">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="M63">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N63">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O63">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="P63">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="Q63">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>1.66</v>
       </c>
       <c r="S63">
-        <v>1.73</v>
+        <v>2.16</v>
       </c>
       <c r="T63">
+        <v>1.52</v>
+      </c>
+      <c r="U63">
         <v>1.27</v>
       </c>
-      <c r="U63">
-        <v>1.33</v>
-      </c>
       <c r="V63">
-        <v>1.71</v>
+        <v>1.41</v>
       </c>
       <c r="W63">
-        <v>2.4</v>
+        <v>1.38</v>
       </c>
       <c r="X63">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="Y63">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="Z63">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="AA63">
-        <v>3.23</v>
+        <v>3.07</v>
       </c>
       <c r="AB63">
-        <v>1.48</v>
+        <v>1.86</v>
       </c>
       <c r="AC63">
-        <v>8.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD63">
-        <v>3.3</v>
+        <v>2.23</v>
       </c>
       <c r="AE63">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="AF63">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AG63">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="AH63">
-        <v>1.6</v>
+        <v>1.87</v>
       </c>
       <c r="AI63">
-        <v>1.98</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="64" spans="1:35">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B64" s="2">
         <v>45079</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D64">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F64" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G64">
-        <v>2.83</v>
+        <v>1.29</v>
       </c>
       <c r="H64">
-        <v>3.22</v>
+        <v>4.34</v>
       </c>
       <c r="I64">
-        <v>2.54</v>
+        <v>7.43</v>
       </c>
       <c r="J64">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="K64">
-        <v>7</v>
+        <v>9.9</v>
       </c>
       <c r="L64">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="M64">
-        <v>2.75</v>
+        <v>3.55</v>
       </c>
       <c r="N64">
-        <v>2.25</v>
+        <v>1.74</v>
       </c>
       <c r="O64">
-        <v>1.6</v>
+        <v>1.87</v>
       </c>
       <c r="P64">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="Q64">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R64">
+        <v>2.1</v>
+      </c>
+      <c r="S64">
+        <v>1.7</v>
+      </c>
+      <c r="T64">
+        <v>1.05</v>
+      </c>
+      <c r="U64">
+        <v>1.18</v>
+      </c>
+      <c r="V64">
+        <v>2.92</v>
+      </c>
+      <c r="W64">
+        <v>2.63</v>
+      </c>
+      <c r="X64">
+        <v>1</v>
+      </c>
+      <c r="Y64">
+        <v>1.95</v>
+      </c>
+      <c r="Z64">
+        <v>1.25</v>
+      </c>
+      <c r="AA64">
+        <v>3.2</v>
+      </c>
+      <c r="AB64">
+        <v>1.18</v>
+      </c>
+      <c r="AC64">
+        <v>12.75</v>
+      </c>
+      <c r="AD64">
+        <v>5.95</v>
+      </c>
+      <c r="AE64">
+        <v>1.17</v>
+      </c>
+      <c r="AF64">
+        <v>1.3</v>
+      </c>
+      <c r="AG64">
+        <v>1.54</v>
+      </c>
+      <c r="AH64">
         <v>1.91</v>
       </c>
-      <c r="S64">
-        <v>1.8</v>
-      </c>
-      <c r="T64">
-        <v>1.5</v>
-      </c>
-      <c r="U64">
-        <v>1.35</v>
-      </c>
-      <c r="V64">
-        <v>1.4</v>
-      </c>
-      <c r="W64">
-        <v>1.5</v>
-      </c>
-      <c r="X64">
-        <v>1.88</v>
-      </c>
-      <c r="Y64">
-        <v>1.66</v>
-      </c>
-      <c r="Z64">
-        <v>1.33</v>
-      </c>
-      <c r="AA64">
-        <v>2.99</v>
-      </c>
-      <c r="AB64">
-        <v>2.05</v>
-      </c>
-      <c r="AC64">
-        <v>7.5</v>
-      </c>
-      <c r="AD64">
-        <v>2</v>
-      </c>
-      <c r="AE64">
-        <v>1.33</v>
-      </c>
-      <c r="AF64">
-        <v>1.6</v>
-      </c>
-      <c r="AG64">
-        <v>2.04</v>
-      </c>
-      <c r="AH64">
-        <v>2.75</v>
-      </c>
       <c r="AI64">
-        <v>3.85</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="65" spans="1:35">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B65" s="2">
         <v>45079</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D65">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F65" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G65">
-        <v>1.3</v>
+        <v>3.98</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="I65">
-        <v>9</v>
+        <v>1.82</v>
       </c>
       <c r="J65">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K65">
-        <v>13.5</v>
+        <v>10.75</v>
       </c>
       <c r="L65">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="M65">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="N65">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="O65">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="P65">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="Q65">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="R65">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="S65">
         <v>1.8</v>
       </c>
       <c r="T65">
-        <v>1.08</v>
+        <v>1.95</v>
       </c>
       <c r="U65">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="V65">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="W65">
-        <v>1.6</v>
+        <v>0.67</v>
       </c>
       <c r="X65">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="Y65">
-        <v>1.91</v>
+        <v>1.11</v>
       </c>
       <c r="Z65">
-        <v>1.18</v>
+        <v>1.68</v>
       </c>
       <c r="AA65">
-        <v>3.09</v>
+        <v>2.79</v>
       </c>
       <c r="AB65">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>10.75</v>
+        <v>0</v>
       </c>
       <c r="AD65">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="AE65">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AF65">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AG65">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AH65">
-        <v>2.57</v>
+        <v>0</v>
       </c>
       <c r="AI65">
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:35">
-      <c r="A66" t="s">
-        <v>54</v>
-      </c>
-      <c r="B66" s="2">
-        <v>45079</v>
-      </c>
-      <c r="C66" t="s">
-        <v>72</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
-        <v>138</v>
-      </c>
-      <c r="F66" t="s">
-        <v>203</v>
-      </c>
-      <c r="G66">
-        <v>1.88</v>
-      </c>
-      <c r="H66">
-        <v>3.28</v>
-      </c>
-      <c r="I66">
-        <v>3.15</v>
-      </c>
-      <c r="J66">
-        <v>1.04</v>
-      </c>
-      <c r="K66">
-        <v>13</v>
-      </c>
-      <c r="L66">
-        <v>1.24</v>
-      </c>
-      <c r="M66">
-        <v>3.62</v>
-      </c>
-      <c r="N66">
-        <v>1.84</v>
-      </c>
-      <c r="O66">
-        <v>1.94</v>
-      </c>
-      <c r="P66">
-        <v>1.35</v>
-      </c>
-      <c r="Q66">
-        <v>2.94</v>
-      </c>
-      <c r="R66">
-        <v>1.67</v>
-      </c>
-      <c r="S66">
-        <v>2.15</v>
-      </c>
-      <c r="T66">
-        <v>1.28</v>
-      </c>
-      <c r="U66">
-        <v>1.26</v>
-      </c>
-      <c r="V66">
-        <v>1.71</v>
-      </c>
-      <c r="W66">
-        <v>1.75</v>
-      </c>
-      <c r="X66">
-        <v>1.17</v>
-      </c>
-      <c r="Y66">
-        <v>1.55</v>
-      </c>
-      <c r="Z66">
-        <v>1.59</v>
-      </c>
-      <c r="AA66">
-        <v>3.14</v>
-      </c>
-      <c r="AB66">
-        <v>1.74</v>
-      </c>
-      <c r="AC66">
-        <v>7.5</v>
-      </c>
-      <c r="AD66">
-        <v>2.62</v>
-      </c>
-      <c r="AE66">
-        <v>1.21</v>
-      </c>
-      <c r="AF66">
-        <v>1.4</v>
-      </c>
-      <c r="AG66">
-        <v>1.85</v>
-      </c>
-      <c r="AH66">
-        <v>2.16</v>
-      </c>
-      <c r="AI66">
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:35">
-      <c r="A67" t="s">
-        <v>56</v>
-      </c>
-      <c r="B67" s="2">
-        <v>45079</v>
-      </c>
-      <c r="C67" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67">
-        <v>18</v>
-      </c>
-      <c r="E67" t="s">
-        <v>139</v>
-      </c>
-      <c r="F67" t="s">
-        <v>204</v>
-      </c>
-      <c r="G67">
-        <v>2.95</v>
-      </c>
-      <c r="H67">
-        <v>3.4</v>
-      </c>
-      <c r="I67">
-        <v>2.41</v>
-      </c>
-      <c r="J67">
-        <v>1.01</v>
-      </c>
-      <c r="K67">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="L67">
-        <v>1.24</v>
-      </c>
-      <c r="M67">
-        <v>3.6</v>
-      </c>
-      <c r="N67">
-        <v>1.84</v>
-      </c>
-      <c r="O67">
-        <v>1.98</v>
-      </c>
-      <c r="P67">
-        <v>1.36</v>
-      </c>
-      <c r="Q67">
-        <v>3</v>
-      </c>
-      <c r="R67">
-        <v>1.66</v>
-      </c>
-      <c r="S67">
-        <v>2.16</v>
-      </c>
-      <c r="T67">
-        <v>1.52</v>
-      </c>
-      <c r="U67">
-        <v>1.27</v>
-      </c>
-      <c r="V67">
-        <v>1.41</v>
-      </c>
-      <c r="W67">
-        <v>1.38</v>
-      </c>
-      <c r="X67">
-        <v>1.88</v>
-      </c>
-      <c r="Y67">
-        <v>1.91</v>
-      </c>
-      <c r="Z67">
-        <v>1.16</v>
-      </c>
-      <c r="AA67">
-        <v>3.07</v>
-      </c>
-      <c r="AB67">
-        <v>1.86</v>
-      </c>
-      <c r="AC67">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AD67">
-        <v>2.23</v>
-      </c>
-      <c r="AE67">
-        <v>1.15</v>
-      </c>
-      <c r="AF67">
-        <v>1.27</v>
-      </c>
-      <c r="AG67">
-        <v>1.51</v>
-      </c>
-      <c r="AH67">
-        <v>1.87</v>
-      </c>
-      <c r="AI67">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35">
-      <c r="A68" t="s">
-        <v>56</v>
-      </c>
-      <c r="B68" s="2">
-        <v>45079</v>
-      </c>
-      <c r="C68" t="s">
-        <v>73</v>
-      </c>
-      <c r="D68">
-        <v>18</v>
-      </c>
-      <c r="E68" t="s">
-        <v>140</v>
-      </c>
-      <c r="F68" t="s">
-        <v>205</v>
-      </c>
-      <c r="G68">
-        <v>1.29</v>
-      </c>
-      <c r="H68">
-        <v>4.34</v>
-      </c>
-      <c r="I68">
-        <v>7.43</v>
-      </c>
-      <c r="J68">
-        <v>1.01</v>
-      </c>
-      <c r="K68">
-        <v>9.9</v>
-      </c>
-      <c r="L68">
-        <v>1.24</v>
-      </c>
-      <c r="M68">
-        <v>3.55</v>
-      </c>
-      <c r="N68">
-        <v>1.74</v>
-      </c>
-      <c r="O68">
-        <v>1.87</v>
-      </c>
-      <c r="P68">
-        <v>1.36</v>
-      </c>
-      <c r="Q68">
-        <v>3</v>
-      </c>
-      <c r="R68">
-        <v>2.1</v>
-      </c>
-      <c r="S68">
-        <v>1.7</v>
-      </c>
-      <c r="T68">
-        <v>1.05</v>
-      </c>
-      <c r="U68">
-        <v>1.18</v>
-      </c>
-      <c r="V68">
-        <v>2.92</v>
-      </c>
-      <c r="W68">
-        <v>2.63</v>
-      </c>
-      <c r="X68">
-        <v>1</v>
-      </c>
-      <c r="Y68">
-        <v>1.95</v>
-      </c>
-      <c r="Z68">
-        <v>1.25</v>
-      </c>
-      <c r="AA68">
-        <v>3.2</v>
-      </c>
-      <c r="AB68">
-        <v>1.18</v>
-      </c>
-      <c r="AC68">
-        <v>12.75</v>
-      </c>
-      <c r="AD68">
-        <v>5.95</v>
-      </c>
-      <c r="AE68">
-        <v>1.17</v>
-      </c>
-      <c r="AF68">
-        <v>1.3</v>
-      </c>
-      <c r="AG68">
-        <v>1.54</v>
-      </c>
-      <c r="AH68">
-        <v>1.91</v>
-      </c>
-      <c r="AI68">
-        <v>2.44</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35">
-      <c r="A69" t="s">
-        <v>57</v>
-      </c>
-      <c r="B69" s="2">
-        <v>45079</v>
-      </c>
-      <c r="C69" t="s">
-        <v>74</v>
-      </c>
-      <c r="D69">
-        <v>8</v>
-      </c>
-      <c r="E69" t="s">
-        <v>141</v>
-      </c>
-      <c r="F69" t="s">
-        <v>206</v>
-      </c>
-      <c r="G69">
-        <v>3.85</v>
-      </c>
-      <c r="H69">
-        <v>3.45</v>
-      </c>
-      <c r="I69">
-        <v>1.92</v>
-      </c>
-      <c r="J69">
-        <v>1.04</v>
-      </c>
-      <c r="K69">
-        <v>10.75</v>
-      </c>
-      <c r="L69">
-        <v>1.28</v>
-      </c>
-      <c r="M69">
-        <v>3.35</v>
-      </c>
-      <c r="N69">
-        <v>1.9</v>
-      </c>
-      <c r="O69">
-        <v>1.8</v>
-      </c>
-      <c r="P69">
-        <v>1.44</v>
-      </c>
-      <c r="Q69">
-        <v>2.63</v>
-      </c>
-      <c r="R69">
-        <v>1.91</v>
-      </c>
-      <c r="S69">
-        <v>1.8</v>
-      </c>
-      <c r="T69">
-        <v>1.95</v>
-      </c>
-      <c r="U69">
-        <v>1.27</v>
-      </c>
-      <c r="V69">
-        <v>1.2</v>
-      </c>
-      <c r="W69">
-        <v>0.67</v>
-      </c>
-      <c r="X69">
-        <v>2</v>
-      </c>
-      <c r="Y69">
-        <v>1.11</v>
-      </c>
-      <c r="Z69">
-        <v>1.68</v>
-      </c>
-      <c r="AA69">
-        <v>2.79</v>
-      </c>
-      <c r="AB69">
-        <v>0</v>
-      </c>
-      <c r="AC69">
-        <v>0</v>
-      </c>
-      <c r="AD69">
-        <v>0</v>
-      </c>
-      <c r="AE69">
-        <v>0</v>
-      </c>
-      <c r="AF69">
-        <v>0</v>
-      </c>
-      <c r="AG69">
-        <v>0</v>
-      </c>
-      <c r="AH69">
-        <v>0</v>
-      </c>
-      <c r="AI69">
         <v>0</v>
       </c>
     </row>
